--- a/components/system/src/test-reference/data/org/formulacompiler/tests/reference/LookupFunctions.xlsx
+++ b/components/system/src/test-reference/data/org/formulacompiler/tests/reference/LookupFunctions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14460" windowHeight="13080"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
   <si>
     <t>Actual</t>
   </si>
@@ -110,6 +110,42 @@
   </si>
   <si>
     <t>INDEX (1-dim, 2-idx)</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>один</t>
+  </si>
+  <si>
+    <t>два</t>
+  </si>
+  <si>
+    <t>три</t>
+  </si>
+  <si>
+    <t>eins</t>
+  </si>
+  <si>
+    <t>zwei</t>
+  </si>
+  <si>
+    <t>drei</t>
+  </si>
+  <si>
+    <t>VLOOKUP (equality)</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>четыре</t>
+  </si>
+  <si>
+    <t>vier</t>
+  </si>
+  <si>
+    <t>HLOOKUP (equality)</t>
   </si>
 </sst>
 </file>
@@ -487,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q179"/>
+  <dimension ref="A1:Q187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,7 +531,12 @@
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="8" max="9" width="5.375" customWidth="1"/>
     <col min="10" max="10" width="10.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.25" customWidth="1"/>
   </cols>
@@ -3474,62 +3515,68 @@
       </c>
     </row>
     <row r="114" spans="1:17">
-      <c r="A114">
-        <v>22</v>
-      </c>
-      <c r="B114">
-        <f>VLOOKUP(C114,D$114:F$116,3)</f>
-        <v>22</v>
-      </c>
-      <c r="C114">
-        <v>29</v>
-      </c>
-      <c r="D114">
-        <v>10</v>
-      </c>
-      <c r="E114">
-        <v>11</v>
-      </c>
-      <c r="F114">
-        <v>21</v>
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" t="str">
+        <f>HLOOKUP(C114,D$114:G$116,1,FALSE)</f>
+        <v>one</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
+        <v>32</v>
+      </c>
+      <c r="G114" t="s">
+        <v>40</v>
       </c>
       <c r="J114" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K114" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P114" t="b">
-        <f t="shared" ref="P114:P121" si="11">OR(ISBLANK(B114),IF(ISERROR(B114),ERROR.TYPE(B114)=IF(ISBLANK(M114),ERROR.TYPE(A114),ERROR.TYPE(M114)),IF(ISBLANK(M114),AND(NOT(ISBLANK(A114)),A114=B114),B114=M114)))</f>
+        <f t="shared" ref="P114:P116" si="11">OR(ISBLANK(B114),IF(ISERROR(B114),ERROR.TYPE(B114)=IF(ISBLANK(M114),ERROR.TYPE(A114),ERROR.TYPE(M114)),IF(ISBLANK(M114),AND(NOT(ISBLANK(A114)),A114=B114),B114=M114)))</f>
         <v>1</v>
       </c>
       <c r="Q114" t="b">
-        <f t="shared" ref="Q114:Q121" si="12">IF(ISBLANK(O114),IF(ISERROR(P114),FALSE,P114),O114)</f>
+        <f t="shared" ref="Q114:Q116" si="12">IF(ISBLANK(O114),IF(ISERROR(P114),FALSE,P114),O114)</f>
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:17">
-      <c r="A115">
-        <v>23</v>
-      </c>
-      <c r="B115">
-        <f>VLOOKUP(C115,D$114:F$116,3)</f>
-        <v>23</v>
-      </c>
-      <c r="C115">
-        <v>30</v>
-      </c>
-      <c r="D115">
-        <v>20</v>
-      </c>
-      <c r="E115">
-        <v>12</v>
-      </c>
-      <c r="F115">
-        <v>22</v>
+      <c r="A115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" t="str">
+        <f>HLOOKUP(C115,D$114:G$116,2,FALSE)</f>
+        <v>три</v>
+      </c>
+      <c r="C115" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" t="s">
+        <v>34</v>
+      </c>
+      <c r="F115" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" t="s">
+        <v>41</v>
       </c>
       <c r="J115" s="1">
         <v>1</v>
@@ -3544,24 +3591,27 @@
       </c>
     </row>
     <row r="116" spans="1:17">
-      <c r="A116">
-        <v>23</v>
-      </c>
-      <c r="B116">
-        <f>VLOOKUP(C116,D$114:F$116,3)</f>
-        <v>23</v>
-      </c>
-      <c r="C116">
-        <v>31</v>
-      </c>
-      <c r="D116">
-        <v>30</v>
-      </c>
-      <c r="E116">
-        <v>13</v>
-      </c>
-      <c r="F116">
-        <v>23</v>
+      <c r="A116" t="s">
+        <v>42</v>
+      </c>
+      <c r="B116" t="str">
+        <f>HLOOKUP(C116,D$114:G$116,3,FALSE)</f>
+        <v>vier</v>
+      </c>
+      <c r="C116" t="s">
+        <v>40</v>
+      </c>
+      <c r="D116" t="s">
+        <v>36</v>
+      </c>
+      <c r="E116" t="s">
+        <v>37</v>
+      </c>
+      <c r="F116" t="s">
+        <v>38</v>
+      </c>
+      <c r="G116" t="s">
+        <v>42</v>
       </c>
       <c r="J116" s="1">
         <v>1</v>
@@ -3575,55 +3625,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
-      <c r="A117">
-        <v>20</v>
-      </c>
-      <c r="B117">
-        <f>VLOOKUP(C117,D$114:F$116,D117)</f>
-        <v>20</v>
-      </c>
-      <c r="C117">
-        <v>29</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="J117" s="1">
-        <v>2</v>
-      </c>
-      <c r="P117" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Q117" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
     <row r="118" spans="1:17">
       <c r="A118">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B118">
-        <f>VLOOKUP(C118,D$114:F$116,D118)</f>
-        <v>13</v>
+        <f>VLOOKUP(C118,D$118:F$120,3)</f>
+        <v>22</v>
       </c>
       <c r="C118">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="E118">
+        <v>11</v>
+      </c>
+      <c r="F118">
+        <v>21</v>
       </c>
       <c r="J118" s="1">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K118" t="s">
+        <v>25</v>
+      </c>
+      <c r="L118" t="s">
+        <v>25</v>
       </c>
       <c r="P118" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="P118:P125" si="13">OR(ISBLANK(B118),IF(ISERROR(B118),ERROR.TYPE(B118)=IF(ISBLANK(M118),ERROR.TYPE(A118),ERROR.TYPE(M118)),IF(ISBLANK(M118),AND(NOT(ISBLANK(A118)),A118=B118),B118=M118)))</f>
         <v>1</v>
       </c>
       <c r="Q118" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="Q118:Q125" si="14">IF(ISBLANK(O118),IF(ISERROR(P118),FALSE,P118),O118)</f>
         <v>1</v>
       </c>
     </row>
@@ -3632,338 +3668,535 @@
         <v>23</v>
       </c>
       <c r="B119">
-        <f>VLOOKUP(C119,D$114:F$116,D119)</f>
+        <f>VLOOKUP(C119,D$118:F$120,3)</f>
         <v>23</v>
       </c>
       <c r="C119">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="E119">
+        <v>12</v>
+      </c>
+      <c r="F119">
+        <v>22</v>
       </c>
       <c r="J119" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P119" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q119" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:17">
-      <c r="A120" t="s">
-        <v>28</v>
-      </c>
-      <c r="B120" t="e">
-        <f>VLOOKUP(C120,D$114:F$116,D120)</f>
-        <v>#VALUE!</v>
+      <c r="A120">
+        <v>23</v>
+      </c>
+      <c r="B120">
+        <f>VLOOKUP(C120,D$118:F$120,3)</f>
+        <v>23</v>
       </c>
       <c r="C120">
         <v>31</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="E120">
+        <v>13</v>
+      </c>
+      <c r="F120">
+        <v>23</v>
       </c>
       <c r="J120" s="1">
-        <v>2</v>
-      </c>
-      <c r="M120" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="P120" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q120" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:17">
-      <c r="A121" t="s">
-        <v>28</v>
-      </c>
-      <c r="B121" t="e">
-        <f>VLOOKUP(C121,D$114:F$116,D121)</f>
-        <v>#REF!</v>
+      <c r="A121">
+        <v>20</v>
+      </c>
+      <c r="B121">
+        <f>VLOOKUP(C121,D$118:F$120,D121)</f>
+        <v>20</v>
       </c>
       <c r="C121">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J121" s="1">
         <v>2</v>
       </c>
-      <c r="M121" s="3" t="e">
-        <v>#REF!</v>
-      </c>
       <c r="P121" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q121" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:17">
-      <c r="M122" s="3"/>
+      <c r="A122">
+        <v>13</v>
+      </c>
+      <c r="B122">
+        <f>VLOOKUP(C122,D$118:F$120,D122)</f>
+        <v>13</v>
+      </c>
+      <c r="C122">
+        <v>30</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="J122" s="1">
+        <v>2</v>
+      </c>
+      <c r="P122" t="b">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q122" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:17">
       <c r="A123">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B123">
-        <f t="shared" ref="B123:B128" si="13">CHOOSE(C123,D123,E123,F123)</f>
-        <v>11</v>
+        <f>VLOOKUP(C123,D$118:F$120,D123)</f>
+        <v>23</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D123">
-        <v>11</v>
-      </c>
-      <c r="E123">
-        <v>12</v>
-      </c>
-      <c r="F123">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J123" s="1">
-        <v>4</v>
-      </c>
-      <c r="K123" t="s">
-        <v>26</v>
-      </c>
-      <c r="L123" t="s">
-        <v>26</v>
-      </c>
-      <c r="M123" s="3"/>
+        <v>2</v>
+      </c>
       <c r="P123" t="b">
-        <f t="shared" ref="P123:P128" si="14">OR(ISBLANK(B123),IF(ISERROR(B123),ERROR.TYPE(B123)=IF(ISBLANK(M123),ERROR.TYPE(A123),ERROR.TYPE(M123)),IF(ISBLANK(M123),AND(NOT(ISBLANK(A123)),A123=B123),B123=M123)))</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q123" t="b">
-        <f t="shared" ref="Q123:Q128" si="15">IF(ISBLANK(O123),IF(ISERROR(P123),FALSE,P123),O123)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:17">
-      <c r="A124">
-        <v>22</v>
-      </c>
-      <c r="B124">
+      <c r="A124" t="s">
+        <v>28</v>
+      </c>
+      <c r="B124" t="e">
+        <f>VLOOKUP(C124,D$118:F$120,D124)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C124">
+        <v>31</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <v>2</v>
+      </c>
+      <c r="M124" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P124" t="b">
         <f t="shared" si="13"/>
-        <v>22</v>
-      </c>
-      <c r="C124">
-        <v>2</v>
-      </c>
-      <c r="D124">
-        <v>21</v>
-      </c>
-      <c r="E124">
-        <v>22</v>
-      </c>
-      <c r="F124">
-        <v>23</v>
-      </c>
-      <c r="J124" s="1">
-        <v>4</v>
-      </c>
-      <c r="P124" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q124" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Q124" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="125" spans="1:17">
-      <c r="A125">
-        <v>33</v>
-      </c>
-      <c r="B125">
+      <c r="A125" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125" t="e">
+        <f>VLOOKUP(C125,D$118:F$120,D125)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C125">
+        <v>31</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="J125" s="1">
+        <v>2</v>
+      </c>
+      <c r="M125" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P125" t="b">
         <f t="shared" si="13"/>
-        <v>33</v>
-      </c>
-      <c r="C125">
-        <v>3</v>
-      </c>
-      <c r="D125">
-        <v>31</v>
-      </c>
-      <c r="E125">
-        <v>32</v>
-      </c>
-      <c r="F125">
-        <v>33</v>
-      </c>
-      <c r="J125" s="1">
-        <v>4</v>
-      </c>
-      <c r="P125" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q125" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Q125" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="126" spans="1:17">
-      <c r="A126" t="s">
-        <v>28</v>
-      </c>
-      <c r="B126" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C126">
-        <v>4</v>
-      </c>
-      <c r="D126">
-        <v>11</v>
-      </c>
-      <c r="E126">
-        <v>12</v>
-      </c>
-      <c r="F126">
-        <v>13</v>
-      </c>
-      <c r="J126" s="1">
-        <v>4</v>
-      </c>
-      <c r="M126" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P126" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Q126" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
+      <c r="M126" s="3"/>
     </row>
     <row r="127" spans="1:17">
       <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" t="str">
+        <f>VLOOKUP(C127,D$127:F$129,1,FALSE)</f>
+        <v>one</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>33</v>
+      </c>
+      <c r="F127" t="s">
+        <v>36</v>
+      </c>
+      <c r="J127" s="1">
+        <v>4</v>
+      </c>
+      <c r="K127" t="s">
+        <v>39</v>
+      </c>
+      <c r="L127" t="s">
+        <v>25</v>
+      </c>
+      <c r="P127" t="b">
+        <f t="shared" ref="P127:P129" si="15">OR(ISBLANK(B127),IF(ISERROR(B127),ERROR.TYPE(B127)=IF(ISBLANK(M127),ERROR.TYPE(A127),ERROR.TYPE(M127)),IF(ISBLANK(M127),AND(NOT(ISBLANK(A127)),A127=B127),B127=M127)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q127" t="b">
+        <f t="shared" ref="Q127:Q129" si="16">IF(ISBLANK(O127),IF(ISERROR(P127),FALSE,P127),O127)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128" t="s">
+        <v>34</v>
+      </c>
+      <c r="B128" t="str">
+        <f>VLOOKUP(C128,D$127:F$129,2,FALSE)</f>
+        <v>два</v>
+      </c>
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" t="s">
+        <v>34</v>
+      </c>
+      <c r="F128" t="s">
+        <v>37</v>
+      </c>
+      <c r="J128" s="1">
+        <v>1</v>
+      </c>
+      <c r="P128" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Q128" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" t="s">
+        <v>38</v>
+      </c>
+      <c r="B129" t="str">
+        <f>VLOOKUP(C129,D$127:F$129,3,FALSE)</f>
+        <v>drei</v>
+      </c>
+      <c r="C129" t="s">
+        <v>32</v>
+      </c>
+      <c r="D129" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129" t="s">
+        <v>35</v>
+      </c>
+      <c r="F129" t="s">
+        <v>38</v>
+      </c>
+      <c r="J129" s="1">
+        <v>1</v>
+      </c>
+      <c r="P129" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Q129" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="M130" s="3"/>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131">
+        <v>11</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ref="B131:B136" si="17">CHOOSE(C131,D131,E131,F131)</f>
+        <v>11</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>11</v>
+      </c>
+      <c r="E131">
+        <v>12</v>
+      </c>
+      <c r="F131">
+        <v>13</v>
+      </c>
+      <c r="J131" s="1">
+        <v>4</v>
+      </c>
+      <c r="K131" t="s">
+        <v>26</v>
+      </c>
+      <c r="L131" t="s">
+        <v>26</v>
+      </c>
+      <c r="M131" s="3"/>
+      <c r="P131" t="b">
+        <f t="shared" ref="P131:P136" si="18">OR(ISBLANK(B131),IF(ISERROR(B131),ERROR.TYPE(B131)=IF(ISBLANK(M131),ERROR.TYPE(A131),ERROR.TYPE(M131)),IF(ISBLANK(M131),AND(NOT(ISBLANK(A131)),A131=B131),B131=M131)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q131" t="b">
+        <f t="shared" ref="Q131:Q136" si="19">IF(ISBLANK(O131),IF(ISERROR(P131),FALSE,P131),O131)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132">
+        <v>22</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>21</v>
+      </c>
+      <c r="E132">
+        <v>22</v>
+      </c>
+      <c r="F132">
+        <v>23</v>
+      </c>
+      <c r="J132" s="1">
+        <v>4</v>
+      </c>
+      <c r="P132" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q132" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133">
+        <v>33</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="17"/>
+        <v>33</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+      <c r="D133">
+        <v>31</v>
+      </c>
+      <c r="E133">
+        <v>32</v>
+      </c>
+      <c r="F133">
+        <v>33</v>
+      </c>
+      <c r="J133" s="1">
+        <v>4</v>
+      </c>
+      <c r="P133" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q133" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" t="s">
         <v>28</v>
       </c>
-      <c r="B127" t="e">
-        <f t="shared" si="13"/>
+      <c r="B134" t="e">
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C127">
+      <c r="C134">
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <v>11</v>
+      </c>
+      <c r="E134">
+        <v>12</v>
+      </c>
+      <c r="F134">
+        <v>13</v>
+      </c>
+      <c r="J134" s="1">
+        <v>4</v>
+      </c>
+      <c r="M134" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P134" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q134" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" t="s">
+        <v>28</v>
+      </c>
+      <c r="B135" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C135">
         <v>0</v>
       </c>
-      <c r="D127">
-        <v>11</v>
-      </c>
-      <c r="E127">
-        <v>12</v>
-      </c>
-      <c r="F127">
+      <c r="D135">
+        <v>11</v>
+      </c>
+      <c r="E135">
+        <v>12</v>
+      </c>
+      <c r="F135">
         <v>13</v>
       </c>
-      <c r="J127" s="1">
-        <v>4</v>
-      </c>
-      <c r="M127" s="3" t="e">
+      <c r="J135" s="1">
+        <v>4</v>
+      </c>
+      <c r="M135" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P127" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Q127" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17">
-      <c r="A128">
-        <v>12</v>
-      </c>
-      <c r="B128">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="C128">
+      <c r="P135" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q135" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136">
+        <v>12</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="C136">
         <v>2.99</v>
       </c>
-      <c r="D128">
-        <v>11</v>
-      </c>
-      <c r="E128">
-        <v>12</v>
-      </c>
-      <c r="F128">
+      <c r="D136">
+        <v>11</v>
+      </c>
+      <c r="E136">
+        <v>12</v>
+      </c>
+      <c r="F136">
         <v>13</v>
       </c>
-      <c r="J128" s="1">
-        <v>4</v>
-      </c>
-      <c r="P128" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Q128" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="13:13">
-      <c r="M142" s="3"/>
-    </row>
-    <row r="146" spans="13:13">
-      <c r="M146" s="3"/>
-    </row>
-    <row r="148" spans="13:13">
-      <c r="M148" s="3"/>
-    </row>
-    <row r="149" spans="13:13">
-      <c r="M149" s="3"/>
-    </row>
-    <row r="151" spans="13:13">
-      <c r="M151" s="3"/>
-    </row>
-    <row r="153" spans="13:13">
-      <c r="M153" s="3"/>
+      <c r="J136" s="1">
+        <v>4</v>
+      </c>
+      <c r="P136" t="b">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q136" t="b">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="13:13">
+      <c r="M150" s="3"/>
     </row>
     <row r="154" spans="13:13">
       <c r="M154" s="3"/>
     </row>
-    <row r="158" spans="13:13">
-      <c r="M158" s="3"/>
+    <row r="156" spans="13:13">
+      <c r="M156" s="3"/>
+    </row>
+    <row r="157" spans="13:13">
+      <c r="M157" s="3"/>
     </row>
     <row r="159" spans="13:13">
       <c r="M159" s="3"/>
     </row>
-    <row r="160" spans="13:13">
-      <c r="M160" s="3"/>
-    </row>
     <row r="161" spans="13:13">
       <c r="M161" s="3"/>
     </row>
     <row r="162" spans="13:13">
       <c r="M162" s="3"/>
     </row>
-    <row r="163" spans="13:13">
-      <c r="M163" s="3"/>
-    </row>
-    <row r="164" spans="13:13">
-      <c r="M164" s="3"/>
-    </row>
-    <row r="165" spans="13:13">
-      <c r="M165" s="3"/>
-    </row>
     <row r="166" spans="13:13">
       <c r="M166" s="3"/>
     </row>
@@ -4006,9 +4239,33 @@
     <row r="179" spans="13:13">
       <c r="M179" s="3"/>
     </row>
+    <row r="180" spans="13:13">
+      <c r="M180" s="3"/>
+    </row>
+    <row r="181" spans="13:13">
+      <c r="M181" s="3"/>
+    </row>
+    <row r="182" spans="13:13">
+      <c r="M182" s="3"/>
+    </row>
+    <row r="183" spans="13:13">
+      <c r="M183" s="3"/>
+    </row>
+    <row r="184" spans="13:13">
+      <c r="M184" s="3"/>
+    </row>
+    <row r="185" spans="13:13">
+      <c r="M185" s="3"/>
+    </row>
+    <row r="186" spans="13:13">
+      <c r="M186" s="3"/>
+    </row>
+    <row r="187" spans="13:13">
+      <c r="M187" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A10009">
+  <conditionalFormatting sqref="A2:A10017">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>NOT(OR(ISBLANK(Q2),Q2))</formula>
     </cfRule>
@@ -4016,12 +4273,12 @@
       <formula>NOT(AND(ISBLANK(M2),ISBLANK(O2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I10009">
+  <conditionalFormatting sqref="C2:I10017">
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$J2&gt;COLUMN(C2)-3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M10009">
+  <conditionalFormatting sqref="M2:M10017">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(M2)),IF(ISERROR(A2),ERROR.TYPE(A2)=ERROR.TYPE(M2),A2=M2))</formula>
     </cfRule>

--- a/components/system/src/test-reference/data/org/formulacompiler/tests/reference/LookupFunctions.xlsx
+++ b/components/system/src/test-reference/data/org/formulacompiler/tests/reference/LookupFunctions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
   <si>
     <t>Actual</t>
   </si>
@@ -145,7 +145,16 @@
     <t>vier</t>
   </si>
   <si>
+    <t>five</t>
+  </si>
+  <si>
     <t>HLOOKUP (equality)</t>
+  </si>
+  <si>
+    <t>!STR:FE</t>
+  </si>
+  <si>
+    <t>!STR:NA</t>
   </si>
 </sst>
 </file>
@@ -204,7 +213,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -523,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q187"/>
+  <dimension ref="A1:Q199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3541,17 +3564,17 @@
         <v>5</v>
       </c>
       <c r="K114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L114" t="s">
         <v>24</v>
       </c>
       <c r="P114" t="b">
-        <f t="shared" ref="P114:P116" si="11">OR(ISBLANK(B114),IF(ISERROR(B114),ERROR.TYPE(B114)=IF(ISBLANK(M114),ERROR.TYPE(A114),ERROR.TYPE(M114)),IF(ISBLANK(M114),AND(NOT(ISBLANK(A114)),A114=B114),B114=M114)))</f>
+        <f t="shared" ref="P114:P121" si="11">OR(ISBLANK(B114),IF(ISERROR(B114),ERROR.TYPE(B114)=IF(ISBLANK(M114),ERROR.TYPE(A114),ERROR.TYPE(M114)),IF(ISBLANK(M114),AND(NOT(ISBLANK(A114)),A114=B114),B114=M114)))</f>
         <v>1</v>
       </c>
       <c r="Q114" t="b">
-        <f t="shared" ref="Q114:Q116" si="12">IF(ISBLANK(O114),IF(ISERROR(P114),FALSE,P114),O114)</f>
+        <f t="shared" ref="Q114:Q122" si="12">IF(ISBLANK(O114),IF(ISERROR(P114),FALSE,P114),O114)</f>
         <v>1</v>
       </c>
     </row>
@@ -3625,574 +3648,886 @@
         <v>1</v>
       </c>
     </row>
+    <row r="117" spans="1:17">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" ref="B117:B122" si="13">HLOOKUP(C117,D$114:G$116,D117,FALSE)</f>
+        <v>one</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="J117" s="1">
+        <v>2</v>
+      </c>
+      <c r="P117" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q117" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="118" spans="1:17">
-      <c r="A118">
+      <c r="A118" t="s">
+        <v>35</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="13"/>
+        <v>три</v>
+      </c>
+      <c r="C118" t="s">
+        <v>32</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="J118" s="1">
+        <v>2</v>
+      </c>
+      <c r="P118" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q118" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" t="s">
+        <v>42</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="13"/>
+        <v>vier</v>
+      </c>
+      <c r="C119" t="s">
+        <v>40</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="J119" s="1">
+        <v>2</v>
+      </c>
+      <c r="P119" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q119" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C120" t="s">
+        <v>43</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="J120" s="1">
+        <v>2</v>
+      </c>
+      <c r="M120" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P120" t="b">
+        <f>OR(ISBLANK(B120),IF(ISERROR(B120),ERROR.TYPE(B120)=IF(ISBLANK(M120),ERROR.TYPE(A120),ERROR.TYPE(M120)),IF(ISBLANK(M120),AND(NOT(ISBLANK(A120)),A120=B120),B120=M120)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q120" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" t="s">
+        <v>45</v>
+      </c>
+      <c r="B121" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1">
+        <v>2</v>
+      </c>
+      <c r="M121" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P121" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q121" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" t="e">
+        <f t="shared" si="13"/>
+        <v>#REF!</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
+      </c>
+      <c r="J122" s="1">
+        <v>2</v>
+      </c>
+      <c r="M122" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P122" t="b">
+        <f>OR(ISBLANK(B122),IF(ISERROR(B122),ERROR.TYPE(B122)=IF(ISBLANK(M122),ERROR.TYPE(A122),ERROR.TYPE(M122)),IF(ISBLANK(M122),AND(NOT(ISBLANK(A122)),A122=B122),B122=M122)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q122" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124">
         <v>22</v>
       </c>
-      <c r="B118">
-        <f>VLOOKUP(C118,D$118:F$120,3)</f>
+      <c r="B124">
+        <f>VLOOKUP(C124,D$124:F$126,3)</f>
         <v>22</v>
       </c>
-      <c r="C118">
+      <c r="C124">
         <v>29</v>
       </c>
-      <c r="D118">
+      <c r="D124">
         <v>10</v>
       </c>
-      <c r="E118">
+      <c r="E124">
         <v>11</v>
       </c>
-      <c r="F118">
+      <c r="F124">
         <v>21</v>
       </c>
-      <c r="J118" s="1">
-        <v>4</v>
-      </c>
-      <c r="K118" t="s">
+      <c r="J124" s="1">
+        <v>4</v>
+      </c>
+      <c r="K124" t="s">
         <v>25</v>
       </c>
-      <c r="L118" t="s">
+      <c r="L124" t="s">
         <v>25</v>
       </c>
-      <c r="P118" t="b">
-        <f t="shared" ref="P118:P125" si="13">OR(ISBLANK(B118),IF(ISERROR(B118),ERROR.TYPE(B118)=IF(ISBLANK(M118),ERROR.TYPE(A118),ERROR.TYPE(M118)),IF(ISBLANK(M118),AND(NOT(ISBLANK(A118)),A118=B118),B118=M118)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q118" t="b">
-        <f t="shared" ref="Q118:Q125" si="14">IF(ISBLANK(O118),IF(ISERROR(P118),FALSE,P118),O118)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17">
-      <c r="A119">
+      <c r="P124" t="b">
+        <f t="shared" ref="P124:P131" si="14">OR(ISBLANK(B124),IF(ISERROR(B124),ERROR.TYPE(B124)=IF(ISBLANK(M124),ERROR.TYPE(A124),ERROR.TYPE(M124)),IF(ISBLANK(M124),AND(NOT(ISBLANK(A124)),A124=B124),B124=M124)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q124" t="b">
+        <f t="shared" ref="Q124:Q131" si="15">IF(ISBLANK(O124),IF(ISERROR(P124),FALSE,P124),O124)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125">
         <v>23</v>
       </c>
-      <c r="B119">
-        <f>VLOOKUP(C119,D$118:F$120,3)</f>
+      <c r="B125">
+        <f>VLOOKUP(C125,D$124:F$126,3)</f>
         <v>23</v>
       </c>
-      <c r="C119">
+      <c r="C125">
         <v>30</v>
       </c>
-      <c r="D119">
+      <c r="D125">
         <v>20</v>
       </c>
-      <c r="E119">
-        <v>12</v>
-      </c>
-      <c r="F119">
+      <c r="E125">
+        <v>12</v>
+      </c>
+      <c r="F125">
         <v>22</v>
       </c>
-      <c r="J119" s="1">
-        <v>1</v>
-      </c>
-      <c r="P119" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="Q119" t="b">
+      <c r="J125" s="1">
+        <v>1</v>
+      </c>
+      <c r="P125" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:17">
-      <c r="A120">
+      <c r="Q125" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="A126">
         <v>23</v>
       </c>
-      <c r="B120">
-        <f>VLOOKUP(C120,D$118:F$120,3)</f>
+      <c r="B126">
+        <f>VLOOKUP(C126,D$124:F$126,3)</f>
         <v>23</v>
       </c>
-      <c r="C120">
+      <c r="C126">
         <v>31</v>
       </c>
-      <c r="D120">
+      <c r="D126">
         <v>30</v>
       </c>
-      <c r="E120">
+      <c r="E126">
         <v>13</v>
       </c>
-      <c r="F120">
+      <c r="F126">
         <v>23</v>
       </c>
-      <c r="J120" s="1">
-        <v>1</v>
-      </c>
-      <c r="P120" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="Q120" t="b">
+      <c r="J126" s="1">
+        <v>1</v>
+      </c>
+      <c r="P126" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:17">
-      <c r="A121">
+      <c r="Q126" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="A127">
         <v>20</v>
       </c>
-      <c r="B121">
-        <f>VLOOKUP(C121,D$118:F$120,D121)</f>
+      <c r="B127">
+        <f>VLOOKUP(C127,D$124:F$126,D127)</f>
         <v>20</v>
       </c>
-      <c r="C121">
+      <c r="C127">
         <v>29</v>
       </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="J121" s="1">
-        <v>2</v>
-      </c>
-      <c r="P121" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="Q121" t="b">
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="J127" s="1">
+        <v>2</v>
+      </c>
+      <c r="P127" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:17">
-      <c r="A122">
+      <c r="Q127" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128">
         <v>13</v>
       </c>
-      <c r="B122">
-        <f>VLOOKUP(C122,D$118:F$120,D122)</f>
+      <c r="B128">
+        <f>VLOOKUP(C128,D$124:F$126,D128)</f>
         <v>13</v>
       </c>
-      <c r="C122">
+      <c r="C128">
         <v>30</v>
       </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-      <c r="J122" s="1">
-        <v>2</v>
-      </c>
-      <c r="P122" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="Q122" t="b">
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="J128" s="1">
+        <v>2</v>
+      </c>
+      <c r="P128" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:17">
-      <c r="A123">
+      <c r="Q128" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129">
         <v>23</v>
       </c>
-      <c r="B123">
-        <f>VLOOKUP(C123,D$118:F$120,D123)</f>
+      <c r="B129">
+        <f>VLOOKUP(C129,D$124:F$126,D129)</f>
         <v>23</v>
       </c>
-      <c r="C123">
+      <c r="C129">
         <v>31</v>
       </c>
-      <c r="D123">
+      <c r="D129">
         <v>3</v>
       </c>
-      <c r="J123" s="1">
-        <v>2</v>
-      </c>
-      <c r="P123" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="Q123" t="b">
+      <c r="J129" s="1">
+        <v>2</v>
+      </c>
+      <c r="P129" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:17">
-      <c r="A124" t="s">
+      <c r="Q129" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" t="s">
         <v>28</v>
       </c>
-      <c r="B124" t="e">
-        <f>VLOOKUP(C124,D$118:F$120,D124)</f>
+      <c r="B130" t="e">
+        <f>VLOOKUP(C130,D$124:F$126,D130)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C124">
+      <c r="C130">
         <v>31</v>
       </c>
-      <c r="D124">
+      <c r="D130">
         <v>0</v>
       </c>
-      <c r="J124" s="1">
-        <v>2</v>
-      </c>
-      <c r="M124" s="3" t="e">
+      <c r="J130" s="1">
+        <v>2</v>
+      </c>
+      <c r="M130" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P124" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="Q124" t="b">
+      <c r="P130" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:17">
-      <c r="A125" t="s">
+      <c r="Q130" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" t="s">
         <v>28</v>
       </c>
-      <c r="B125" t="e">
-        <f>VLOOKUP(C125,D$118:F$120,D125)</f>
+      <c r="B131" t="e">
+        <f>VLOOKUP(C131,D$124:F$126,D131)</f>
         <v>#REF!</v>
       </c>
-      <c r="C125">
+      <c r="C131">
         <v>31</v>
       </c>
-      <c r="D125">
-        <v>4</v>
-      </c>
-      <c r="J125" s="1">
-        <v>2</v>
-      </c>
-      <c r="M125" s="3" t="e">
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="J131" s="1">
+        <v>2</v>
+      </c>
+      <c r="M131" s="3" t="e">
         <v>#REF!</v>
       </c>
-      <c r="P125" t="b">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="Q125" t="b">
+      <c r="P131" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:17">
-      <c r="M126" s="3"/>
-    </row>
-    <row r="127" spans="1:17">
-      <c r="A127" t="s">
-        <v>12</v>
-      </c>
-      <c r="B127" t="str">
-        <f>VLOOKUP(C127,D$127:F$129,1,FALSE)</f>
+      <c r="Q131" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="M132" s="3"/>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" t="str">
+        <f>VLOOKUP(C133,D$133:F$135,1,FALSE)</f>
         <v>one</v>
       </c>
-      <c r="C127" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
         <v>33</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F133" t="s">
         <v>36</v>
       </c>
-      <c r="J127" s="1">
-        <v>4</v>
-      </c>
-      <c r="K127" t="s">
+      <c r="J133" s="1">
+        <v>4</v>
+      </c>
+      <c r="K133" t="s">
         <v>39</v>
       </c>
-      <c r="L127" t="s">
+      <c r="L133" t="s">
         <v>25</v>
       </c>
-      <c r="P127" t="b">
-        <f t="shared" ref="P127:P129" si="15">OR(ISBLANK(B127),IF(ISERROR(B127),ERROR.TYPE(B127)=IF(ISBLANK(M127),ERROR.TYPE(A127),ERROR.TYPE(M127)),IF(ISBLANK(M127),AND(NOT(ISBLANK(A127)),A127=B127),B127=M127)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q127" t="b">
-        <f t="shared" ref="Q127:Q129" si="16">IF(ISBLANK(O127),IF(ISERROR(P127),FALSE,P127),O127)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17">
-      <c r="A128" t="s">
-        <v>34</v>
-      </c>
-      <c r="B128" t="str">
-        <f>VLOOKUP(C128,D$127:F$129,2,FALSE)</f>
-        <v>два</v>
-      </c>
-      <c r="C128" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" t="s">
-        <v>13</v>
-      </c>
-      <c r="E128" t="s">
-        <v>34</v>
-      </c>
-      <c r="F128" t="s">
-        <v>37</v>
-      </c>
-      <c r="J128" s="1">
-        <v>1</v>
-      </c>
-      <c r="P128" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Q128" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17">
-      <c r="A129" t="s">
-        <v>38</v>
-      </c>
-      <c r="B129" t="str">
-        <f>VLOOKUP(C129,D$127:F$129,3,FALSE)</f>
-        <v>drei</v>
-      </c>
-      <c r="C129" t="s">
-        <v>32</v>
-      </c>
-      <c r="D129" t="s">
-        <v>32</v>
-      </c>
-      <c r="E129" t="s">
-        <v>35</v>
-      </c>
-      <c r="F129" t="s">
-        <v>38</v>
-      </c>
-      <c r="J129" s="1">
-        <v>1</v>
-      </c>
-      <c r="P129" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Q129" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17">
-      <c r="M130" s="3"/>
-    </row>
-    <row r="131" spans="1:17">
-      <c r="A131">
-        <v>11</v>
-      </c>
-      <c r="B131">
-        <f t="shared" ref="B131:B136" si="17">CHOOSE(C131,D131,E131,F131)</f>
-        <v>11</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131">
-        <v>11</v>
-      </c>
-      <c r="E131">
-        <v>12</v>
-      </c>
-      <c r="F131">
-        <v>13</v>
-      </c>
-      <c r="J131" s="1">
-        <v>4</v>
-      </c>
-      <c r="K131" t="s">
-        <v>26</v>
-      </c>
-      <c r="L131" t="s">
-        <v>26</v>
-      </c>
-      <c r="M131" s="3"/>
-      <c r="P131" t="b">
-        <f t="shared" ref="P131:P136" si="18">OR(ISBLANK(B131),IF(ISERROR(B131),ERROR.TYPE(B131)=IF(ISBLANK(M131),ERROR.TYPE(A131),ERROR.TYPE(M131)),IF(ISBLANK(M131),AND(NOT(ISBLANK(A131)),A131=B131),B131=M131)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q131" t="b">
-        <f t="shared" ref="Q131:Q136" si="19">IF(ISBLANK(O131),IF(ISERROR(P131),FALSE,P131),O131)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17">
-      <c r="A132">
-        <v>22</v>
-      </c>
-      <c r="B132">
-        <f t="shared" si="17"/>
-        <v>22</v>
-      </c>
-      <c r="C132">
-        <v>2</v>
-      </c>
-      <c r="D132">
-        <v>21</v>
-      </c>
-      <c r="E132">
-        <v>22</v>
-      </c>
-      <c r="F132">
-        <v>23</v>
-      </c>
-      <c r="J132" s="1">
-        <v>4</v>
-      </c>
-      <c r="P132" t="b">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="Q132" t="b">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17">
-      <c r="A133">
-        <v>33</v>
-      </c>
-      <c r="B133">
-        <f t="shared" si="17"/>
-        <v>33</v>
-      </c>
-      <c r="C133">
-        <v>3</v>
-      </c>
-      <c r="D133">
-        <v>31</v>
-      </c>
-      <c r="E133">
-        <v>32</v>
-      </c>
-      <c r="F133">
-        <v>33</v>
-      </c>
-      <c r="J133" s="1">
-        <v>4</v>
-      </c>
       <c r="P133" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="P133:P141" si="16">OR(ISBLANK(B133),IF(ISERROR(B133),ERROR.TYPE(B133)=IF(ISBLANK(M133),ERROR.TYPE(A133),ERROR.TYPE(M133)),IF(ISBLANK(M133),AND(NOT(ISBLANK(A133)),A133=B133),B133=M133)))</f>
         <v>1</v>
       </c>
       <c r="Q133" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="Q133:Q141" si="17">IF(ISBLANK(O133),IF(ISERROR(P133),FALSE,P133),O133)</f>
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:17">
       <c r="A134" t="s">
-        <v>28</v>
-      </c>
-      <c r="B134" t="e">
+        <v>34</v>
+      </c>
+      <c r="B134" t="str">
+        <f>VLOOKUP(C134,D$133:F$135,2,FALSE)</f>
+        <v>два</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" t="s">
+        <v>34</v>
+      </c>
+      <c r="F134" t="s">
+        <v>37</v>
+      </c>
+      <c r="J134" s="1">
+        <v>1</v>
+      </c>
+      <c r="P134" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q134" t="b">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C134">
-        <v>4</v>
-      </c>
-      <c r="D134">
-        <v>11</v>
-      </c>
-      <c r="E134">
-        <v>12</v>
-      </c>
-      <c r="F134">
-        <v>13</v>
-      </c>
-      <c r="J134" s="1">
-        <v>4</v>
-      </c>
-      <c r="M134" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P134" t="b">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="Q134" t="b">
-        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:17">
       <c r="A135" t="s">
+        <v>38</v>
+      </c>
+      <c r="B135" t="str">
+        <f>VLOOKUP(C135,D$133:F$135,3,FALSE)</f>
+        <v>drei</v>
+      </c>
+      <c r="C135" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" t="s">
+        <v>32</v>
+      </c>
+      <c r="E135" t="s">
+        <v>35</v>
+      </c>
+      <c r="F135" t="s">
+        <v>38</v>
+      </c>
+      <c r="J135" s="1">
+        <v>1</v>
+      </c>
+      <c r="P135" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q135" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" ref="B136:B141" si="18">VLOOKUP(C136,D$133:F$135,D136,FALSE)</f>
+        <v>one</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="J136" s="1">
+        <v>2</v>
+      </c>
+      <c r="P136" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q136" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" t="s">
+        <v>34</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="18"/>
+        <v>два</v>
+      </c>
+      <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="J137" s="1">
+        <v>2</v>
+      </c>
+      <c r="P137" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q137" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138" t="s">
+        <v>38</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="18"/>
+        <v>drei</v>
+      </c>
+      <c r="C138" t="s">
+        <v>32</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="J138" s="1">
+        <v>2</v>
+      </c>
+      <c r="P138" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q138" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C139" t="s">
+        <v>40</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="J139" s="1">
+        <v>2</v>
+      </c>
+      <c r="M139" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P139" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q139" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" t="s">
+        <v>45</v>
+      </c>
+      <c r="B140" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="J140" s="1">
+        <v>2</v>
+      </c>
+      <c r="M140" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P140" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q140" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B141" t="e">
+        <f t="shared" si="18"/>
+        <v>#REF!</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="J141" s="1">
+        <v>2</v>
+      </c>
+      <c r="M141" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P141" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q141" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="M142" s="3"/>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="A143">
+        <v>11</v>
+      </c>
+      <c r="B143">
+        <f t="shared" ref="B143:B148" si="19">CHOOSE(C143,D143,E143,F143)</f>
+        <v>11</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>11</v>
+      </c>
+      <c r="E143">
+        <v>12</v>
+      </c>
+      <c r="F143">
+        <v>13</v>
+      </c>
+      <c r="J143" s="1">
+        <v>4</v>
+      </c>
+      <c r="K143" t="s">
+        <v>26</v>
+      </c>
+      <c r="L143" t="s">
+        <v>26</v>
+      </c>
+      <c r="M143" s="3"/>
+      <c r="P143" t="b">
+        <f t="shared" ref="P143:P148" si="20">OR(ISBLANK(B143),IF(ISERROR(B143),ERROR.TYPE(B143)=IF(ISBLANK(M143),ERROR.TYPE(A143),ERROR.TYPE(M143)),IF(ISBLANK(M143),AND(NOT(ISBLANK(A143)),A143=B143),B143=M143)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q143" t="b">
+        <f t="shared" ref="Q143:Q148" si="21">IF(ISBLANK(O143),IF(ISERROR(P143),FALSE,P143),O143)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144">
+        <v>22</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="19"/>
+        <v>22</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>21</v>
+      </c>
+      <c r="E144">
+        <v>22</v>
+      </c>
+      <c r="F144">
+        <v>23</v>
+      </c>
+      <c r="J144" s="1">
+        <v>4</v>
+      </c>
+      <c r="P144" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q144" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145">
+        <v>33</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>31</v>
+      </c>
+      <c r="E145">
+        <v>32</v>
+      </c>
+      <c r="F145">
+        <v>33</v>
+      </c>
+      <c r="J145" s="1">
+        <v>4</v>
+      </c>
+      <c r="P145" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q145" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146" t="s">
         <v>28</v>
       </c>
-      <c r="B135" t="e">
-        <f t="shared" si="17"/>
+      <c r="B146" t="e">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C135">
+      <c r="C146">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>11</v>
+      </c>
+      <c r="E146">
+        <v>12</v>
+      </c>
+      <c r="F146">
+        <v>13</v>
+      </c>
+      <c r="J146" s="1">
+        <v>4</v>
+      </c>
+      <c r="M146" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P146" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q146" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
+      <c r="A147" t="s">
+        <v>28</v>
+      </c>
+      <c r="B147" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C147">
         <v>0</v>
       </c>
-      <c r="D135">
+      <c r="D147">
         <v>11</v>
       </c>
-      <c r="E135">
-        <v>12</v>
-      </c>
-      <c r="F135">
+      <c r="E147">
+        <v>12</v>
+      </c>
+      <c r="F147">
         <v>13</v>
       </c>
-      <c r="J135" s="1">
-        <v>4</v>
-      </c>
-      <c r="M135" s="3" t="e">
+      <c r="J147" s="1">
+        <v>4</v>
+      </c>
+      <c r="M147" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P135" t="b">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="Q135" t="b">
+      <c r="P147" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q147" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
+      <c r="A148">
+        <v>12</v>
+      </c>
+      <c r="B148">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17">
-      <c r="A136">
-        <v>12</v>
-      </c>
-      <c r="B136">
-        <f t="shared" si="17"/>
-        <v>12</v>
-      </c>
-      <c r="C136">
+        <v>12</v>
+      </c>
+      <c r="C148">
         <v>2.99</v>
       </c>
-      <c r="D136">
+      <c r="D148">
         <v>11</v>
       </c>
-      <c r="E136">
-        <v>12</v>
-      </c>
-      <c r="F136">
+      <c r="E148">
+        <v>12</v>
+      </c>
+      <c r="F148">
         <v>13</v>
       </c>
-      <c r="J136" s="1">
-        <v>4</v>
-      </c>
-      <c r="P136" t="b">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="Q136" t="b">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="13:13">
-      <c r="M150" s="3"/>
-    </row>
-    <row r="154" spans="13:13">
-      <c r="M154" s="3"/>
-    </row>
-    <row r="156" spans="13:13">
-      <c r="M156" s="3"/>
-    </row>
-    <row r="157" spans="13:13">
-      <c r="M157" s="3"/>
-    </row>
-    <row r="159" spans="13:13">
-      <c r="M159" s="3"/>
-    </row>
-    <row r="161" spans="13:13">
-      <c r="M161" s="3"/>
+      <c r="J148" s="1">
+        <v>4</v>
+      </c>
+      <c r="P148" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q148" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="162" spans="13:13">
       <c r="M162" s="3"/>
@@ -4200,39 +4535,21 @@
     <row r="166" spans="13:13">
       <c r="M166" s="3"/>
     </row>
-    <row r="167" spans="13:13">
-      <c r="M167" s="3"/>
-    </row>
     <row r="168" spans="13:13">
       <c r="M168" s="3"/>
     </row>
     <row r="169" spans="13:13">
       <c r="M169" s="3"/>
     </row>
-    <row r="170" spans="13:13">
-      <c r="M170" s="3"/>
-    </row>
     <row r="171" spans="13:13">
       <c r="M171" s="3"/>
     </row>
-    <row r="172" spans="13:13">
-      <c r="M172" s="3"/>
-    </row>
     <row r="173" spans="13:13">
       <c r="M173" s="3"/>
     </row>
     <row r="174" spans="13:13">
       <c r="M174" s="3"/>
     </row>
-    <row r="175" spans="13:13">
-      <c r="M175" s="3"/>
-    </row>
-    <row r="176" spans="13:13">
-      <c r="M176" s="3"/>
-    </row>
-    <row r="177" spans="13:13">
-      <c r="M177" s="3"/>
-    </row>
     <row r="178" spans="13:13">
       <c r="M178" s="3"/>
     </row>
@@ -4263,23 +4580,59 @@
     <row r="187" spans="13:13">
       <c r="M187" s="3"/>
     </row>
+    <row r="188" spans="13:13">
+      <c r="M188" s="3"/>
+    </row>
+    <row r="189" spans="13:13">
+      <c r="M189" s="3"/>
+    </row>
+    <row r="190" spans="13:13">
+      <c r="M190" s="3"/>
+    </row>
+    <row r="191" spans="13:13">
+      <c r="M191" s="3"/>
+    </row>
+    <row r="192" spans="13:13">
+      <c r="M192" s="3"/>
+    </row>
+    <row r="193" spans="13:13">
+      <c r="M193" s="3"/>
+    </row>
+    <row r="194" spans="13:13">
+      <c r="M194" s="3"/>
+    </row>
+    <row r="195" spans="13:13">
+      <c r="M195" s="3"/>
+    </row>
+    <row r="196" spans="13:13">
+      <c r="M196" s="3"/>
+    </row>
+    <row r="197" spans="13:13">
+      <c r="M197" s="3"/>
+    </row>
+    <row r="198" spans="13:13">
+      <c r="M198" s="3"/>
+    </row>
+    <row r="199" spans="13:13">
+      <c r="M199" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A10017">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:A10029">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>NOT(OR(ISBLANK(Q2),Q2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>NOT(AND(ISBLANK(M2),ISBLANK(O2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I10017">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="C2:I10029">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>$J2&gt;COLUMN(C2)-3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M10017">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="M2:M10029">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(M2)),IF(ISERROR(A2),ERROR.TYPE(A2)=ERROR.TYPE(M2),A2=M2))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/components/system/src/test-reference/data/org/formulacompiler/tests/reference/LookupFunctions.xlsx
+++ b/components/system/src/test-reference/data/org/formulacompiler/tests/reference/LookupFunctions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
   <si>
     <t>Actual</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>!STR:NA</t>
+  </si>
+  <si>
+    <t>COLUMN</t>
+  </si>
+  <si>
+    <t>ROW</t>
   </si>
 </sst>
 </file>
@@ -213,21 +219,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -4529,6 +4521,98 @@
         <v>1</v>
       </c>
     </row>
+    <row r="150" spans="1:17">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150">
+        <f>COLUMN()</f>
+        <v>2</v>
+      </c>
+      <c r="J150" s="1">
+        <v>0</v>
+      </c>
+      <c r="K150" t="s">
+        <v>47</v>
+      </c>
+      <c r="L150" t="s">
+        <v>47</v>
+      </c>
+      <c r="P150" t="b">
+        <f t="shared" ref="P150:P151" si="22">OR(ISBLANK(B150),IF(ISERROR(B150),ERROR.TYPE(B150)=IF(ISBLANK(M150),ERROR.TYPE(A150),ERROR.TYPE(M150)),IF(ISBLANK(M150),AND(NOT(ISBLANK(A150)),A150=B150),B150=M150)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q150" t="b">
+        <f t="shared" ref="Q150:Q151" si="23">IF(ISBLANK(O150),IF(ISERROR(P150),FALSE,P150),O150)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
+      <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151">
+        <f>COLUMN(C151)</f>
+        <v>3</v>
+      </c>
+      <c r="J151" s="1">
+        <v>1</v>
+      </c>
+      <c r="P151" t="b">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="Q151" t="b">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <f>ROW()</f>
+        <v>153</v>
+      </c>
+      <c r="J153" s="1">
+        <v>0</v>
+      </c>
+      <c r="K153" t="s">
+        <v>48</v>
+      </c>
+      <c r="L153" t="s">
+        <v>48</v>
+      </c>
+      <c r="P153" t="b">
+        <f t="shared" ref="P153:P154" si="24">OR(ISBLANK(B153),IF(ISERROR(B153),ERROR.TYPE(B153)=IF(ISBLANK(M153),ERROR.TYPE(A153),ERROR.TYPE(M153)),IF(ISBLANK(M153),AND(NOT(ISBLANK(A153)),A153=B153),B153=M153)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q153" t="b">
+        <f t="shared" ref="Q153:Q154" si="25">IF(ISBLANK(O153),IF(ISERROR(P153),FALSE,P153),O153)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <f>ROW(C154)</f>
+        <v>154</v>
+      </c>
+      <c r="J154" s="1">
+        <v>1</v>
+      </c>
+      <c r="P154" t="b">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Q154" t="b">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="162" spans="13:13">
       <c r="M162" s="3"/>
     </row>
@@ -4619,20 +4703,20 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:A10029">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>NOT(OR(ISBLANK(Q2),Q2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>NOT(AND(ISBLANK(M2),ISBLANK(O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:I10029">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$J2&gt;COLUMN(C2)-3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M10029">
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(M2)),IF(ISERROR(A2),ERROR.TYPE(A2)=ERROR.TYPE(M2),A2=M2))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/components/system/src/test-reference/data/org/formulacompiler/tests/reference/LookupFunctions.xlsx
+++ b/components/system/src/test-reference/data/org/formulacompiler/tests/reference/LookupFunctions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
   <si>
     <t>Actual</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>ROW</t>
+  </si>
+  <si>
+    <t>INDEX (nested)</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -538,9 +597,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q199"/>
+  <dimension ref="A1:Q201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2657,41 +2718,38 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B82">
-        <f>LOOKUP(C82,D82:F82,G82:I82)</f>
-        <v>12</v>
+        <f>INDEX(F82:G82,H82)</f>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F82">
-        <v>30</v>
+        <f>INDEX(C82:D82,E82)</f>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>11</v>
+        <f>INDEX(E82:E82,D82)</f>
+        <v>2</v>
       </c>
       <c r="H82">
-        <v>12</v>
-      </c>
-      <c r="I82">
-        <v>13</v>
+        <f>INDEX(D82:E82,C82)</f>
+        <v>2</v>
       </c>
       <c r="J82" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K82" t="s">
-        <v>19</v>
-      </c>
-      <c r="L82" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="P82" t="b">
         <f>OR(ISBLANK(B82),IF(ISERROR(B82),ERROR.TYPE(B82)=IF(ISBLANK(M82),ERROR.TYPE(A82),ERROR.TYPE(M82)),IF(ISBLANK(M82),AND(NOT(ISBLANK(A82)),A82=B82),B82=M82)))</f>
@@ -2702,47 +2760,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
-      <c r="A83">
-        <v>11</v>
-      </c>
-      <c r="B83">
-        <f>LOOKUP(C83,D83:F83,G83:I83)</f>
-        <v>11</v>
-      </c>
-      <c r="C83">
-        <v>19</v>
-      </c>
-      <c r="D83">
-        <v>10</v>
-      </c>
-      <c r="E83">
-        <v>20</v>
-      </c>
-      <c r="F83">
-        <v>30</v>
-      </c>
-      <c r="G83">
-        <v>11</v>
-      </c>
-      <c r="H83">
-        <v>12</v>
-      </c>
-      <c r="I83">
-        <v>13</v>
-      </c>
-      <c r="J83" s="1">
-        <v>7</v>
-      </c>
-      <c r="P83" t="b">
-        <f>OR(ISBLANK(B83),IF(ISERROR(B83),ERROR.TYPE(B83)=IF(ISBLANK(M83),ERROR.TYPE(A83),ERROR.TYPE(M83)),IF(ISBLANK(M83),AND(NOT(ISBLANK(A83)),A83=B83),B83=M83)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q83" t="b">
-        <f>IF(ISBLANK(O83),IF(ISERROR(P83),FALSE,P83),O83)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="84" spans="1:17">
       <c r="A84">
         <v>12</v>
@@ -2752,7 +2769,7 @@
         <v>12</v>
       </c>
       <c r="C84">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D84">
         <v>10</v>
@@ -2775,6 +2792,12 @@
       <c r="J84" s="1">
         <v>7</v>
       </c>
+      <c r="K84" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84" t="s">
+        <v>15</v>
+      </c>
       <c r="P84" t="b">
         <f>OR(ISBLANK(B84),IF(ISERROR(B84),ERROR.TYPE(B84)=IF(ISBLANK(M84),ERROR.TYPE(A84),ERROR.TYPE(M84)),IF(ISBLANK(M84),AND(NOT(ISBLANK(A84)),A84=B84),B84=M84)))</f>
         <v>1</v>
@@ -2785,15 +2808,15 @@
       </c>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" t="e">
+      <c r="A85">
+        <v>11</v>
+      </c>
+      <c r="B85">
         <f>LOOKUP(C85,D85:F85,G85:I85)</f>
-        <v>#N/A</v>
+        <v>11</v>
       </c>
       <c r="C85">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D85">
         <v>10</v>
@@ -2816,9 +2839,6 @@
       <c r="J85" s="1">
         <v>7</v>
       </c>
-      <c r="M85" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="P85" t="b">
         <f>OR(ISBLANK(B85),IF(ISERROR(B85),ERROR.TYPE(B85)=IF(ISBLANK(M85),ERROR.TYPE(A85),ERROR.TYPE(M85)),IF(ISBLANK(M85),AND(NOT(ISBLANK(A85)),A85=B85),B85=M85)))</f>
         <v>1</v>
@@ -2828,28 +2848,81 @@
         <v>1</v>
       </c>
     </row>
+    <row r="86" spans="1:17">
+      <c r="A86">
+        <v>12</v>
+      </c>
+      <c r="B86">
+        <f>LOOKUP(C86,D86:F86,G86:I86)</f>
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>21</v>
+      </c>
+      <c r="D86">
+        <v>10</v>
+      </c>
+      <c r="E86">
+        <v>20</v>
+      </c>
+      <c r="F86">
+        <v>30</v>
+      </c>
+      <c r="G86">
+        <v>11</v>
+      </c>
+      <c r="H86">
+        <v>12</v>
+      </c>
+      <c r="I86">
+        <v>13</v>
+      </c>
+      <c r="J86" s="1">
+        <v>7</v>
+      </c>
+      <c r="P86" t="b">
+        <f>OR(ISBLANK(B86),IF(ISERROR(B86),ERROR.TYPE(B86)=IF(ISBLANK(M86),ERROR.TYPE(A86),ERROR.TYPE(M86)),IF(ISBLANK(M86),AND(NOT(ISBLANK(A86)),A86=B86),B86=M86)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q86" t="b">
+        <f>IF(ISBLANK(O86),IF(ISERROR(P86),FALSE,P86),O86)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="87" spans="1:17">
-      <c r="A87">
-        <v>11</v>
-      </c>
-      <c r="B87">
-        <f>LOOKUP(C87,D$87:D$89,E$87:E$89)</f>
-        <v>11</v>
+      <c r="A87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" t="e">
+        <f>LOOKUP(C87,D87:F87,G87:I87)</f>
+        <v>#N/A</v>
       </c>
       <c r="C87">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D87">
         <v>10</v>
       </c>
       <c r="E87">
+        <v>20</v>
+      </c>
+      <c r="F87">
+        <v>30</v>
+      </c>
+      <c r="G87">
         <v>11</v>
       </c>
+      <c r="H87">
+        <v>12</v>
+      </c>
+      <c r="I87">
+        <v>13</v>
+      </c>
       <c r="J87" s="1">
-        <v>3</v>
-      </c>
-      <c r="K87" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="M87" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="P87" t="b">
         <f>OR(ISBLANK(B87),IF(ISERROR(B87),ERROR.TYPE(B87)=IF(ISBLANK(M87),ERROR.TYPE(A87),ERROR.TYPE(M87)),IF(ISBLANK(M87),AND(NOT(ISBLANK(A87)),A87=B87),B87=M87)))</f>
@@ -2860,54 +2933,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
-      <c r="A88">
-        <v>12</v>
-      </c>
-      <c r="B88">
-        <f>LOOKUP(C88,D$87:D$89,E$87:E$89)</f>
-        <v>12</v>
-      </c>
-      <c r="C88">
-        <v>20</v>
-      </c>
-      <c r="D88">
-        <v>20</v>
-      </c>
-      <c r="E88">
-        <v>12</v>
-      </c>
-      <c r="J88" s="1">
-        <v>1</v>
-      </c>
-      <c r="P88" t="b">
-        <f>OR(ISBLANK(B88),IF(ISERROR(B88),ERROR.TYPE(B88)=IF(ISBLANK(M88),ERROR.TYPE(A88),ERROR.TYPE(M88)),IF(ISBLANK(M88),AND(NOT(ISBLANK(A88)),A88=B88),B88=M88)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q88" t="b">
-        <f>IF(ISBLANK(O88),IF(ISERROR(P88),FALSE,P88),O88)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="89" spans="1:17">
       <c r="A89">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B89">
-        <f>LOOKUP(C89,D$87:D$89,E$87:E$89)</f>
-        <v>12</v>
+        <f>LOOKUP(C89,D$89:D$91,E$89:E$91)</f>
+        <v>11</v>
       </c>
       <c r="C89">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D89">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E89">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J89" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K89" t="s">
+        <v>20</v>
       </c>
       <c r="P89" t="b">
         <f>OR(ISBLANK(B89),IF(ISERROR(B89),ERROR.TYPE(B89)=IF(ISBLANK(M89),ERROR.TYPE(A89),ERROR.TYPE(M89)),IF(ISBLANK(M89),AND(NOT(ISBLANK(A89)),A89=B89),B89=M89)))</f>
@@ -2919,21 +2966,24 @@
       </c>
     </row>
     <row r="90" spans="1:17">
-      <c r="A90" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" t="e">
-        <f>LOOKUP(C90,D$87:D$89,E$87:E$89)</f>
-        <v>#N/A</v>
+      <c r="A90">
+        <v>12</v>
+      </c>
+      <c r="B90">
+        <f>LOOKUP(C90,D$89:D$91,E$89:E$91)</f>
+        <v>12</v>
       </c>
       <c r="C90">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="D90">
+        <v>20</v>
+      </c>
+      <c r="E90">
+        <v>12</v>
       </c>
       <c r="J90" s="1">
         <v>1</v>
-      </c>
-      <c r="M90" s="3" t="e">
-        <v>#N/A</v>
       </c>
       <c r="P90" t="b">
         <f>OR(ISBLANK(B90),IF(ISERROR(B90),ERROR.TYPE(B90)=IF(ISBLANK(M90),ERROR.TYPE(A90),ERROR.TYPE(M90)),IF(ISBLANK(M90),AND(NOT(ISBLANK(A90)),A90=B90),B90=M90)))</f>
@@ -2944,34 +2994,51 @@
         <v>1</v>
       </c>
     </row>
+    <row r="91" spans="1:17">
+      <c r="A91">
+        <v>12</v>
+      </c>
+      <c r="B91">
+        <f>LOOKUP(C91,D$89:D$91,E$89:E$91)</f>
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>21</v>
+      </c>
+      <c r="D91">
+        <v>30</v>
+      </c>
+      <c r="E91">
+        <v>13</v>
+      </c>
+      <c r="J91" s="1">
+        <v>1</v>
+      </c>
+      <c r="P91" t="b">
+        <f>OR(ISBLANK(B91),IF(ISERROR(B91),ERROR.TYPE(B91)=IF(ISBLANK(M91),ERROR.TYPE(A91),ERROR.TYPE(M91)),IF(ISBLANK(M91),AND(NOT(ISBLANK(A91)),A91=B91),B91=M91)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q91" t="b">
+        <f>IF(ISBLANK(O91),IF(ISERROR(P91),FALSE,P91),O91)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="92" spans="1:17">
-      <c r="A92">
-        <v>22</v>
-      </c>
-      <c r="B92">
-        <f>LOOKUP(C92,D$92:G$94)</f>
-        <v>22</v>
+      <c r="A92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" t="e">
+        <f>LOOKUP(C92,D$89:D$91,E$89:E$91)</f>
+        <v>#N/A</v>
       </c>
       <c r="C92">
-        <v>29</v>
-      </c>
-      <c r="D92">
-        <v>10</v>
-      </c>
-      <c r="E92">
-        <v>20</v>
-      </c>
-      <c r="F92">
-        <v>30</v>
-      </c>
-      <c r="G92">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="J92" s="1">
-        <v>5</v>
-      </c>
-      <c r="K92" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="M92" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="P92" t="b">
         <f>OR(ISBLANK(B92),IF(ISERROR(B92),ERROR.TYPE(B92)=IF(ISBLANK(M92),ERROR.TYPE(A92),ERROR.TYPE(M92)),IF(ISBLANK(M92),AND(NOT(ISBLANK(A92)),A92=B92),B92=M92)))</f>
@@ -2982,66 +3049,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
-      <c r="A93">
-        <v>23</v>
-      </c>
-      <c r="B93">
-        <f>LOOKUP(C93,D$92:G$94)</f>
-        <v>23</v>
-      </c>
-      <c r="C93">
-        <v>30</v>
-      </c>
-      <c r="D93">
-        <v>11</v>
-      </c>
-      <c r="E93">
-        <v>12</v>
-      </c>
-      <c r="F93">
-        <v>13</v>
-      </c>
-      <c r="G93">
-        <v>14</v>
-      </c>
-      <c r="J93" s="1">
-        <v>1</v>
-      </c>
-      <c r="P93" t="b">
-        <f>OR(ISBLANK(B93),IF(ISERROR(B93),ERROR.TYPE(B93)=IF(ISBLANK(M93),ERROR.TYPE(A93),ERROR.TYPE(M93)),IF(ISBLANK(M93),AND(NOT(ISBLANK(A93)),A93=B93),B93=M93)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q93" t="b">
-        <f>IF(ISBLANK(O93),IF(ISERROR(P93),FALSE,P93),O93)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="94" spans="1:17">
       <c r="A94">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B94">
-        <f>LOOKUP(C94,D$92:G$94)</f>
-        <v>23</v>
+        <f>LOOKUP(C94,D$94:G$96)</f>
+        <v>22</v>
       </c>
       <c r="C94">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D94">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E94">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F94">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G94">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J94" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K94" t="s">
+        <v>16</v>
       </c>
       <c r="P94" t="b">
         <f>OR(ISBLANK(B94),IF(ISERROR(B94),ERROR.TYPE(B94)=IF(ISBLANK(M94),ERROR.TYPE(A94),ERROR.TYPE(M94)),IF(ISBLANK(M94),AND(NOT(ISBLANK(A94)),A94=B94),B94=M94)))</f>
@@ -3052,31 +3087,66 @@
         <v>1</v>
       </c>
     </row>
+    <row r="95" spans="1:17">
+      <c r="A95">
+        <v>23</v>
+      </c>
+      <c r="B95">
+        <f>LOOKUP(C95,D$94:G$96)</f>
+        <v>23</v>
+      </c>
+      <c r="C95">
+        <v>30</v>
+      </c>
+      <c r="D95">
+        <v>11</v>
+      </c>
+      <c r="E95">
+        <v>12</v>
+      </c>
+      <c r="F95">
+        <v>13</v>
+      </c>
+      <c r="G95">
+        <v>14</v>
+      </c>
+      <c r="J95" s="1">
+        <v>1</v>
+      </c>
+      <c r="P95" t="b">
+        <f>OR(ISBLANK(B95),IF(ISERROR(B95),ERROR.TYPE(B95)=IF(ISBLANK(M95),ERROR.TYPE(A95),ERROR.TYPE(M95)),IF(ISBLANK(M95),AND(NOT(ISBLANK(A95)),A95=B95),B95=M95)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q95" t="b">
+        <f>IF(ISBLANK(O95),IF(ISERROR(P95),FALSE,P95),O95)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="96" spans="1:17">
       <c r="A96">
+        <v>23</v>
+      </c>
+      <c r="B96">
+        <f>LOOKUP(C96,D$94:G$96)</f>
+        <v>23</v>
+      </c>
+      <c r="C96">
+        <v>31</v>
+      </c>
+      <c r="D96">
         <v>21</v>
       </c>
-      <c r="B96">
-        <f>LOOKUP(C96,D$96:F$98)</f>
-        <v>21</v>
-      </c>
-      <c r="C96">
-        <v>19</v>
-      </c>
-      <c r="D96">
-        <v>10</v>
-      </c>
       <c r="E96">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F96">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G96">
+        <v>24</v>
       </c>
       <c r="J96" s="1">
-        <v>4</v>
-      </c>
-      <c r="K96" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="P96" t="b">
         <f>OR(ISBLANK(B96),IF(ISERROR(B96),ERROR.TYPE(B96)=IF(ISBLANK(M96),ERROR.TYPE(A96),ERROR.TYPE(M96)),IF(ISBLANK(M96),AND(NOT(ISBLANK(A96)),A96=B96),B96=M96)))</f>
@@ -3087,60 +3157,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
-      <c r="A97">
-        <v>22</v>
-      </c>
-      <c r="B97">
-        <f>LOOKUP(C97,D$96:F$98)</f>
-        <v>22</v>
-      </c>
-      <c r="C97">
-        <v>20</v>
-      </c>
-      <c r="D97">
-        <v>20</v>
-      </c>
-      <c r="E97">
-        <v>12</v>
-      </c>
-      <c r="F97">
-        <v>22</v>
-      </c>
-      <c r="J97" s="1">
-        <v>1</v>
-      </c>
-      <c r="P97" t="b">
-        <f>OR(ISBLANK(B97),IF(ISERROR(B97),ERROR.TYPE(B97)=IF(ISBLANK(M97),ERROR.TYPE(A97),ERROR.TYPE(M97)),IF(ISBLANK(M97),AND(NOT(ISBLANK(A97)),A97=B97),B97=M97)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q97" t="b">
-        <f>IF(ISBLANK(O97),IF(ISERROR(P97),FALSE,P97),O97)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="98" spans="1:17">
       <c r="A98">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B98">
-        <f>LOOKUP(C98,D$96:F$98)</f>
-        <v>22</v>
+        <f>LOOKUP(C98,D$98:F$100)</f>
+        <v>21</v>
       </c>
       <c r="C98">
+        <v>19</v>
+      </c>
+      <c r="D98">
+        <v>10</v>
+      </c>
+      <c r="E98">
+        <v>11</v>
+      </c>
+      <c r="F98">
         <v>21</v>
       </c>
-      <c r="D98">
-        <v>30</v>
-      </c>
-      <c r="E98">
-        <v>13</v>
-      </c>
-      <c r="F98">
-        <v>23</v>
-      </c>
       <c r="J98" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K98" t="s">
+        <v>18</v>
       </c>
       <c r="P98" t="b">
         <f>OR(ISBLANK(B98),IF(ISERROR(B98),ERROR.TYPE(B98)=IF(ISBLANK(M98),ERROR.TYPE(A98),ERROR.TYPE(M98)),IF(ISBLANK(M98),AND(NOT(ISBLANK(A98)),A98=B98),B98=M98)))</f>
@@ -3151,31 +3192,60 @@
         <v>1</v>
       </c>
     </row>
+    <row r="99" spans="1:17">
+      <c r="A99">
+        <v>22</v>
+      </c>
+      <c r="B99">
+        <f>LOOKUP(C99,D$98:F$100)</f>
+        <v>22</v>
+      </c>
+      <c r="C99">
+        <v>20</v>
+      </c>
+      <c r="D99">
+        <v>20</v>
+      </c>
+      <c r="E99">
+        <v>12</v>
+      </c>
+      <c r="F99">
+        <v>22</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1</v>
+      </c>
+      <c r="P99" t="b">
+        <f>OR(ISBLANK(B99),IF(ISERROR(B99),ERROR.TYPE(B99)=IF(ISBLANK(M99),ERROR.TYPE(A99),ERROR.TYPE(M99)),IF(ISBLANK(M99),AND(NOT(ISBLANK(A99)),A99=B99),B99=M99)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q99" t="b">
+        <f>IF(ISBLANK(O99),IF(ISERROR(P99),FALSE,P99),O99)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="100" spans="1:17">
       <c r="A100">
+        <v>22</v>
+      </c>
+      <c r="B100">
+        <f>LOOKUP(C100,D$98:F$100)</f>
+        <v>22</v>
+      </c>
+      <c r="C100">
         <v>21</v>
       </c>
-      <c r="B100">
-        <f>LOOKUP(C100,D$100:F$103)</f>
-        <v>21</v>
-      </c>
-      <c r="C100">
-        <v>19</v>
-      </c>
       <c r="D100">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E100">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F100">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J100" s="1">
-        <v>4</v>
-      </c>
-      <c r="K100" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="P100" t="b">
         <f>OR(ISBLANK(B100),IF(ISERROR(B100),ERROR.TYPE(B100)=IF(ISBLANK(M100),ERROR.TYPE(A100),ERROR.TYPE(M100)),IF(ISBLANK(M100),AND(NOT(ISBLANK(A100)),A100=B100),B100=M100)))</f>
@@ -3186,60 +3256,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
-      <c r="A101">
-        <v>22</v>
-      </c>
-      <c r="B101">
-        <f>LOOKUP(C101,D$100:F$103)</f>
-        <v>22</v>
-      </c>
-      <c r="C101">
-        <v>20</v>
-      </c>
-      <c r="D101">
-        <v>20</v>
-      </c>
-      <c r="E101">
-        <v>12</v>
-      </c>
-      <c r="F101">
-        <v>22</v>
-      </c>
-      <c r="J101" s="1">
-        <v>1</v>
-      </c>
-      <c r="P101" t="b">
-        <f>OR(ISBLANK(B101),IF(ISERROR(B101),ERROR.TYPE(B101)=IF(ISBLANK(M101),ERROR.TYPE(A101),ERROR.TYPE(M101)),IF(ISBLANK(M101),AND(NOT(ISBLANK(A101)),A101=B101),B101=M101)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q101" t="b">
-        <f>IF(ISBLANK(O101),IF(ISERROR(P101),FALSE,P101),O101)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="102" spans="1:17">
       <c r="A102">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B102">
-        <f>LOOKUP(C102,D$100:F$103)</f>
-        <v>22</v>
+        <f>LOOKUP(C102,D$102:F$105)</f>
+        <v>21</v>
       </c>
       <c r="C102">
+        <v>19</v>
+      </c>
+      <c r="D102">
+        <v>10</v>
+      </c>
+      <c r="E102">
+        <v>11</v>
+      </c>
+      <c r="F102">
         <v>21</v>
       </c>
-      <c r="D102">
-        <v>30</v>
-      </c>
-      <c r="E102">
-        <v>13</v>
-      </c>
-      <c r="F102">
-        <v>23</v>
-      </c>
       <c r="J102" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K102" t="s">
+        <v>17</v>
       </c>
       <c r="P102" t="b">
         <f>OR(ISBLANK(B102),IF(ISERROR(B102),ERROR.TYPE(B102)=IF(ISBLANK(M102),ERROR.TYPE(A102),ERROR.TYPE(M102)),IF(ISBLANK(M102),AND(NOT(ISBLANK(A102)),A102=B102),B102=M102)))</f>
@@ -3252,23 +3293,23 @@
     </row>
     <row r="103" spans="1:17">
       <c r="A103">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B103">
-        <f>LOOKUP(C103,D$100:F$103)</f>
-        <v>23</v>
+        <f>LOOKUP(C103,D$102:F$105)</f>
+        <v>22</v>
       </c>
       <c r="C103">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D103">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E103">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F103">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J103" s="1">
         <v>1</v>
@@ -3282,133 +3323,136 @@
         <v>1</v>
       </c>
     </row>
+    <row r="104" spans="1:17">
+      <c r="A104">
+        <v>22</v>
+      </c>
+      <c r="B104">
+        <f>LOOKUP(C104,D$102:F$105)</f>
+        <v>22</v>
+      </c>
+      <c r="C104">
+        <v>21</v>
+      </c>
+      <c r="D104">
+        <v>30</v>
+      </c>
+      <c r="E104">
+        <v>13</v>
+      </c>
+      <c r="F104">
+        <v>23</v>
+      </c>
+      <c r="J104" s="1">
+        <v>1</v>
+      </c>
+      <c r="P104" t="b">
+        <f>OR(ISBLANK(B104),IF(ISERROR(B104),ERROR.TYPE(B104)=IF(ISBLANK(M104),ERROR.TYPE(A104),ERROR.TYPE(M104)),IF(ISBLANK(M104),AND(NOT(ISBLANK(A104)),A104=B104),B104=M104)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q104" t="b">
+        <f>IF(ISBLANK(O104),IF(ISERROR(P104),FALSE,P104),O104)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="105" spans="1:17">
       <c r="A105">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B105">
-        <f>HLOOKUP(C105,D$105:G$107,3)</f>
-        <v>22</v>
+        <f>LOOKUP(C105,D$102:F$105)</f>
+        <v>23</v>
       </c>
       <c r="C105">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D105">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E105">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F105">
-        <v>30</v>
-      </c>
-      <c r="G105">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J105" s="1">
-        <v>5</v>
-      </c>
-      <c r="K105" t="s">
-        <v>24</v>
-      </c>
-      <c r="L105" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="P105" t="b">
-        <f t="shared" ref="P105:P112" si="9">OR(ISBLANK(B105),IF(ISERROR(B105),ERROR.TYPE(B105)=IF(ISBLANK(M105),ERROR.TYPE(A105),ERROR.TYPE(M105)),IF(ISBLANK(M105),AND(NOT(ISBLANK(A105)),A105=B105),B105=M105)))</f>
+        <f>OR(ISBLANK(B105),IF(ISERROR(B105),ERROR.TYPE(B105)=IF(ISBLANK(M105),ERROR.TYPE(A105),ERROR.TYPE(M105)),IF(ISBLANK(M105),AND(NOT(ISBLANK(A105)),A105=B105),B105=M105)))</f>
         <v>1</v>
       </c>
       <c r="Q105" t="b">
-        <f t="shared" ref="Q105:Q112" si="10">IF(ISBLANK(O105),IF(ISERROR(P105),FALSE,P105),O105)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17">
-      <c r="A106">
-        <v>23</v>
-      </c>
-      <c r="B106">
-        <f>HLOOKUP(C106,D$105:G$107,3)</f>
-        <v>23</v>
-      </c>
-      <c r="C106">
-        <v>30</v>
-      </c>
-      <c r="D106">
-        <v>11</v>
-      </c>
-      <c r="E106">
-        <v>12</v>
-      </c>
-      <c r="F106">
-        <v>13</v>
-      </c>
-      <c r="G106">
-        <v>14</v>
-      </c>
-      <c r="J106" s="1">
-        <v>1</v>
-      </c>
-      <c r="P106" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q106" t="b">
-        <f t="shared" si="10"/>
+        <f>IF(ISBLANK(O105),IF(ISERROR(P105),FALSE,P105),O105)</f>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:17">
       <c r="A107">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B107">
-        <f>HLOOKUP(C107,D$105:G$107,3)</f>
-        <v>23</v>
+        <f>HLOOKUP(C107,D$107:G$109,3)</f>
+        <v>22</v>
       </c>
       <c r="C107">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D107">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E107">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F107">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G107">
+        <v>40</v>
+      </c>
+      <c r="J107" s="1">
+        <v>5</v>
+      </c>
+      <c r="K107" t="s">
         <v>24</v>
       </c>
-      <c r="J107" s="1">
-        <v>1</v>
+      <c r="L107" t="s">
+        <v>24</v>
       </c>
       <c r="P107" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P107:P114" si="9">OR(ISBLANK(B107),IF(ISERROR(B107),ERROR.TYPE(B107)=IF(ISBLANK(M107),ERROR.TYPE(A107),ERROR.TYPE(M107)),IF(ISBLANK(M107),AND(NOT(ISBLANK(A107)),A107=B107),B107=M107)))</f>
         <v>1</v>
       </c>
       <c r="Q107" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="Q107:Q114" si="10">IF(ISBLANK(O107),IF(ISERROR(P107),FALSE,P107),O107)</f>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:17">
       <c r="A108">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B108">
-        <f>HLOOKUP(C108,D$105:G$107,D108)</f>
-        <v>20</v>
+        <f>HLOOKUP(C108,D$107:G$109,3)</f>
+        <v>23</v>
       </c>
       <c r="C108">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E108">
+        <v>12</v>
+      </c>
+      <c r="F108">
+        <v>13</v>
+      </c>
+      <c r="G108">
+        <v>14</v>
       </c>
       <c r="J108" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P108" t="b">
         <f t="shared" si="9"/>
@@ -3421,20 +3465,29 @@
     </row>
     <row r="109" spans="1:17">
       <c r="A109">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B109">
-        <f>HLOOKUP(C109,D$105:G$107,D109)</f>
-        <v>13</v>
+        <f>HLOOKUP(C109,D$107:G$109,3)</f>
+        <v>23</v>
       </c>
       <c r="C109">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="E109">
+        <v>22</v>
+      </c>
+      <c r="F109">
+        <v>23</v>
+      </c>
+      <c r="G109">
+        <v>24</v>
       </c>
       <c r="J109" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P109" t="b">
         <f t="shared" si="9"/>
@@ -3447,17 +3500,17 @@
     </row>
     <row r="110" spans="1:17">
       <c r="A110">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B110">
-        <f>HLOOKUP(C110,D$105:G$107,D110)</f>
-        <v>23</v>
+        <f>HLOOKUP(C110,D$107:G$109,D110)</f>
+        <v>20</v>
       </c>
       <c r="C110">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J110" s="1">
         <v>2</v>
@@ -3472,24 +3525,21 @@
       </c>
     </row>
     <row r="111" spans="1:17">
-      <c r="A111" t="s">
-        <v>28</v>
-      </c>
-      <c r="B111" t="e">
-        <f>HLOOKUP(C111,D$105:G$107,D111)</f>
-        <v>#VALUE!</v>
+      <c r="A111">
+        <v>13</v>
+      </c>
+      <c r="B111">
+        <f>HLOOKUP(C111,D$107:G$109,D111)</f>
+        <v>13</v>
       </c>
       <c r="C111">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" s="1">
         <v>2</v>
-      </c>
-      <c r="M111" s="3" t="e">
-        <v>#VALUE!</v>
       </c>
       <c r="P111" t="b">
         <f t="shared" si="9"/>
@@ -3501,24 +3551,21 @@
       </c>
     </row>
     <row r="112" spans="1:17">
-      <c r="A112" t="s">
-        <v>28</v>
-      </c>
-      <c r="B112" t="e">
-        <f>HLOOKUP(C112,D$105:G$107,D112)</f>
-        <v>#REF!</v>
+      <c r="A112">
+        <v>23</v>
+      </c>
+      <c r="B112">
+        <f>HLOOKUP(C112,D$107:G$109,D112)</f>
+        <v>23</v>
       </c>
       <c r="C112">
         <v>31</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J112" s="1">
         <v>2</v>
-      </c>
-      <c r="M112" s="3" t="e">
-        <v>#REF!</v>
       </c>
       <c r="P112" t="b">
         <f t="shared" si="9"/>
@@ -3529,133 +3576,130 @@
         <v>1</v>
       </c>
     </row>
+    <row r="113" spans="1:17">
+      <c r="A113" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" t="e">
+        <f>HLOOKUP(C113,D$107:G$109,D113)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C113">
+        <v>31</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1">
+        <v>2</v>
+      </c>
+      <c r="M113" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P113" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q113" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="114" spans="1:17">
       <c r="A114" t="s">
-        <v>12</v>
-      </c>
-      <c r="B114" t="str">
-        <f>HLOOKUP(C114,D$114:G$116,1,FALSE)</f>
-        <v>one</v>
-      </c>
-      <c r="C114" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" t="s">
-        <v>32</v>
-      </c>
-      <c r="G114" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="B114" t="e">
+        <f>HLOOKUP(C114,D$107:G$109,D114)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C114">
+        <v>31</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
       </c>
       <c r="J114" s="1">
-        <v>5</v>
-      </c>
-      <c r="K114" t="s">
-        <v>44</v>
-      </c>
-      <c r="L114" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="M114" s="3" t="e">
+        <v>#REF!</v>
       </c>
       <c r="P114" t="b">
-        <f t="shared" ref="P114:P121" si="11">OR(ISBLANK(B114),IF(ISERROR(B114),ERROR.TYPE(B114)=IF(ISBLANK(M114),ERROR.TYPE(A114),ERROR.TYPE(M114)),IF(ISBLANK(M114),AND(NOT(ISBLANK(A114)),A114=B114),B114=M114)))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q114" t="b">
-        <f t="shared" ref="Q114:Q122" si="12">IF(ISBLANK(O114),IF(ISERROR(P114),FALSE,P114),O114)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17">
-      <c r="A115" t="s">
-        <v>35</v>
-      </c>
-      <c r="B115" t="str">
-        <f>HLOOKUP(C115,D$114:G$116,2,FALSE)</f>
-        <v>три</v>
-      </c>
-      <c r="C115" t="s">
-        <v>32</v>
-      </c>
-      <c r="D115" t="s">
-        <v>33</v>
-      </c>
-      <c r="E115" t="s">
-        <v>34</v>
-      </c>
-      <c r="F115" t="s">
-        <v>35</v>
-      </c>
-      <c r="G115" t="s">
-        <v>41</v>
-      </c>
-      <c r="J115" s="1">
-        <v>1</v>
-      </c>
-      <c r="P115" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Q115" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:17">
       <c r="A116" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B116" t="str">
-        <f>HLOOKUP(C116,D$114:G$116,3,FALSE)</f>
-        <v>vier</v>
+        <f>HLOOKUP(C116,D$116:G$118,1,FALSE)</f>
+        <v>one</v>
       </c>
       <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>32</v>
+      </c>
+      <c r="G116" t="s">
         <v>40</v>
       </c>
-      <c r="D116" t="s">
-        <v>36</v>
-      </c>
-      <c r="E116" t="s">
-        <v>37</v>
-      </c>
-      <c r="F116" t="s">
-        <v>38</v>
-      </c>
-      <c r="G116" t="s">
-        <v>42</v>
-      </c>
       <c r="J116" s="1">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K116" t="s">
+        <v>44</v>
+      </c>
+      <c r="L116" t="s">
+        <v>24</v>
       </c>
       <c r="P116" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="P116:P123" si="11">OR(ISBLANK(B116),IF(ISERROR(B116),ERROR.TYPE(B116)=IF(ISBLANK(M116),ERROR.TYPE(A116),ERROR.TYPE(M116)),IF(ISBLANK(M116),AND(NOT(ISBLANK(A116)),A116=B116),B116=M116)))</f>
         <v>1</v>
       </c>
       <c r="Q116" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="Q116:Q124" si="12">IF(ISBLANK(O116),IF(ISERROR(P116),FALSE,P116),O116)</f>
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:17">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" ref="B117:B122" si="13">HLOOKUP(C117,D$114:G$116,D117,FALSE)</f>
-        <v>one</v>
+        <f>HLOOKUP(C117,D$116:G$118,2,FALSE)</f>
+        <v>три</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="D117" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" t="s">
+        <v>35</v>
+      </c>
+      <c r="G117" t="s">
+        <v>41</v>
       </c>
       <c r="J117" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P117" t="b">
         <f t="shared" si="11"/>
@@ -3668,261 +3712,264 @@
     </row>
     <row r="118" spans="1:17">
       <c r="A118" t="s">
+        <v>42</v>
+      </c>
+      <c r="B118" t="str">
+        <f>HLOOKUP(C118,D$116:G$118,3,FALSE)</f>
+        <v>vier</v>
+      </c>
+      <c r="C118" t="s">
+        <v>40</v>
+      </c>
+      <c r="D118" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" t="s">
+        <v>37</v>
+      </c>
+      <c r="F118" t="s">
+        <v>38</v>
+      </c>
+      <c r="G118" t="s">
+        <v>42</v>
+      </c>
+      <c r="J118" s="1">
+        <v>1</v>
+      </c>
+      <c r="P118" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q118" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" ref="B119:B124" si="13">HLOOKUP(C119,D$116:G$118,D119,FALSE)</f>
+        <v>one</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="J119" s="1">
+        <v>2</v>
+      </c>
+      <c r="P119" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q119" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" t="s">
         <v>35</v>
       </c>
-      <c r="B118" t="str">
+      <c r="B120" t="str">
         <f t="shared" si="13"/>
         <v>три</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C120" t="s">
         <v>32</v>
       </c>
-      <c r="D118">
-        <v>2</v>
-      </c>
-      <c r="J118" s="1">
-        <v>2</v>
-      </c>
-      <c r="P118" t="b">
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="J120" s="1">
+        <v>2</v>
+      </c>
+      <c r="P120" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Q118" t="b">
+      <c r="Q120" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
-      <c r="A119" t="s">
+    <row r="121" spans="1:17">
+      <c r="A121" t="s">
         <v>42</v>
       </c>
-      <c r="B119" t="str">
+      <c r="B121" t="str">
         <f t="shared" si="13"/>
         <v>vier</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C121" t="s">
         <v>40</v>
       </c>
-      <c r="D119">
+      <c r="D121">
         <v>3</v>
       </c>
-      <c r="J119" s="1">
-        <v>2</v>
-      </c>
-      <c r="P119" t="b">
+      <c r="J121" s="1">
+        <v>2</v>
+      </c>
+      <c r="P121" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Q119" t="b">
+      <c r="Q121" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
-      <c r="A120" t="s">
+    <row r="122" spans="1:17">
+      <c r="A122" t="s">
         <v>46</v>
       </c>
-      <c r="B120" t="e">
+      <c r="B122" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C122" t="s">
         <v>43</v>
       </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="J120" s="1">
-        <v>2</v>
-      </c>
-      <c r="M120" s="3" t="e">
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="J122" s="1">
+        <v>2</v>
+      </c>
+      <c r="M122" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P120" t="b">
-        <f>OR(ISBLANK(B120),IF(ISERROR(B120),ERROR.TYPE(B120)=IF(ISBLANK(M120),ERROR.TYPE(A120),ERROR.TYPE(M120)),IF(ISBLANK(M120),AND(NOT(ISBLANK(A120)),A120=B120),B120=M120)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q120" t="b">
+      <c r="P122" t="b">
+        <f>OR(ISBLANK(B122),IF(ISERROR(B122),ERROR.TYPE(B122)=IF(ISBLANK(M122),ERROR.TYPE(A122),ERROR.TYPE(M122)),IF(ISBLANK(M122),AND(NOT(ISBLANK(A122)),A122=B122),B122=M122)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q122" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
-      <c r="A121" t="s">
+    <row r="123" spans="1:17">
+      <c r="A123" t="s">
         <v>45</v>
       </c>
-      <c r="B121" t="e">
+      <c r="B123" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C121" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121">
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123">
         <v>0</v>
       </c>
-      <c r="J121" s="1">
-        <v>2</v>
-      </c>
-      <c r="M121" s="3" t="e">
+      <c r="J123" s="1">
+        <v>2</v>
+      </c>
+      <c r="M123" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P121" t="b">
+      <c r="P123" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Q121" t="b">
+      <c r="Q123" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
-      <c r="A122" t="s">
+    <row r="124" spans="1:17">
+      <c r="A124" t="s">
         <v>45</v>
       </c>
-      <c r="B122" t="e">
+      <c r="B124" t="e">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="C122" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122">
-        <v>4</v>
-      </c>
-      <c r="J122" s="1">
-        <v>2</v>
-      </c>
-      <c r="M122" s="3" t="e">
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="J124" s="1">
+        <v>2</v>
+      </c>
+      <c r="M124" s="3" t="e">
         <v>#REF!</v>
       </c>
-      <c r="P122" t="b">
-        <f>OR(ISBLANK(B122),IF(ISERROR(B122),ERROR.TYPE(B122)=IF(ISBLANK(M122),ERROR.TYPE(A122),ERROR.TYPE(M122)),IF(ISBLANK(M122),AND(NOT(ISBLANK(A122)),A122=B122),B122=M122)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q122" t="b">
+      <c r="P124" t="b">
+        <f>OR(ISBLANK(B124),IF(ISERROR(B124),ERROR.TYPE(B124)=IF(ISBLANK(M124),ERROR.TYPE(A124),ERROR.TYPE(M124)),IF(ISBLANK(M124),AND(NOT(ISBLANK(A124)),A124=B124),B124=M124)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q124" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17">
-      <c r="A124">
-        <v>22</v>
-      </c>
-      <c r="B124">
-        <f>VLOOKUP(C124,D$124:F$126,3)</f>
-        <v>22</v>
-      </c>
-      <c r="C124">
-        <v>29</v>
-      </c>
-      <c r="D124">
-        <v>10</v>
-      </c>
-      <c r="E124">
-        <v>11</v>
-      </c>
-      <c r="F124">
-        <v>21</v>
-      </c>
-      <c r="J124" s="1">
-        <v>4</v>
-      </c>
-      <c r="K124" t="s">
-        <v>25</v>
-      </c>
-      <c r="L124" t="s">
-        <v>25</v>
-      </c>
-      <c r="P124" t="b">
-        <f t="shared" ref="P124:P131" si="14">OR(ISBLANK(B124),IF(ISERROR(B124),ERROR.TYPE(B124)=IF(ISBLANK(M124),ERROR.TYPE(A124),ERROR.TYPE(M124)),IF(ISBLANK(M124),AND(NOT(ISBLANK(A124)),A124=B124),B124=M124)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q124" t="b">
-        <f t="shared" ref="Q124:Q131" si="15">IF(ISBLANK(O124),IF(ISERROR(P124),FALSE,P124),O124)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17">
-      <c r="A125">
-        <v>23</v>
-      </c>
-      <c r="B125">
-        <f>VLOOKUP(C125,D$124:F$126,3)</f>
-        <v>23</v>
-      </c>
-      <c r="C125">
-        <v>30</v>
-      </c>
-      <c r="D125">
-        <v>20</v>
-      </c>
-      <c r="E125">
-        <v>12</v>
-      </c>
-      <c r="F125">
-        <v>22</v>
-      </c>
-      <c r="J125" s="1">
-        <v>1</v>
-      </c>
-      <c r="P125" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Q125" t="b">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:17">
       <c r="A126">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B126">
-        <f>VLOOKUP(C126,D$124:F$126,3)</f>
-        <v>23</v>
+        <f>VLOOKUP(C126,D$126:F$128,3)</f>
+        <v>22</v>
       </c>
       <c r="C126">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D126">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E126">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F126">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J126" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K126" t="s">
+        <v>25</v>
+      </c>
+      <c r="L126" t="s">
+        <v>25</v>
       </c>
       <c r="P126" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="P126:P133" si="14">OR(ISBLANK(B126),IF(ISERROR(B126),ERROR.TYPE(B126)=IF(ISBLANK(M126),ERROR.TYPE(A126),ERROR.TYPE(M126)),IF(ISBLANK(M126),AND(NOT(ISBLANK(A126)),A126=B126),B126=M126)))</f>
         <v>1</v>
       </c>
       <c r="Q126" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="Q126:Q133" si="15">IF(ISBLANK(O126),IF(ISERROR(P126),FALSE,P126),O126)</f>
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:17">
       <c r="A127">
+        <v>23</v>
+      </c>
+      <c r="B127">
+        <f>VLOOKUP(C127,D$126:F$128,3)</f>
+        <v>23</v>
+      </c>
+      <c r="C127">
+        <v>30</v>
+      </c>
+      <c r="D127">
         <v>20</v>
       </c>
-      <c r="B127">
-        <f>VLOOKUP(C127,D$124:F$126,D127)</f>
-        <v>20</v>
-      </c>
-      <c r="C127">
-        <v>29</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
+      <c r="E127">
+        <v>12</v>
+      </c>
+      <c r="F127">
+        <v>22</v>
       </c>
       <c r="J127" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P127" t="b">
         <f t="shared" si="14"/>
@@ -3935,20 +3982,26 @@
     </row>
     <row r="128" spans="1:17">
       <c r="A128">
+        <v>23</v>
+      </c>
+      <c r="B128">
+        <f>VLOOKUP(C128,D$126:F$128,3)</f>
+        <v>23</v>
+      </c>
+      <c r="C128">
+        <v>31</v>
+      </c>
+      <c r="D128">
+        <v>30</v>
+      </c>
+      <c r="E128">
         <v>13</v>
       </c>
-      <c r="B128">
-        <f>VLOOKUP(C128,D$124:F$126,D128)</f>
-        <v>13</v>
-      </c>
-      <c r="C128">
-        <v>30</v>
-      </c>
-      <c r="D128">
-        <v>2</v>
+      <c r="F128">
+        <v>23</v>
       </c>
       <c r="J128" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P128" t="b">
         <f t="shared" si="14"/>
@@ -3961,17 +4014,17 @@
     </row>
     <row r="129" spans="1:17">
       <c r="A129">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B129">
-        <f>VLOOKUP(C129,D$124:F$126,D129)</f>
-        <v>23</v>
+        <f>VLOOKUP(C129,D$126:F$128,D129)</f>
+        <v>20</v>
       </c>
       <c r="C129">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" s="1">
         <v>2</v>
@@ -3986,24 +4039,21 @@
       </c>
     </row>
     <row r="130" spans="1:17">
-      <c r="A130" t="s">
-        <v>28</v>
-      </c>
-      <c r="B130" t="e">
-        <f>VLOOKUP(C130,D$124:F$126,D130)</f>
-        <v>#VALUE!</v>
+      <c r="A130">
+        <v>13</v>
+      </c>
+      <c r="B130">
+        <f>VLOOKUP(C130,D$126:F$128,D130)</f>
+        <v>13</v>
       </c>
       <c r="C130">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" s="1">
         <v>2</v>
-      </c>
-      <c r="M130" s="3" t="e">
-        <v>#VALUE!</v>
       </c>
       <c r="P130" t="b">
         <f t="shared" si="14"/>
@@ -4015,24 +4065,21 @@
       </c>
     </row>
     <row r="131" spans="1:17">
-      <c r="A131" t="s">
-        <v>28</v>
-      </c>
-      <c r="B131" t="e">
-        <f>VLOOKUP(C131,D$124:F$126,D131)</f>
-        <v>#REF!</v>
+      <c r="A131">
+        <v>23</v>
+      </c>
+      <c r="B131">
+        <f>VLOOKUP(C131,D$126:F$128,D131)</f>
+        <v>23</v>
       </c>
       <c r="C131">
         <v>31</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J131" s="1">
         <v>2</v>
-      </c>
-      <c r="M131" s="3" t="e">
-        <v>#REF!</v>
       </c>
       <c r="P131" t="b">
         <f t="shared" si="14"/>
@@ -4044,126 +4091,126 @@
       </c>
     </row>
     <row r="132" spans="1:17">
-      <c r="M132" s="3"/>
+      <c r="A132" t="s">
+        <v>28</v>
+      </c>
+      <c r="B132" t="e">
+        <f>VLOOKUP(C132,D$126:F$128,D132)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C132">
+        <v>31</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="J132" s="1">
+        <v>2</v>
+      </c>
+      <c r="M132" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P132" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q132" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:17">
       <c r="A133" t="s">
-        <v>12</v>
-      </c>
-      <c r="B133" t="str">
-        <f>VLOOKUP(C133,D$133:F$135,1,FALSE)</f>
-        <v>one</v>
-      </c>
-      <c r="C133" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" t="s">
-        <v>33</v>
-      </c>
-      <c r="F133" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B133" t="e">
+        <f>VLOOKUP(C133,D$126:F$128,D133)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C133">
+        <v>31</v>
+      </c>
+      <c r="D133">
+        <v>4</v>
       </c>
       <c r="J133" s="1">
-        <v>4</v>
-      </c>
-      <c r="K133" t="s">
-        <v>39</v>
-      </c>
-      <c r="L133" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="M133" s="3" t="e">
+        <v>#REF!</v>
       </c>
       <c r="P133" t="b">
-        <f t="shared" ref="P133:P141" si="16">OR(ISBLANK(B133),IF(ISERROR(B133),ERROR.TYPE(B133)=IF(ISBLANK(M133),ERROR.TYPE(A133),ERROR.TYPE(M133)),IF(ISBLANK(M133),AND(NOT(ISBLANK(A133)),A133=B133),B133=M133)))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q133" t="b">
-        <f t="shared" ref="Q133:Q141" si="17">IF(ISBLANK(O133),IF(ISERROR(P133),FALSE,P133),O133)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:17">
-      <c r="A134" t="s">
-        <v>34</v>
-      </c>
-      <c r="B134" t="str">
-        <f>VLOOKUP(C134,D$133:F$135,2,FALSE)</f>
-        <v>два</v>
-      </c>
-      <c r="C134" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" t="s">
-        <v>13</v>
-      </c>
-      <c r="E134" t="s">
-        <v>34</v>
-      </c>
-      <c r="F134" t="s">
-        <v>37</v>
-      </c>
-      <c r="J134" s="1">
-        <v>1</v>
-      </c>
-      <c r="P134" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="Q134" t="b">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
+      <c r="M134" s="3"/>
     </row>
     <row r="135" spans="1:17">
       <c r="A135" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B135" t="str">
-        <f>VLOOKUP(C135,D$133:F$135,3,FALSE)</f>
-        <v>drei</v>
+        <f>VLOOKUP(C135,D$135:F$137,1,FALSE)</f>
+        <v>one</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J135" s="1">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K135" t="s">
+        <v>39</v>
+      </c>
+      <c r="L135" t="s">
+        <v>25</v>
       </c>
       <c r="P135" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="P135:P143" si="16">OR(ISBLANK(B135),IF(ISERROR(B135),ERROR.TYPE(B135)=IF(ISBLANK(M135),ERROR.TYPE(A135),ERROR.TYPE(M135)),IF(ISBLANK(M135),AND(NOT(ISBLANK(A135)),A135=B135),B135=M135)))</f>
         <v>1</v>
       </c>
       <c r="Q135" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="Q135:Q143" si="17">IF(ISBLANK(O135),IF(ISERROR(P135),FALSE,P135),O135)</f>
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:17">
       <c r="A136" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" ref="B136:B141" si="18">VLOOKUP(C136,D$133:F$135,D136,FALSE)</f>
-        <v>one</v>
+        <f>VLOOKUP(C136,D$135:F$137,2,FALSE)</f>
+        <v>два</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" t="s">
+        <v>34</v>
+      </c>
+      <c r="F136" t="s">
+        <v>37</v>
       </c>
       <c r="J136" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P136" t="b">
         <f t="shared" si="16"/>
@@ -4176,454 +4223,509 @@
     </row>
     <row r="137" spans="1:17">
       <c r="A137" t="s">
+        <v>38</v>
+      </c>
+      <c r="B137" t="str">
+        <f>VLOOKUP(C137,D$135:F$137,3,FALSE)</f>
+        <v>drei</v>
+      </c>
+      <c r="C137" t="s">
+        <v>32</v>
+      </c>
+      <c r="D137" t="s">
+        <v>32</v>
+      </c>
+      <c r="E137" t="s">
+        <v>35</v>
+      </c>
+      <c r="F137" t="s">
+        <v>38</v>
+      </c>
+      <c r="J137" s="1">
+        <v>1</v>
+      </c>
+      <c r="P137" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q137" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" ref="B138:B143" si="18">VLOOKUP(C138,D$135:F$137,D138,FALSE)</f>
+        <v>one</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="J138" s="1">
+        <v>2</v>
+      </c>
+      <c r="P138" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q138" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" t="s">
         <v>34</v>
       </c>
-      <c r="B137" t="str">
+      <c r="B139" t="str">
         <f t="shared" si="18"/>
         <v>два</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C139" t="s">
         <v>13</v>
       </c>
-      <c r="D137">
-        <v>2</v>
-      </c>
-      <c r="J137" s="1">
-        <v>2</v>
-      </c>
-      <c r="P137" t="b">
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="J139" s="1">
+        <v>2</v>
+      </c>
+      <c r="P139" t="b">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q137" t="b">
+      <c r="Q139" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
-      <c r="A138" t="s">
+    <row r="140" spans="1:17">
+      <c r="A140" t="s">
         <v>38</v>
       </c>
-      <c r="B138" t="str">
+      <c r="B140" t="str">
         <f t="shared" si="18"/>
         <v>drei</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C140" t="s">
         <v>32</v>
       </c>
-      <c r="D138">
+      <c r="D140">
         <v>3</v>
       </c>
-      <c r="J138" s="1">
-        <v>2</v>
-      </c>
-      <c r="P138" t="b">
+      <c r="J140" s="1">
+        <v>2</v>
+      </c>
+      <c r="P140" t="b">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q138" t="b">
+      <c r="Q140" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
-      <c r="A139" t="s">
+    <row r="141" spans="1:17">
+      <c r="A141" t="s">
         <v>46</v>
       </c>
-      <c r="B139" t="e">
+      <c r="B141" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C141" t="s">
         <v>40</v>
       </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-      <c r="J139" s="1">
-        <v>2</v>
-      </c>
-      <c r="M139" s="3" t="e">
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="J141" s="1">
+        <v>2</v>
+      </c>
+      <c r="M141" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P139" t="b">
+      <c r="P141" t="b">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q139" t="b">
+      <c r="Q141" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
-      <c r="A140" t="s">
+    <row r="142" spans="1:17">
+      <c r="A142" t="s">
         <v>45</v>
       </c>
-      <c r="B140" t="e">
+      <c r="B142" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C140" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140">
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142">
         <v>0</v>
       </c>
-      <c r="J140" s="1">
-        <v>2</v>
-      </c>
-      <c r="M140" s="3" t="e">
+      <c r="J142" s="1">
+        <v>2</v>
+      </c>
+      <c r="M142" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P140" t="b">
+      <c r="P142" t="b">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q140" t="b">
+      <c r="Q142" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
-      <c r="A141" t="s">
+    <row r="143" spans="1:17">
+      <c r="A143" t="s">
         <v>45</v>
       </c>
-      <c r="B141" t="e">
+      <c r="B143" t="e">
         <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
-      <c r="C141" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141">
-        <v>4</v>
-      </c>
-      <c r="J141" s="1">
-        <v>2</v>
-      </c>
-      <c r="M141" s="3" t="e">
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
+      </c>
+      <c r="J143" s="1">
+        <v>2</v>
+      </c>
+      <c r="M143" s="3" t="e">
         <v>#REF!</v>
       </c>
-      <c r="P141" t="b">
+      <c r="P143" t="b">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q141" t="b">
+      <c r="Q143" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
-      <c r="M142" s="3"/>
-    </row>
-    <row r="143" spans="1:17">
-      <c r="A143">
+    <row r="144" spans="1:17">
+      <c r="M144" s="3"/>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145">
         <v>11</v>
       </c>
-      <c r="B143">
-        <f t="shared" ref="B143:B148" si="19">CHOOSE(C143,D143,E143,F143)</f>
+      <c r="B145">
+        <f t="shared" ref="B145:B150" si="19">CHOOSE(C145,D145,E145,F145)</f>
         <v>11</v>
       </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143">
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
         <v>11</v>
       </c>
-      <c r="E143">
-        <v>12</v>
-      </c>
-      <c r="F143">
+      <c r="E145">
+        <v>12</v>
+      </c>
+      <c r="F145">
         <v>13</v>
       </c>
-      <c r="J143" s="1">
-        <v>4</v>
-      </c>
-      <c r="K143" t="s">
+      <c r="J145" s="1">
+        <v>4</v>
+      </c>
+      <c r="K145" t="s">
         <v>26</v>
       </c>
-      <c r="L143" t="s">
+      <c r="L145" t="s">
         <v>26</v>
       </c>
-      <c r="M143" s="3"/>
-      <c r="P143" t="b">
-        <f t="shared" ref="P143:P148" si="20">OR(ISBLANK(B143),IF(ISERROR(B143),ERROR.TYPE(B143)=IF(ISBLANK(M143),ERROR.TYPE(A143),ERROR.TYPE(M143)),IF(ISBLANK(M143),AND(NOT(ISBLANK(A143)),A143=B143),B143=M143)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q143" t="b">
-        <f t="shared" ref="Q143:Q148" si="21">IF(ISBLANK(O143),IF(ISERROR(P143),FALSE,P143),O143)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17">
-      <c r="A144">
+      <c r="M145" s="3"/>
+      <c r="P145" t="b">
+        <f t="shared" ref="P145:P150" si="20">OR(ISBLANK(B145),IF(ISERROR(B145),ERROR.TYPE(B145)=IF(ISBLANK(M145),ERROR.TYPE(A145),ERROR.TYPE(M145)),IF(ISBLANK(M145),AND(NOT(ISBLANK(A145)),A145=B145),B145=M145)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q145" t="b">
+        <f t="shared" ref="Q145:Q150" si="21">IF(ISBLANK(O145),IF(ISERROR(P145),FALSE,P145),O145)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146">
         <v>22</v>
       </c>
-      <c r="B144">
+      <c r="B146">
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-      <c r="C144">
-        <v>2</v>
-      </c>
-      <c r="D144">
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
         <v>21</v>
       </c>
-      <c r="E144">
+      <c r="E146">
         <v>22</v>
       </c>
-      <c r="F144">
+      <c r="F146">
         <v>23</v>
       </c>
-      <c r="J144" s="1">
-        <v>4</v>
-      </c>
-      <c r="P144" t="b">
+      <c r="J146" s="1">
+        <v>4</v>
+      </c>
+      <c r="P146" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="Q144" t="b">
+      <c r="Q146" t="b">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
-      <c r="A145">
+    <row r="147" spans="1:17">
+      <c r="A147">
         <v>33</v>
       </c>
-      <c r="B145">
+      <c r="B147">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="C145">
+      <c r="C147">
         <v>3</v>
       </c>
-      <c r="D145">
+      <c r="D147">
         <v>31</v>
       </c>
-      <c r="E145">
+      <c r="E147">
         <v>32</v>
       </c>
-      <c r="F145">
+      <c r="F147">
         <v>33</v>
       </c>
-      <c r="J145" s="1">
-        <v>4</v>
-      </c>
-      <c r="P145" t="b">
+      <c r="J147" s="1">
+        <v>4</v>
+      </c>
+      <c r="P147" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="Q145" t="b">
+      <c r="Q147" t="b">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
-      <c r="A146" t="s">
+    <row r="148" spans="1:17">
+      <c r="A148" t="s">
         <v>28</v>
       </c>
-      <c r="B146" t="e">
+      <c r="B148" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C146">
-        <v>4</v>
-      </c>
-      <c r="D146">
+      <c r="C148">
+        <v>4</v>
+      </c>
+      <c r="D148">
         <v>11</v>
       </c>
-      <c r="E146">
-        <v>12</v>
-      </c>
-      <c r="F146">
+      <c r="E148">
+        <v>12</v>
+      </c>
+      <c r="F148">
         <v>13</v>
       </c>
-      <c r="J146" s="1">
-        <v>4</v>
-      </c>
-      <c r="M146" s="3" t="e">
+      <c r="J148" s="1">
+        <v>4</v>
+      </c>
+      <c r="M148" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P146" t="b">
+      <c r="P148" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="Q146" t="b">
+      <c r="Q148" t="b">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
-      <c r="A147" t="s">
+    <row r="149" spans="1:17">
+      <c r="A149" t="s">
         <v>28</v>
       </c>
-      <c r="B147" t="e">
+      <c r="B149" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C147">
+      <c r="C149">
         <v>0</v>
       </c>
-      <c r="D147">
+      <c r="D149">
         <v>11</v>
       </c>
-      <c r="E147">
-        <v>12</v>
-      </c>
-      <c r="F147">
+      <c r="E149">
+        <v>12</v>
+      </c>
+      <c r="F149">
         <v>13</v>
       </c>
-      <c r="J147" s="1">
-        <v>4</v>
-      </c>
-      <c r="M147" s="3" t="e">
+      <c r="J149" s="1">
+        <v>4</v>
+      </c>
+      <c r="M149" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P147" t="b">
+      <c r="P149" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="Q147" t="b">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17">
-      <c r="A148">
-        <v>12</v>
-      </c>
-      <c r="B148">
-        <f t="shared" si="19"/>
-        <v>12</v>
-      </c>
-      <c r="C148">
-        <v>2.99</v>
-      </c>
-      <c r="D148">
-        <v>11</v>
-      </c>
-      <c r="E148">
-        <v>12</v>
-      </c>
-      <c r="F148">
-        <v>13</v>
-      </c>
-      <c r="J148" s="1">
-        <v>4</v>
-      </c>
-      <c r="P148" t="b">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="Q148" t="b">
+      <c r="Q149" t="b">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:17">
       <c r="A150">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B150">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="C150">
+        <v>2.99</v>
+      </c>
+      <c r="D150">
+        <v>11</v>
+      </c>
+      <c r="E150">
+        <v>12</v>
+      </c>
+      <c r="F150">
+        <v>13</v>
+      </c>
+      <c r="J150" s="1">
+        <v>4</v>
+      </c>
+      <c r="P150" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q150" t="b">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
+      <c r="A152">
+        <v>2</v>
+      </c>
+      <c r="B152">
         <f>COLUMN()</f>
         <v>2</v>
       </c>
-      <c r="J150" s="1">
+      <c r="J152" s="1">
         <v>0</v>
       </c>
-      <c r="K150" t="s">
+      <c r="K152" t="s">
         <v>47</v>
       </c>
-      <c r="L150" t="s">
+      <c r="L152" t="s">
         <v>47</v>
       </c>
-      <c r="P150" t="b">
-        <f t="shared" ref="P150:P151" si="22">OR(ISBLANK(B150),IF(ISERROR(B150),ERROR.TYPE(B150)=IF(ISBLANK(M150),ERROR.TYPE(A150),ERROR.TYPE(M150)),IF(ISBLANK(M150),AND(NOT(ISBLANK(A150)),A150=B150),B150=M150)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q150" t="b">
-        <f t="shared" ref="Q150:Q151" si="23">IF(ISBLANK(O150),IF(ISERROR(P150),FALSE,P150),O150)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17">
-      <c r="A151">
-        <v>3</v>
-      </c>
-      <c r="B151">
-        <f>COLUMN(C151)</f>
-        <v>3</v>
-      </c>
-      <c r="J151" s="1">
-        <v>1</v>
-      </c>
-      <c r="P151" t="b">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="Q151" t="b">
-        <f t="shared" si="23"/>
+      <c r="P152" t="b">
+        <f t="shared" ref="P152:P153" si="22">OR(ISBLANK(B152),IF(ISERROR(B152),ERROR.TYPE(B152)=IF(ISBLANK(M152),ERROR.TYPE(A152),ERROR.TYPE(M152)),IF(ISBLANK(M152),AND(NOT(ISBLANK(A152)),A152=B152),B152=M152)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q152" t="b">
+        <f t="shared" ref="Q152:Q153" si="23">IF(ISBLANK(O152),IF(ISERROR(P152),FALSE,P152),O152)</f>
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:17">
       <c r="A153">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="B153">
+        <f>COLUMN(C153)</f>
+        <v>3</v>
+      </c>
+      <c r="J153" s="1">
+        <v>1</v>
+      </c>
+      <c r="P153" t="b">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="Q153" t="b">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155">
         <f>ROW()</f>
-        <v>153</v>
-      </c>
-      <c r="J153" s="1">
+        <v>155</v>
+      </c>
+      <c r="J155" s="1">
         <v>0</v>
       </c>
-      <c r="K153" t="s">
+      <c r="K155" t="s">
         <v>48</v>
       </c>
-      <c r="L153" t="s">
+      <c r="L155" t="s">
         <v>48</v>
       </c>
-      <c r="P153" t="b">
-        <f t="shared" ref="P153:P154" si="24">OR(ISBLANK(B153),IF(ISERROR(B153),ERROR.TYPE(B153)=IF(ISBLANK(M153),ERROR.TYPE(A153),ERROR.TYPE(M153)),IF(ISBLANK(M153),AND(NOT(ISBLANK(A153)),A153=B153),B153=M153)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q153" t="b">
-        <f t="shared" ref="Q153:Q154" si="25">IF(ISBLANK(O153),IF(ISERROR(P153),FALSE,P153),O153)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17">
-      <c r="A154">
-        <v>154</v>
-      </c>
-      <c r="B154">
-        <f>ROW(C154)</f>
-        <v>154</v>
-      </c>
-      <c r="J154" s="1">
-        <v>1</v>
-      </c>
-      <c r="P154" t="b">
+      <c r="P155" t="b">
+        <f t="shared" ref="P155:P156" si="24">OR(ISBLANK(B155),IF(ISERROR(B155),ERROR.TYPE(B155)=IF(ISBLANK(M155),ERROR.TYPE(A155),ERROR.TYPE(M155)),IF(ISBLANK(M155),AND(NOT(ISBLANK(A155)),A155=B155),B155=M155)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q155" t="b">
+        <f t="shared" ref="Q155:Q156" si="25">IF(ISBLANK(O155),IF(ISERROR(P155),FALSE,P155),O155)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <f>ROW(C156)</f>
+        <v>156</v>
+      </c>
+      <c r="J156" s="1">
+        <v>1</v>
+      </c>
+      <c r="P156" t="b">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="Q154" t="b">
+      <c r="Q156" t="b">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="13:13">
-      <c r="M162" s="3"/>
-    </row>
-    <row r="166" spans="13:13">
-      <c r="M166" s="3"/>
+    <row r="164" spans="13:13">
+      <c r="M164" s="3"/>
     </row>
     <row r="168" spans="13:13">
       <c r="M168" s="3"/>
     </row>
-    <row r="169" spans="13:13">
-      <c r="M169" s="3"/>
+    <row r="170" spans="13:13">
+      <c r="M170" s="3"/>
     </row>
     <row r="171" spans="13:13">
       <c r="M171" s="3"/>
@@ -4631,14 +4733,11 @@
     <row r="173" spans="13:13">
       <c r="M173" s="3"/>
     </row>
-    <row r="174" spans="13:13">
-      <c r="M174" s="3"/>
-    </row>
-    <row r="178" spans="13:13">
-      <c r="M178" s="3"/>
-    </row>
-    <row r="179" spans="13:13">
-      <c r="M179" s="3"/>
+    <row r="175" spans="13:13">
+      <c r="M175" s="3"/>
+    </row>
+    <row r="176" spans="13:13">
+      <c r="M176" s="3"/>
     </row>
     <row r="180" spans="13:13">
       <c r="M180" s="3"/>
@@ -4700,24 +4799,48 @@
     <row r="199" spans="13:13">
       <c r="M199" s="3"/>
     </row>
+    <row r="200" spans="13:13">
+      <c r="M200" s="3"/>
+    </row>
+    <row r="201" spans="13:13">
+      <c r="M201" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A10029">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:A10031">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>NOT(OR(ISBLANK(Q2),Q2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
       <formula>NOT(AND(ISBLANK(M2),ISBLANK(O2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I10029">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="C2:I10031">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>$J2&gt;COLUMN(C2)-3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M10029">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="M2:M10031">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(M2)),IF(ISERROR(A2),ERROR.TYPE(A2)=ERROR.TYPE(M2),A2=M2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:A83">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>NOT(OR(ISBLANK(Q82),Q82))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>NOT(AND(ISBLANK(M82),ISBLANK(O82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83 I82:I83 C82:G83">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>$J82&gt;COLUMN(C82)-3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M82:M83">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK(M82)),IF(ISERROR(A82),ERROR.TYPE(A82)=ERROR.TYPE(M82),A82=M82))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/components/system/src/test-reference/data/org/formulacompiler/tests/reference/LookupFunctions.xlsx
+++ b/components/system/src/test-reference/data/org/formulacompiler/tests/reference/LookupFunctions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="52">
   <si>
     <t>Actual</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>INDEX (nested)</t>
+  </si>
+  <si>
+    <t>MATCH (ascending, trailing NULLs)</t>
+  </si>
+  <si>
+    <t>MATCH (descending, trailing NULLs)</t>
   </si>
 </sst>
 </file>
@@ -191,12 +197,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -211,36 +223,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
           <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
         </patternFill>
       </fill>
     </dxf>
@@ -262,6 +261,48 @@
       <fill>
         <patternFill>
           <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
         </patternFill>
       </fill>
     </dxf>
@@ -597,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q201"/>
+  <dimension ref="A1:Q205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
@@ -684,11 +725,11 @@
         <v>#N/A</v>
       </c>
       <c r="P2" t="b">
-        <f t="shared" ref="P2:P11" si="0">OR(ISBLANK(B2),IF(ISERROR(B2),ERROR.TYPE(B2)=IF(ISBLANK(M2),ERROR.TYPE(A2),ERROR.TYPE(M2)),IF(ISBLANK(M2),AND(NOT(ISBLANK(A2)),A2=B2),B2=M2)))</f>
+        <f t="shared" ref="P2:P13" si="0">OR(ISBLANK(B2),IF(ISERROR(B2),ERROR.TYPE(B2)=IF(ISBLANK(M2),ERROR.TYPE(A2),ERROR.TYPE(M2)),IF(ISBLANK(M2),AND(NOT(ISBLANK(A2)),A2=B2),B2=M2)))</f>
         <v>1</v>
       </c>
       <c r="Q2" t="b">
-        <f t="shared" ref="Q2:Q11" si="1">IF(ISBLANK(O2),IF(ISERROR(P2),FALSE,P2),O2)</f>
+        <f t="shared" ref="Q2:Q13" si="1">IF(ISBLANK(O2),IF(ISERROR(P2),FALSE,P2),O2)</f>
         <v>1</v>
       </c>
     </row>
@@ -980,86 +1021,85 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f>MATCH(C12,D12:I12)</f>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="13" spans="1:17">
       <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f>MATCH(C13,D13:I13)</f>
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="1">
         <v>3</v>
       </c>
-      <c r="B13">
-        <f>MATCH(C13,D13:F13,-1)</f>
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>99</v>
-      </c>
-      <c r="D13">
-        <v>500</v>
-      </c>
-      <c r="E13">
-        <v>200</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="J13" s="1">
-        <v>4</v>
-      </c>
-      <c r="K13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" t="s">
-        <v>9</v>
-      </c>
       <c r="P13" t="b">
-        <f t="shared" ref="P13:P22" si="3">OR(ISBLANK(B13),IF(ISERROR(B13),ERROR.TYPE(B13)=IF(ISBLANK(M13),ERROR.TYPE(A13),ERROR.TYPE(M13)),IF(ISBLANK(M13),AND(NOT(ISBLANK(A13)),A13=B13),B13=M13)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q13" t="b">
-        <f t="shared" ref="Q13:Q22" si="4">IF(ISBLANK(O13),IF(ISERROR(P13),FALSE,P13),O13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ref="B14:B21" si="5">MATCH(C14,D14:F14,-1)</f>
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>500</v>
-      </c>
-      <c r="E14">
-        <v>200</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="J14" s="1">
-        <v>4</v>
-      </c>
-      <c r="P14" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q14" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>MATCH(C15,D15:F15,-1)</f>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D15">
         <v>500</v>
@@ -1073,25 +1113,31 @@
       <c r="J15" s="1">
         <v>4</v>
       </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>9</v>
+      </c>
       <c r="P15" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P15:P26" si="3">OR(ISBLANK(B15),IF(ISERROR(B15),ERROR.TYPE(B15)=IF(ISBLANK(M15),ERROR.TYPE(A15),ERROR.TYPE(M15)),IF(ISBLANK(M15),AND(NOT(ISBLANK(A15)),A15=B15),B15=M15)))</f>
         <v>1</v>
       </c>
       <c r="Q15" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="Q15:Q26" si="4">IF(ISBLANK(O15),IF(ISERROR(P15),FALSE,P15),O15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" ref="B16:B23" si="5">MATCH(C16,D16:F16,-1)</f>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D16">
         <v>500</v>
@@ -1123,7 +1169,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="D17">
         <v>500</v>
@@ -1148,14 +1194,14 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D18">
         <v>500</v>
@@ -1180,14 +1226,14 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D19">
         <v>500</v>
@@ -1211,94 +1257,94 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" t="s">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>201</v>
+      </c>
+      <c r="D20">
+        <v>500</v>
+      </c>
+      <c r="E20">
+        <v>200</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="J20" s="1">
+        <v>4</v>
+      </c>
+      <c r="P20" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21">
+        <v>500</v>
+      </c>
+      <c r="E21">
+        <v>200</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="P21" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="e">
+      <c r="B22" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>501</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>500</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>200</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <v>100</v>
       </c>
-      <c r="J20" s="1">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3" t="e">
+      <c r="J22" s="1">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="e">
         <v>#N/A</v>
-      </c>
-      <c r="P20" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q20" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>25</v>
-      </c>
-      <c r="D21">
-        <v>30</v>
-      </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="J21" s="1">
-        <v>4</v>
-      </c>
-      <c r="P21" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q21" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <f>MATCH(C22,D22:F22,-1)</f>
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>30</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
-        <v>4</v>
       </c>
       <c r="P22" t="b">
         <f t="shared" si="3"/>
@@ -1309,44 +1355,67 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4</v>
+      </c>
+      <c r="P23" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="24" spans="1:17">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="e">
-        <f>MATCH(C24,D24:F24,0)</f>
-        <v>#N/A</v>
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <f>MATCH(C24,D24:F24,-1)</f>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E24">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F24">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1">
         <v>4</v>
       </c>
-      <c r="K24" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" s="3" t="e">
-        <v>#N/A</v>
-      </c>
       <c r="P24" t="b">
-        <f t="shared" ref="P24:P34" si="6">OR(ISBLANK(B24),IF(ISERROR(B24),ERROR.TYPE(B24)=IF(ISBLANK(M24),ERROR.TYPE(A24),ERROR.TYPE(M24)),IF(ISBLANK(M24),AND(NOT(ISBLANK(A24)),A24=B24),B24=M24)))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q24" t="b">
-        <f t="shared" ref="Q24:Q34" si="7">IF(ISBLANK(O24),IF(ISERROR(P24),FALSE,P24),O24)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1355,180 +1424,153 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:B32" si="8">MATCH(C25,D25:F25,0)</f>
+        <f>MATCH(C25,D25:I25,-1)</f>
         <v>1</v>
       </c>
       <c r="C25">
+        <v>-15</v>
+      </c>
+      <c r="D25">
+        <v>-10</v>
+      </c>
+      <c r="E25">
+        <v>-20</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="1">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <f>MATCH(C26,D26:I26,-1)</f>
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>-15</v>
+      </c>
+      <c r="D26">
+        <v>-10</v>
+      </c>
+      <c r="E26">
+        <v>-12</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="1">
+        <v>3</v>
+      </c>
+      <c r="P26" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="e">
+        <f>MATCH(C28,D28:F28,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C28">
+        <v>99</v>
+      </c>
+      <c r="D28">
         <v>100</v>
       </c>
-      <c r="D25">
+      <c r="E28">
+        <v>200</v>
+      </c>
+      <c r="F28">
+        <v>500</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4</v>
+      </c>
+      <c r="K28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P28" t="b">
+        <f t="shared" ref="P28:P38" si="6">OR(ISBLANK(B28),IF(ISERROR(B28),ERROR.TYPE(B28)=IF(ISBLANK(M28),ERROR.TYPE(A28),ERROR.TYPE(M28)),IF(ISBLANK(M28),AND(NOT(ISBLANK(A28)),A28=B28),B28=M28)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q28" t="b">
+        <f t="shared" ref="Q28:Q38" si="7">IF(ISBLANK(O28),IF(ISERROR(P28),FALSE,P28),O28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:B36" si="8">MATCH(C29,D29:F29,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>100</v>
       </c>
-      <c r="E25">
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
         <v>200</v>
       </c>
-      <c r="F25">
+      <c r="F29">
         <v>500</v>
       </c>
-      <c r="J25" s="1">
-        <v>4</v>
-      </c>
-      <c r="P25" t="b">
+      <c r="J29" s="1">
+        <v>4</v>
+      </c>
+      <c r="P29" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q25" t="b">
+      <c r="Q29" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="A26" t="s">
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="e">
+      <c r="B30" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="C26">
+      <c r="C30">
         <v>101</v>
-      </c>
-      <c r="D26">
-        <v>100</v>
-      </c>
-      <c r="E26">
-        <v>200</v>
-      </c>
-      <c r="F26">
-        <v>500</v>
-      </c>
-      <c r="J26" s="1">
-        <v>4</v>
-      </c>
-      <c r="M26" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P26" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Q26" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C27">
-        <v>199</v>
-      </c>
-      <c r="D27">
-        <v>100</v>
-      </c>
-      <c r="E27">
-        <v>200</v>
-      </c>
-      <c r="F27">
-        <v>500</v>
-      </c>
-      <c r="J27" s="1">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P27" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Q27" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>200</v>
-      </c>
-      <c r="D28">
-        <v>100</v>
-      </c>
-      <c r="E28">
-        <v>200</v>
-      </c>
-      <c r="F28">
-        <v>500</v>
-      </c>
-      <c r="J28" s="1">
-        <v>4</v>
-      </c>
-      <c r="P28" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Q28" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C29">
-        <v>201</v>
-      </c>
-      <c r="D29">
-        <v>100</v>
-      </c>
-      <c r="E29">
-        <v>200</v>
-      </c>
-      <c r="F29">
-        <v>500</v>
-      </c>
-      <c r="J29" s="1">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P29" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Q29" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>500</v>
       </c>
       <c r="D30">
         <v>100</v>
@@ -1541,6 +1583,9 @@
       </c>
       <c r="J30" s="1">
         <v>4</v>
+      </c>
+      <c r="M30" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="P30" t="b">
         <f t="shared" si="6"/>
@@ -1560,7 +1605,7 @@
         <v>#N/A</v>
       </c>
       <c r="C31">
-        <v>501</v>
+        <v>199</v>
       </c>
       <c r="D31">
         <v>100</v>
@@ -1587,62 +1632,62 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" t="s">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>200</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>200</v>
+      </c>
+      <c r="F32">
+        <v>500</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4</v>
+      </c>
+      <c r="P32" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q32" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B32" t="e">
+      <c r="B33" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="C32">
-        <v>25</v>
-      </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-      <c r="E32">
-        <v>20</v>
-      </c>
-      <c r="F32">
-        <v>30</v>
-      </c>
-      <c r="J32" s="1">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3" t="e">
+      <c r="C33">
+        <v>201</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>200</v>
+      </c>
+      <c r="F33">
+        <v>500</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3" t="e">
         <v>#N/A</v>
-      </c>
-      <c r="P32" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Q32" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33">
-        <f>MATCH(C33,D33:F33,0)</f>
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>20</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>20</v>
-      </c>
-      <c r="F33">
-        <v>30</v>
-      </c>
-      <c r="J33" s="1">
-        <v>4</v>
       </c>
       <c r="P33" t="b">
         <f t="shared" si="6"/>
@@ -1655,23 +1700,23 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <f>MATCH(C34,D34:F34,0)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="J34" s="1">
         <v>4</v>
@@ -1685,112 +1730,150 @@
         <v>1</v>
       </c>
     </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C35">
+        <v>501</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>200</v>
+      </c>
+      <c r="F35">
+        <v>500</v>
+      </c>
+      <c r="J35" s="1">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P35" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q35" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C36">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
+      </c>
+      <c r="J36" s="1">
+        <v>4</v>
+      </c>
+      <c r="M36" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P36" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q36" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="37" spans="1:17">
       <c r="A37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <f>INDEX(C37:E37,2)</f>
-        <v>6</v>
+        <f>MATCH(C37,D37:F37,0)</f>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>30</v>
       </c>
       <c r="J37" s="1">
-        <v>3</v>
-      </c>
-      <c r="K37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P37" t="b">
-        <f>OR(ISBLANK(B37),IF(ISERROR(B37),ERROR.TYPE(B37)=IF(ISBLANK(M37),ERROR.TYPE(A37),ERROR.TYPE(M37)),IF(ISBLANK(M37),AND(NOT(ISBLANK(A37)),A37=B37),B37=M37)))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q37" t="b">
-        <f>IF(ISBLANK(O37),IF(ISERROR(P37),FALSE,P37),O37)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B38">
-        <f>INDEX(C38:E38,2)</f>
-        <v>9</v>
+        <f>MATCH(C38,D38:F38,0)</f>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E38">
+        <v>20</v>
+      </c>
+      <c r="F38">
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P38" t="b">
-        <f>OR(ISBLANK(B38),IF(ISERROR(B38),ERROR.TYPE(B38)=IF(ISBLANK(M38),ERROR.TYPE(A38),ERROR.TYPE(M38)),IF(ISBLANK(M38),AND(NOT(ISBLANK(A38)),A38=B38),B38=M38)))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q38" t="b">
-        <f>IF(ISBLANK(O38),IF(ISERROR(P38),FALSE,P38),O38)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40">
-        <v>5</v>
-      </c>
-      <c r="B40">
-        <f>INDEX(D40:F40,C40)</f>
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-      <c r="F40">
-        <v>6</v>
-      </c>
-      <c r="J40" s="1">
-        <v>4</v>
-      </c>
-      <c r="P40" t="b">
-        <f>OR(ISBLANK(B40),IF(ISERROR(B40),ERROR.TYPE(B40)=IF(ISBLANK(M40),ERROR.TYPE(A40),ERROR.TYPE(M40)),IF(ISBLANK(M40),AND(NOT(ISBLANK(A40)),A40=B40),B40=M40)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q40" t="b">
-        <f>IF(ISBLANK(O40),IF(ISERROR(P40),FALSE,P40),O40)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <f>INDEX(D41:F41,C41)</f>
-        <v>8</v>
+        <f>INDEX(C41:E41,2)</f>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>6</v>
@@ -1798,11 +1881,14 @@
       <c r="E41">
         <v>7</v>
       </c>
-      <c r="F41">
-        <v>8</v>
-      </c>
       <c r="J41" s="1">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" t="s">
+        <v>11</v>
       </c>
       <c r="P41" t="b">
         <f>OR(ISBLANK(B41),IF(ISERROR(B41),ERROR.TYPE(B41)=IF(ISBLANK(M41),ERROR.TYPE(A41),ERROR.TYPE(M41)),IF(ISBLANK(M41),AND(NOT(ISBLANK(A41)),A41=B41),B41=M41)))</f>
@@ -1815,26 +1901,23 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B42">
-        <f>INDEX(D42:F42,C42)</f>
-        <v>6</v>
+        <f>INDEX(C42:E42,2)</f>
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <v>7</v>
-      </c>
-      <c r="F42">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J42" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P42" t="b">
         <f>OR(ISBLANK(B42),IF(ISERROR(B42),ERROR.TYPE(B42)=IF(ISBLANK(M42),ERROR.TYPE(A42),ERROR.TYPE(M42)),IF(ISBLANK(M42),AND(NOT(ISBLANK(A42)),A42=B42),B42=M42)))</f>
@@ -1845,66 +1928,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
-      <c r="A43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" t="e">
-        <f>INDEX(D43:F43,C43)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <f>INDEX(D44:F44,C44)</f>
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
         <v>6</v>
       </c>
-      <c r="E43">
-        <v>7</v>
-      </c>
-      <c r="F43">
-        <v>8</v>
-      </c>
-      <c r="J43" s="1">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P43" t="b">
-        <f>OR(ISBLANK(B43),IF(ISERROR(B43),ERROR.TYPE(B43)=IF(ISBLANK(M43),ERROR.TYPE(A43),ERROR.TYPE(M43)),IF(ISBLANK(M43),AND(NOT(ISBLANK(A43)),A43=B43),B43=M43)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q43" t="b">
-        <f>IF(ISBLANK(O43),IF(ISERROR(P43),FALSE,P43),O43)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" t="e">
-        <f>INDEX(D44:F44,C44)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44">
-        <v>6</v>
-      </c>
-      <c r="E44">
-        <v>7</v>
-      </c>
-      <c r="F44">
-        <v>8</v>
-      </c>
       <c r="J44" s="1">
         <v>4</v>
-      </c>
-      <c r="M44" s="3" t="e">
-        <v>#REF!</v>
       </c>
       <c r="P44" t="b">
         <f>OR(ISBLANK(B44),IF(ISERROR(B44),ERROR.TYPE(B44)=IF(ISBLANK(M44),ERROR.TYPE(A44),ERROR.TYPE(M44)),IF(ISBLANK(M44),AND(NOT(ISBLANK(A44)),A44=B44),B44=M44)))</f>
@@ -1915,16 +1960,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <f>INDEX(D45:F45,C45)</f>
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="J45" s="1">
+        <v>4</v>
+      </c>
+      <c r="P45" t="b">
+        <f>OR(ISBLANK(B45),IF(ISERROR(B45),ERROR.TYPE(B45)=IF(ISBLANK(M45),ERROR.TYPE(A45),ERROR.TYPE(M45)),IF(ISBLANK(M45),AND(NOT(ISBLANK(A45)),A45=B45),B45=M45)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q45" t="b">
+        <f>IF(ISBLANK(O45),IF(ISERROR(P45),FALSE,P45),O45)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="46" spans="1:17">
       <c r="A46">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <f>INDEX(D46:F46,C46)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
       </c>
       <c r="J46" s="1">
         <v>4</v>
@@ -1939,21 +2025,30 @@
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47">
-        <v>5</v>
-      </c>
-      <c r="B47">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="e">
         <f>INDEX(D47:F47,C47)</f>
-        <v>5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
       </c>
       <c r="J47" s="1">
         <v>4</v>
+      </c>
+      <c r="M47" s="3" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="P47" t="b">
         <f>OR(ISBLANK(B47),IF(ISERROR(B47),ERROR.TYPE(B47)=IF(ISBLANK(M47),ERROR.TYPE(A47),ERROR.TYPE(M47)),IF(ISBLANK(M47),AND(NOT(ISBLANK(A47)),A47=B47),B47=M47)))</f>
@@ -1964,57 +2059,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
-      <c r="A49">
-        <v>9</v>
-      </c>
-      <c r="B49">
-        <f>INDEX(C49:E50,2,2)</f>
-        <v>9</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49">
+    <row r="48" spans="1:17">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="e">
+        <f>INDEX(D48:F48,C48)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
         <v>6</v>
       </c>
-      <c r="E49">
+      <c r="E48">
         <v>7</v>
       </c>
-      <c r="J49" s="1">
-        <v>3</v>
-      </c>
-      <c r="K49" t="s">
-        <v>22</v>
-      </c>
-      <c r="P49" t="b">
-        <f>OR(ISBLANK(B49),IF(ISERROR(B49),ERROR.TYPE(B49)=IF(ISBLANK(M49),ERROR.TYPE(A49),ERROR.TYPE(M49)),IF(ISBLANK(M49),AND(NOT(ISBLANK(A49)),A49=B49),B49=M49)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q49" t="b">
-        <f>IF(ISBLANK(O49),IF(ISERROR(P49),FALSE,P49),O49)</f>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="J48" s="1">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P48" t="b">
+        <f>OR(ISBLANK(B48),IF(ISERROR(B48),ERROR.TYPE(B48)=IF(ISBLANK(M48),ERROR.TYPE(A48),ERROR.TYPE(M48)),IF(ISBLANK(M48),AND(NOT(ISBLANK(A48)),A48=B48),B48=M48)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q48" t="b">
+        <f>IF(ISBLANK(O48),IF(ISERROR(P48),FALSE,P48),O48)</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B50">
-        <f>INDEX(C50:E50,1,2)</f>
-        <v>9</v>
+        <f>INDEX(D50:F50,C50)</f>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>8</v>
-      </c>
-      <c r="D50">
-        <v>9</v>
-      </c>
-      <c r="E50">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J50" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P50" t="b">
         <f>OR(ISBLANK(B50),IF(ISERROR(B50),ERROR.TYPE(B50)=IF(ISBLANK(M50),ERROR.TYPE(A50),ERROR.TYPE(M50)),IF(ISBLANK(M50),AND(NOT(ISBLANK(A50)),A50=B50),B50=M50)))</f>
@@ -2025,60 +2117,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
-      <c r="A52">
-        <v>11</v>
-      </c>
-      <c r="B52">
-        <f>INDEX(F$52:G$53,C52,D52)</f>
-        <v>11</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>11</v>
-      </c>
-      <c r="G52">
-        <v>13</v>
-      </c>
-      <c r="J52" s="1">
-        <v>2</v>
-      </c>
-      <c r="P52" t="b">
-        <f>OR(ISBLANK(B52),IF(ISERROR(B52),ERROR.TYPE(B52)=IF(ISBLANK(M52),ERROR.TYPE(A52),ERROR.TYPE(M52)),IF(ISBLANK(M52),AND(NOT(ISBLANK(A52)),A52=B52),B52=M52)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q52" t="b">
-        <f>IF(ISBLANK(O52),IF(ISERROR(P52),FALSE,P52),O52)</f>
+    <row r="51" spans="1:17">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <f>INDEX(D51:F51,C51)</f>
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="J51" s="1">
+        <v>4</v>
+      </c>
+      <c r="P51" t="b">
+        <f>OR(ISBLANK(B51),IF(ISERROR(B51),ERROR.TYPE(B51)=IF(ISBLANK(M51),ERROR.TYPE(A51),ERROR.TYPE(M51)),IF(ISBLANK(M51),AND(NOT(ISBLANK(A51)),A51=B51),B51=M51)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q51" t="b">
+        <f>IF(ISBLANK(O51),IF(ISERROR(P51),FALSE,P51),O51)</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B53">
-        <f>INDEX(F$52:G$53,C53,D53)</f>
-        <v>13</v>
+        <f>INDEX(C53:E54,2,2)</f>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="F53">
-        <v>12</v>
-      </c>
-      <c r="G53">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
       </c>
       <c r="J53" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K53" t="s">
+        <v>22</v>
       </c>
       <c r="P53" t="b">
         <f>OR(ISBLANK(B53),IF(ISERROR(B53),ERROR.TYPE(B53)=IF(ISBLANK(M53),ERROR.TYPE(A53),ERROR.TYPE(M53)),IF(ISBLANK(M53),AND(NOT(ISBLANK(A53)),A53=B53),B53=M53)))</f>
@@ -2091,20 +2177,23 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <f>INDEX(F$52:G$53,C54,D54)</f>
-        <v>12</v>
+        <f>INDEX(C54:E54,1,2)</f>
+        <v>9</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
       </c>
       <c r="J54" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P54" t="b">
         <f>OR(ISBLANK(B54),IF(ISERROR(B54),ERROR.TYPE(B54)=IF(ISBLANK(M54),ERROR.TYPE(A54),ERROR.TYPE(M54)),IF(ISBLANK(M54),AND(NOT(ISBLANK(A54)),A54=B54),B54=M54)))</f>
@@ -2115,45 +2204,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
-      <c r="A55">
-        <v>14</v>
-      </c>
-      <c r="B55">
-        <f>INDEX(F$52:G$53,C55,D55)</f>
-        <v>14</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="J55" s="1">
-        <v>2</v>
-      </c>
-      <c r="P55" t="b">
-        <f>OR(ISBLANK(B55),IF(ISERROR(B55),ERROR.TYPE(B55)=IF(ISBLANK(M55),ERROR.TYPE(A55),ERROR.TYPE(M55)),IF(ISBLANK(M55),AND(NOT(ISBLANK(A55)),A55=B55),B55=M55)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q55" t="b">
-        <f>IF(ISBLANK(O55),IF(ISERROR(P55),FALSE,P55),O55)</f>
+    <row r="56" spans="1:17">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <f>INDEX(F$56:G$57,C56,D56)</f>
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>11</v>
+      </c>
+      <c r="G56">
+        <v>13</v>
+      </c>
+      <c r="J56" s="1">
+        <v>2</v>
+      </c>
+      <c r="P56" t="b">
+        <f>OR(ISBLANK(B56),IF(ISERROR(B56),ERROR.TYPE(B56)=IF(ISBLANK(M56),ERROR.TYPE(A56),ERROR.TYPE(M56)),IF(ISBLANK(M56),AND(NOT(ISBLANK(A56)),A56=B56),B56=M56)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q56" t="b">
+        <f>IF(ISBLANK(O56),IF(ISERROR(P56),FALSE,P56),O56)</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B57">
-        <f>INDEX(C57:D58,1,1)</f>
-        <v>11</v>
+        <f>INDEX(F$56:G$57,C57,D57)</f>
+        <v>13</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>12</v>
+      </c>
+      <c r="G57">
+        <v>14</v>
       </c>
       <c r="J57" s="1">
         <v>2</v>
@@ -2172,14 +2273,14 @@
         <v>12</v>
       </c>
       <c r="B58">
-        <f>INDEX(C58:D58,1,1)</f>
+        <f>INDEX(F$56:G$57,C58,D58)</f>
         <v>12</v>
       </c>
       <c r="C58">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J58" s="1">
         <v>2</v>
@@ -2193,60 +2294,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
-      <c r="A60">
-        <v>11</v>
-      </c>
-      <c r="B60">
-        <f>INDEX(F$60:G$61,C60,D60)</f>
-        <v>11</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>11</v>
-      </c>
-      <c r="G60">
-        <v>13</v>
-      </c>
-      <c r="J60" s="1">
-        <v>5</v>
-      </c>
-      <c r="P60" t="b">
-        <f>OR(ISBLANK(B60),IF(ISERROR(B60),ERROR.TYPE(B60)=IF(ISBLANK(M60),ERROR.TYPE(A60),ERROR.TYPE(M60)),IF(ISBLANK(M60),AND(NOT(ISBLANK(A60)),A60=B60),B60=M60)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q60" t="b">
-        <f>IF(ISBLANK(O60),IF(ISERROR(P60),FALSE,P60),O60)</f>
+    <row r="59" spans="1:17">
+      <c r="A59">
+        <v>14</v>
+      </c>
+      <c r="B59">
+        <f>INDEX(F$56:G$57,C59,D59)</f>
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="J59" s="1">
+        <v>2</v>
+      </c>
+      <c r="P59" t="b">
+        <f>OR(ISBLANK(B59),IF(ISERROR(B59),ERROR.TYPE(B59)=IF(ISBLANK(M59),ERROR.TYPE(A59),ERROR.TYPE(M59)),IF(ISBLANK(M59),AND(NOT(ISBLANK(A59)),A59=B59),B59=M59)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q59" t="b">
+        <f>IF(ISBLANK(O59),IF(ISERROR(P59),FALSE,P59),O59)</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B61">
-        <f>INDEX(F$61:G$61,C61,D61)</f>
-        <v>14</v>
+        <f>INDEX(C61:D62,1,1)</f>
+        <v>11</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="F61">
-        <v>12</v>
-      </c>
-      <c r="G61">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J61" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P61" t="b">
         <f>OR(ISBLANK(B61),IF(ISERROR(B61),ERROR.TYPE(B61)=IF(ISBLANK(M61),ERROR.TYPE(A61),ERROR.TYPE(M61)),IF(ISBLANK(M61),AND(NOT(ISBLANK(A61)),A61=B61),B61=M61)))</f>
@@ -2257,44 +2346,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
-      <c r="A63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" t="e">
-        <f>INDEX(E63:G63,D63,C63)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>-1</v>
-      </c>
-      <c r="E63">
-        <v>10</v>
-      </c>
-      <c r="F63">
-        <v>11</v>
-      </c>
-      <c r="G63">
-        <v>12</v>
-      </c>
-      <c r="J63" s="1">
-        <v>2</v>
-      </c>
-      <c r="K63" t="s">
-        <v>31</v>
-      </c>
-      <c r="M63" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P63" t="b">
-        <f>OR(ISBLANK(B63),IF(ISERROR(B63),ERROR.TYPE(B63)=IF(ISBLANK(M63),ERROR.TYPE(A63),ERROR.TYPE(M63)),IF(ISBLANK(M63),AND(NOT(ISBLANK(A63)),A63=B63),B63=M63)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q63" t="b">
-        <f>IF(ISBLANK(O63),IF(ISERROR(P63),FALSE,P63),O63)</f>
+    <row r="62" spans="1:17">
+      <c r="A62">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <f>INDEX(C62:D62,1,1)</f>
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>14</v>
+      </c>
+      <c r="J62" s="1">
+        <v>2</v>
+      </c>
+      <c r="P62" t="b">
+        <f>OR(ISBLANK(B62),IF(ISERROR(B62),ERROR.TYPE(B62)=IF(ISBLANK(M62),ERROR.TYPE(A62),ERROR.TYPE(M62)),IF(ISBLANK(M62),AND(NOT(ISBLANK(A62)),A62=B62),B62=M62)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q62" t="b">
+        <f>IF(ISBLANK(O62),IF(ISERROR(P62),FALSE,P62),O62)</f>
         <v>1</v>
       </c>
     </row>
@@ -2303,23 +2377,23 @@
         <v>11</v>
       </c>
       <c r="B64">
-        <f>INDEX(E64:G64,0,C64)</f>
+        <f>INDEX(F$64:G$65,C64,D64)</f>
         <v>11</v>
       </c>
       <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
       </c>
       <c r="F64">
         <v>11</v>
       </c>
       <c r="G64">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P64" t="b">
         <f>OR(ISBLANK(B64),IF(ISERROR(B64),ERROR.TYPE(B64)=IF(ISBLANK(M64),ERROR.TYPE(A64),ERROR.TYPE(M64)),IF(ISBLANK(M64),AND(NOT(ISBLANK(A64)),A64=B64),B64=M64)))</f>
@@ -2332,29 +2406,26 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B65">
-        <f>INDEX(E65:G65,D65,C65)</f>
-        <v>11</v>
+        <f>INDEX(F$65:G$65,C65,D65)</f>
+        <v>14</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F65">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G65">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J65" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P65" t="b">
         <f>OR(ISBLANK(B65),IF(ISERROR(B65),ERROR.TYPE(B65)=IF(ISBLANK(M65),ERROR.TYPE(A65),ERROR.TYPE(M65)),IF(ISBLANK(M65),AND(NOT(ISBLANK(A65)),A65=B65),B65=M65)))</f>
@@ -2365,66 +2436,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
-      <c r="A66" t="s">
+    <row r="67" spans="1:17">
+      <c r="A67" t="s">
         <v>28</v>
       </c>
-      <c r="B66" t="e">
-        <f>INDEX(E66:G66,D66,C66)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66">
+      <c r="B67" t="e">
+        <f>INDEX(E67:G67,D67,C67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>-1</v>
+      </c>
+      <c r="E67">
         <v>10</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <v>11</v>
       </c>
-      <c r="G66">
-        <v>12</v>
-      </c>
-      <c r="J66" s="1">
-        <v>2</v>
-      </c>
-      <c r="M66" s="3" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P66" t="b">
-        <f>OR(ISBLANK(B66),IF(ISERROR(B66),ERROR.TYPE(B66)=IF(ISBLANK(M66),ERROR.TYPE(A66),ERROR.TYPE(M66)),IF(ISBLANK(M66),AND(NOT(ISBLANK(A66)),A66=B66),B66=M66)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q66" t="b">
-        <f>IF(ISBLANK(O66),IF(ISERROR(P66),FALSE,P66),O66)</f>
+      <c r="G67">
+        <v>12</v>
+      </c>
+      <c r="J67" s="1">
+        <v>2</v>
+      </c>
+      <c r="K67" t="s">
+        <v>31</v>
+      </c>
+      <c r="M67" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P67" t="b">
+        <f>OR(ISBLANK(B67),IF(ISERROR(B67),ERROR.TYPE(B67)=IF(ISBLANK(M67),ERROR.TYPE(A67),ERROR.TYPE(M67)),IF(ISBLANK(M67),AND(NOT(ISBLANK(A67)),A67=B67),B67=M67)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q67" t="b">
+        <f>IF(ISBLANK(O67),IF(ISERROR(P67),FALSE,P67),O67)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" t="s">
-        <v>28</v>
-      </c>
-      <c r="B68" t="e">
-        <f>INDEX(E$68:E$70,C68,D68)</f>
-        <v>#VALUE!</v>
+      <c r="A68">
+        <v>11</v>
+      </c>
+      <c r="B68">
+        <f>INDEX(E68:G68,0,C68)</f>
+        <v>11</v>
       </c>
       <c r="C68">
         <v>2</v>
-      </c>
-      <c r="D68">
-        <v>-1</v>
       </c>
       <c r="E68">
         <v>10</v>
       </c>
+      <c r="F68">
+        <v>11</v>
+      </c>
+      <c r="G68">
+        <v>12</v>
+      </c>
       <c r="J68" s="1">
-        <v>2</v>
-      </c>
-      <c r="M68" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="P68" t="b">
         <f>OR(ISBLANK(B68),IF(ISERROR(B68),ERROR.TYPE(B68)=IF(ISBLANK(M68),ERROR.TYPE(A68),ERROR.TYPE(M68)),IF(ISBLANK(M68),AND(NOT(ISBLANK(A68)),A68=B68),B68=M68)))</f>
@@ -2440,17 +2514,26 @@
         <v>11</v>
       </c>
       <c r="B69">
-        <f>INDEX(E$68:E$70,C69,0)</f>
+        <f>INDEX(E69:G69,D69,C69)</f>
         <v>11</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
       <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69">
         <v>11</v>
       </c>
+      <c r="G69">
+        <v>12</v>
+      </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P69" t="b">
         <f>OR(ISBLANK(B69),IF(ISERROR(B69),ERROR.TYPE(B69)=IF(ISBLANK(M69),ERROR.TYPE(A69),ERROR.TYPE(M69)),IF(ISBLANK(M69),AND(NOT(ISBLANK(A69)),A69=B69),B69=M69)))</f>
@@ -2462,24 +2545,33 @@
       </c>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="e">
+        <f>INDEX(E70:G70,D70,C70)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70">
         <v>11</v>
       </c>
-      <c r="B70">
-        <f>INDEX(E$68:E$70,C70,D70)</f>
-        <v>11</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
+      <c r="G70">
         <v>12</v>
       </c>
       <c r="J70" s="1">
         <v>2</v>
+      </c>
+      <c r="M70" s="3" t="e">
+        <v>#REF!</v>
       </c>
       <c r="P70" t="b">
         <f>OR(ISBLANK(B70),IF(ISERROR(B70),ERROR.TYPE(B70)=IF(ISBLANK(M70),ERROR.TYPE(A70),ERROR.TYPE(M70)),IF(ISBLANK(M70),AND(NOT(ISBLANK(A70)),A70=B70),B70=M70)))</f>
@@ -2490,51 +2582,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
-      <c r="A71" t="s">
+    <row r="72" spans="1:17">
+      <c r="A72" t="s">
         <v>28</v>
       </c>
-      <c r="B71" t="e">
-        <f>INDEX(E$68:E$70,C71,D71)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="J71" s="1">
-        <v>2</v>
-      </c>
-      <c r="M71" s="3" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P71" t="b">
-        <f>OR(ISBLANK(B71),IF(ISERROR(B71),ERROR.TYPE(B71)=IF(ISBLANK(M71),ERROR.TYPE(A71),ERROR.TYPE(M71)),IF(ISBLANK(M71),AND(NOT(ISBLANK(A71)),A71=B71),B71=M71)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q71" t="b">
-        <f>IF(ISBLANK(O71),IF(ISERROR(P71),FALSE,P71),O71)</f>
+      <c r="B72" t="e">
+        <f>INDEX(E$72:E$74,C72,D72)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>-1</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="J72" s="1">
+        <v>2</v>
+      </c>
+      <c r="M72" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P72" t="b">
+        <f>OR(ISBLANK(B72),IF(ISERROR(B72),ERROR.TYPE(B72)=IF(ISBLANK(M72),ERROR.TYPE(A72),ERROR.TYPE(M72)),IF(ISBLANK(M72),AND(NOT(ISBLANK(A72)),A72=B72),B72=M72)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q72" t="b">
+        <f>IF(ISBLANK(O72),IF(ISERROR(P72),FALSE,P72),O72)</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" t="s">
-        <v>28</v>
-      </c>
-      <c r="B73" t="e">
-        <f>INDEX(E$75:F$76,C73,1)</f>
-        <v>#VALUE!</v>
+      <c r="A73">
+        <v>11</v>
+      </c>
+      <c r="B73">
+        <f>INDEX(E$72:E$74,C73,0)</f>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>11</v>
       </c>
       <c r="J73" s="1">
         <v>1</v>
-      </c>
-      <c r="M73" s="3" t="e">
-        <v>#VALUE!</v>
       </c>
       <c r="P73" t="b">
         <f>OR(ISBLANK(B73),IF(ISERROR(B73),ERROR.TYPE(B73)=IF(ISBLANK(M73),ERROR.TYPE(A73),ERROR.TYPE(M73)),IF(ISBLANK(M73),AND(NOT(ISBLANK(A73)),A73=B73),B73=M73)))</f>
@@ -2546,21 +2641,24 @@
       </c>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" t="s">
-        <v>28</v>
-      </c>
-      <c r="B74" t="e">
-        <f>INDEX(E$75:F$76,C74,1)</f>
-        <v>#VALUE!</v>
+      <c r="A74">
+        <v>11</v>
+      </c>
+      <c r="B74">
+        <f>INDEX(E$72:E$74,C74,D74)</f>
+        <v>11</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>12</v>
       </c>
       <c r="J74" s="1">
-        <v>1</v>
-      </c>
-      <c r="M74" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
       <c r="P74" t="b">
         <f>OR(ISBLANK(B74),IF(ISERROR(B74),ERROR.TYPE(B74)=IF(ISBLANK(M74),ERROR.TYPE(A74),ERROR.TYPE(M74)),IF(ISBLANK(M74),AND(NOT(ISBLANK(A74)),A74=B74),B74=M74)))</f>
@@ -2572,24 +2670,24 @@
       </c>
     </row>
     <row r="75" spans="1:17">
-      <c r="A75">
-        <v>11</v>
-      </c>
-      <c r="B75">
-        <f>INDEX(E$75:F$76,C75,1)</f>
-        <v>11</v>
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" t="e">
+        <f>INDEX(E$72:E$74,C75,D75)</f>
+        <v>#REF!</v>
       </c>
       <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>11</v>
-      </c>
-      <c r="F75">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M75" s="3" t="e">
+        <v>#REF!</v>
       </c>
       <c r="P75" t="b">
         <f>OR(ISBLANK(B75),IF(ISERROR(B75),ERROR.TYPE(B75)=IF(ISBLANK(M75),ERROR.TYPE(A75),ERROR.TYPE(M75)),IF(ISBLANK(M75),AND(NOT(ISBLANK(A75)),A75=B75),B75=M75)))</f>
@@ -2597,35 +2695,6 @@
       </c>
       <c r="Q75" t="b">
         <f>IF(ISBLANK(O75),IF(ISERROR(P75),FALSE,P75),O75)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="A76">
-        <v>12</v>
-      </c>
-      <c r="B76">
-        <f>INDEX(E$75:F$76,C76,1)</f>
-        <v>12</v>
-      </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-      <c r="E76">
-        <v>12</v>
-      </c>
-      <c r="F76">
-        <v>14</v>
-      </c>
-      <c r="J76" s="1">
-        <v>1</v>
-      </c>
-      <c r="P76" t="b">
-        <f>OR(ISBLANK(B76),IF(ISERROR(B76),ERROR.TYPE(B76)=IF(ISBLANK(M76),ERROR.TYPE(A76),ERROR.TYPE(M76)),IF(ISBLANK(M76),AND(NOT(ISBLANK(A76)),A76=B76),B76=M76)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q76" t="b">
-        <f>IF(ISBLANK(O76),IF(ISERROR(P76),FALSE,P76),O76)</f>
         <v>1</v>
       </c>
     </row>
@@ -2634,17 +2703,17 @@
         <v>28</v>
       </c>
       <c r="B77" t="e">
-        <f>INDEX(E$75:F$76,C77,1)</f>
-        <v>#REF!</v>
+        <f>INDEX(E$79:F$80,C77,1)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
       </c>
       <c r="M77" s="3" t="e">
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P77" t="b">
         <f>OR(ISBLANK(B77),IF(ISERROR(B77),ERROR.TYPE(B77)=IF(ISBLANK(M77),ERROR.TYPE(A77),ERROR.TYPE(M77)),IF(ISBLANK(M77),AND(NOT(ISBLANK(A77)),A77=B77),B77=M77)))</f>
@@ -2655,28 +2724,51 @@
         <v>1</v>
       </c>
     </row>
+    <row r="78" spans="1:17">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" t="e">
+        <f>INDEX(E$79:F$80,C78,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1</v>
+      </c>
+      <c r="M78" s="3" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P78" t="b">
+        <f>OR(ISBLANK(B78),IF(ISERROR(B78),ERROR.TYPE(B78)=IF(ISBLANK(M78),ERROR.TYPE(A78),ERROR.TYPE(M78)),IF(ISBLANK(M78),AND(NOT(ISBLANK(A78)),A78=B78),B78=M78)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q78" t="b">
+        <f>IF(ISBLANK(O78),IF(ISERROR(P78),FALSE,P78),O78)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="79" spans="1:17">
-      <c r="A79" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" t="str">
-        <f>INDEX(D79:E79,C79)</f>
-        <v>one</v>
+      <c r="A79">
+        <v>11</v>
+      </c>
+      <c r="B79">
+        <f>INDEX(E$79:F$80,C79,1)</f>
+        <v>11</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
-      <c r="D79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="E79">
+        <v>11</v>
+      </c>
+      <c r="F79">
         <v>13</v>
       </c>
       <c r="J79" s="1">
-        <v>3</v>
-      </c>
-      <c r="K79" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="P79" t="b">
         <f>OR(ISBLANK(B79),IF(ISERROR(B79),ERROR.TYPE(B79)=IF(ISBLANK(M79),ERROR.TYPE(A79),ERROR.TYPE(M79)),IF(ISBLANK(M79),AND(NOT(ISBLANK(A79)),A79=B79),B79=M79)))</f>
@@ -2688,24 +2780,24 @@
       </c>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" t="str">
-        <f>INDEX(D80:E80,C80)</f>
-        <v>two</v>
+      <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80">
+        <f>INDEX(E$79:F$80,C80,1)</f>
+        <v>12</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
-      <c r="D80" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
+      <c r="E80">
+        <v>12</v>
+      </c>
+      <c r="F80">
+        <v>14</v>
       </c>
       <c r="J80" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P80" t="b">
         <f>OR(ISBLANK(B80),IF(ISERROR(B80),ERROR.TYPE(B80)=IF(ISBLANK(M80),ERROR.TYPE(A80),ERROR.TYPE(M80)),IF(ISBLANK(M80),AND(NOT(ISBLANK(A80)),A80=B80),B80=M80)))</f>
@@ -2716,87 +2808,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
-      <c r="A82">
-        <v>2</v>
-      </c>
-      <c r="B82">
-        <f>INDEX(F82:G82,H82)</f>
-        <v>2</v>
-      </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-      <c r="F82">
-        <f>INDEX(C82:D82,E82)</f>
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <f>INDEX(E82:E82,D82)</f>
-        <v>2</v>
-      </c>
-      <c r="H82">
-        <f>INDEX(D82:E82,C82)</f>
-        <v>2</v>
-      </c>
-      <c r="J82" s="1">
+    <row r="81" spans="1:17">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" t="e">
+        <f>INDEX(E$79:F$80,C81,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C81">
         <v>3</v>
       </c>
-      <c r="K82" t="s">
-        <v>49</v>
-      </c>
-      <c r="P82" t="b">
-        <f>OR(ISBLANK(B82),IF(ISERROR(B82),ERROR.TYPE(B82)=IF(ISBLANK(M82),ERROR.TYPE(A82),ERROR.TYPE(M82)),IF(ISBLANK(M82),AND(NOT(ISBLANK(A82)),A82=B82),B82=M82)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q82" t="b">
-        <f>IF(ISBLANK(O82),IF(ISERROR(P82),FALSE,P82),O82)</f>
+      <c r="J81" s="1">
+        <v>1</v>
+      </c>
+      <c r="M81" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P81" t="b">
+        <f>OR(ISBLANK(B81),IF(ISERROR(B81),ERROR.TYPE(B81)=IF(ISBLANK(M81),ERROR.TYPE(A81),ERROR.TYPE(M81)),IF(ISBLANK(M81),AND(NOT(ISBLANK(A81)),A81=B81),B81=M81)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q81" t="b">
+        <f>IF(ISBLANK(O81),IF(ISERROR(P81),FALSE,P81),O81)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" t="str">
+        <f>INDEX(D83:E83,C83)</f>
+        <v>one</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="1">
+        <v>3</v>
+      </c>
+      <c r="K83" t="s">
+        <v>23</v>
+      </c>
+      <c r="P83" t="b">
+        <f>OR(ISBLANK(B83),IF(ISERROR(B83),ERROR.TYPE(B83)=IF(ISBLANK(M83),ERROR.TYPE(A83),ERROR.TYPE(M83)),IF(ISBLANK(M83),AND(NOT(ISBLANK(A83)),A83=B83),B83=M83)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q83" t="b">
+        <f>IF(ISBLANK(O83),IF(ISERROR(P83),FALSE,P83),O83)</f>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:17">
-      <c r="A84">
-        <v>12</v>
-      </c>
-      <c r="B84">
-        <f>LOOKUP(C84,D84:F84,G84:I84)</f>
-        <v>12</v>
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" t="str">
+        <f>INDEX(D84:E84,C84)</f>
+        <v>two</v>
       </c>
       <c r="C84">
-        <v>20</v>
-      </c>
-      <c r="D84">
-        <v>10</v>
-      </c>
-      <c r="E84">
-        <v>20</v>
-      </c>
-      <c r="F84">
-        <v>30</v>
-      </c>
-      <c r="G84">
-        <v>11</v>
-      </c>
-      <c r="H84">
-        <v>12</v>
-      </c>
-      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" t="s">
         <v>13</v>
       </c>
       <c r="J84" s="1">
-        <v>7</v>
-      </c>
-      <c r="K84" t="s">
-        <v>19</v>
-      </c>
-      <c r="L84" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P84" t="b">
         <f>OR(ISBLANK(B84),IF(ISERROR(B84),ERROR.TYPE(B84)=IF(ISBLANK(M84),ERROR.TYPE(A84),ERROR.TYPE(M84)),IF(ISBLANK(M84),AND(NOT(ISBLANK(A84)),A84=B84),B84=M84)))</f>
@@ -2807,78 +2895,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
-      <c r="A85">
-        <v>11</v>
-      </c>
-      <c r="B85">
-        <f>LOOKUP(C85,D85:F85,G85:I85)</f>
-        <v>11</v>
-      </c>
-      <c r="C85">
-        <v>19</v>
-      </c>
-      <c r="D85">
-        <v>10</v>
-      </c>
-      <c r="E85">
-        <v>20</v>
-      </c>
-      <c r="F85">
-        <v>30</v>
-      </c>
-      <c r="G85">
-        <v>11</v>
-      </c>
-      <c r="H85">
-        <v>12</v>
-      </c>
-      <c r="I85">
-        <v>13</v>
-      </c>
-      <c r="J85" s="1">
-        <v>7</v>
-      </c>
-      <c r="P85" t="b">
-        <f>OR(ISBLANK(B85),IF(ISERROR(B85),ERROR.TYPE(B85)=IF(ISBLANK(M85),ERROR.TYPE(A85),ERROR.TYPE(M85)),IF(ISBLANK(M85),AND(NOT(ISBLANK(A85)),A85=B85),B85=M85)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q85" t="b">
-        <f>IF(ISBLANK(O85),IF(ISERROR(P85),FALSE,P85),O85)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="86" spans="1:17">
       <c r="A86">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B86">
-        <f>LOOKUP(C86,D86:F86,G86:I86)</f>
-        <v>12</v>
+        <f>INDEX(F86:G86,H86)</f>
+        <v>2</v>
       </c>
       <c r="C86">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F86">
-        <v>30</v>
+        <f>INDEX(C86:D86,E86)</f>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>11</v>
+        <f>INDEX(E86:E86,D86)</f>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>12</v>
-      </c>
-      <c r="I86">
-        <v>13</v>
+        <f>INDEX(D86:E86,C86)</f>
+        <v>2</v>
       </c>
       <c r="J86" s="1">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="K86" t="s">
+        <v>49</v>
       </c>
       <c r="P86" t="b">
         <f>OR(ISBLANK(B86),IF(ISERROR(B86),ERROR.TYPE(B86)=IF(ISBLANK(M86),ERROR.TYPE(A86),ERROR.TYPE(M86)),IF(ISBLANK(M86),AND(NOT(ISBLANK(A86)),A86=B86),B86=M86)))</f>
@@ -2889,47 +2939,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
-      <c r="A87" t="s">
-        <v>27</v>
-      </c>
-      <c r="B87" t="e">
-        <f>LOOKUP(C87,D87:F87,G87:I87)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C87">
-        <v>9</v>
-      </c>
-      <c r="D87">
+    <row r="88" spans="1:17">
+      <c r="A88">
+        <v>12</v>
+      </c>
+      <c r="B88">
+        <f>LOOKUP(C88,D88:F88,G88:I88)</f>
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+      <c r="D88">
         <v>10</v>
       </c>
-      <c r="E87">
+      <c r="E88">
         <v>20</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <v>30</v>
       </c>
-      <c r="G87">
+      <c r="G88">
         <v>11</v>
       </c>
-      <c r="H87">
-        <v>12</v>
-      </c>
-      <c r="I87">
+      <c r="H88">
+        <v>12</v>
+      </c>
+      <c r="I88">
         <v>13</v>
       </c>
-      <c r="J87" s="1">
+      <c r="J88" s="1">
         <v>7</v>
       </c>
-      <c r="M87" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P87" t="b">
-        <f>OR(ISBLANK(B87),IF(ISERROR(B87),ERROR.TYPE(B87)=IF(ISBLANK(M87),ERROR.TYPE(A87),ERROR.TYPE(M87)),IF(ISBLANK(M87),AND(NOT(ISBLANK(A87)),A87=B87),B87=M87)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q87" t="b">
-        <f>IF(ISBLANK(O87),IF(ISERROR(P87),FALSE,P87),O87)</f>
+      <c r="K88" t="s">
+        <v>19</v>
+      </c>
+      <c r="L88" t="s">
+        <v>15</v>
+      </c>
+      <c r="P88" t="b">
+        <f>OR(ISBLANK(B88),IF(ISERROR(B88),ERROR.TYPE(B88)=IF(ISBLANK(M88),ERROR.TYPE(A88),ERROR.TYPE(M88)),IF(ISBLANK(M88),AND(NOT(ISBLANK(A88)),A88=B88),B88=M88)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q88" t="b">
+        <f>IF(ISBLANK(O88),IF(ISERROR(P88),FALSE,P88),O88)</f>
         <v>1</v>
       </c>
     </row>
@@ -2938,7 +2991,7 @@
         <v>11</v>
       </c>
       <c r="B89">
-        <f>LOOKUP(C89,D$89:D$91,E$89:E$91)</f>
+        <f>LOOKUP(C89,D89:F89,G89:I89)</f>
         <v>11</v>
       </c>
       <c r="C89">
@@ -2948,13 +3001,22 @@
         <v>10</v>
       </c>
       <c r="E89">
+        <v>20</v>
+      </c>
+      <c r="F89">
+        <v>30</v>
+      </c>
+      <c r="G89">
         <v>11</v>
       </c>
+      <c r="H89">
+        <v>12</v>
+      </c>
+      <c r="I89">
+        <v>13</v>
+      </c>
       <c r="J89" s="1">
-        <v>3</v>
-      </c>
-      <c r="K89" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="P89" t="b">
         <f>OR(ISBLANK(B89),IF(ISERROR(B89),ERROR.TYPE(B89)=IF(ISBLANK(M89),ERROR.TYPE(A89),ERROR.TYPE(M89)),IF(ISBLANK(M89),AND(NOT(ISBLANK(A89)),A89=B89),B89=M89)))</f>
@@ -2970,20 +3032,32 @@
         <v>12</v>
       </c>
       <c r="B90">
-        <f>LOOKUP(C90,D$89:D$91,E$89:E$91)</f>
+        <f>LOOKUP(C90,D90:F90,G90:I90)</f>
         <v>12</v>
       </c>
       <c r="C90">
+        <v>21</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90">
         <v>20</v>
       </c>
-      <c r="D90">
-        <v>20</v>
-      </c>
-      <c r="E90">
-        <v>12</v>
+      <c r="F90">
+        <v>30</v>
+      </c>
+      <c r="G90">
+        <v>11</v>
+      </c>
+      <c r="H90">
+        <v>12</v>
+      </c>
+      <c r="I90">
+        <v>13</v>
       </c>
       <c r="J90" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P90" t="b">
         <f>OR(ISBLANK(B90),IF(ISERROR(B90),ERROR.TYPE(B90)=IF(ISBLANK(M90),ERROR.TYPE(A90),ERROR.TYPE(M90)),IF(ISBLANK(M90),AND(NOT(ISBLANK(A90)),A90=B90),B90=M90)))</f>
@@ -2995,24 +3069,39 @@
       </c>
     </row>
     <row r="91" spans="1:17">
-      <c r="A91">
-        <v>12</v>
-      </c>
-      <c r="B91">
-        <f>LOOKUP(C91,D$89:D$91,E$89:E$91)</f>
-        <v>12</v>
+      <c r="A91" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" t="e">
+        <f>LOOKUP(C91,D91:F91,G91:I91)</f>
+        <v>#N/A</v>
       </c>
       <c r="C91">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <v>20</v>
+      </c>
+      <c r="F91">
         <v>30</v>
       </c>
-      <c r="E91">
+      <c r="G91">
+        <v>11</v>
+      </c>
+      <c r="H91">
+        <v>12</v>
+      </c>
+      <c r="I91">
         <v>13</v>
       </c>
       <c r="J91" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="M91" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="P91" t="b">
         <f>OR(ISBLANK(B91),IF(ISERROR(B91),ERROR.TYPE(B91)=IF(ISBLANK(M91),ERROR.TYPE(A91),ERROR.TYPE(M91)),IF(ISBLANK(M91),AND(NOT(ISBLANK(A91)),A91=B91),B91=M91)))</f>
@@ -3023,60 +3112,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
-      <c r="A92" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" t="e">
-        <f>LOOKUP(C92,D$89:D$91,E$89:E$91)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C92">
-        <v>9</v>
-      </c>
-      <c r="J92" s="1">
-        <v>1</v>
-      </c>
-      <c r="M92" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P92" t="b">
-        <f>OR(ISBLANK(B92),IF(ISERROR(B92),ERROR.TYPE(B92)=IF(ISBLANK(M92),ERROR.TYPE(A92),ERROR.TYPE(M92)),IF(ISBLANK(M92),AND(NOT(ISBLANK(A92)),A92=B92),B92=M92)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q92" t="b">
-        <f>IF(ISBLANK(O92),IF(ISERROR(P92),FALSE,P92),O92)</f>
+    <row r="93" spans="1:17">
+      <c r="A93">
+        <v>11</v>
+      </c>
+      <c r="B93">
+        <f>LOOKUP(C93,D$93:D$95,E$93:E$95)</f>
+        <v>11</v>
+      </c>
+      <c r="C93">
+        <v>19</v>
+      </c>
+      <c r="D93">
+        <v>10</v>
+      </c>
+      <c r="E93">
+        <v>11</v>
+      </c>
+      <c r="J93" s="1">
+        <v>3</v>
+      </c>
+      <c r="K93" t="s">
+        <v>20</v>
+      </c>
+      <c r="P93" t="b">
+        <f>OR(ISBLANK(B93),IF(ISERROR(B93),ERROR.TYPE(B93)=IF(ISBLANK(M93),ERROR.TYPE(A93),ERROR.TYPE(M93)),IF(ISBLANK(M93),AND(NOT(ISBLANK(A93)),A93=B93),B93=M93)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q93" t="b">
+        <f>IF(ISBLANK(O93),IF(ISERROR(P93),FALSE,P93),O93)</f>
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B94">
-        <f>LOOKUP(C94,D$94:G$96)</f>
-        <v>22</v>
+        <f>LOOKUP(C94,D$93:D$95,E$93:E$95)</f>
+        <v>12</v>
       </c>
       <c r="C94">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E94">
-        <v>20</v>
-      </c>
-      <c r="F94">
-        <v>30</v>
-      </c>
-      <c r="G94">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="J94" s="1">
-        <v>5</v>
-      </c>
-      <c r="K94" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P94" t="b">
         <f>OR(ISBLANK(B94),IF(ISERROR(B94),ERROR.TYPE(B94)=IF(ISBLANK(M94),ERROR.TYPE(A94),ERROR.TYPE(M94)),IF(ISBLANK(M94),AND(NOT(ISBLANK(A94)),A94=B94),B94=M94)))</f>
@@ -3089,26 +3175,20 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B95">
-        <f>LOOKUP(C95,D$94:G$96)</f>
-        <v>23</v>
+        <f>LOOKUP(C95,D$93:D$95,E$93:E$95)</f>
+        <v>12</v>
       </c>
       <c r="C95">
+        <v>21</v>
+      </c>
+      <c r="D95">
         <v>30</v>
       </c>
-      <c r="D95">
-        <v>11</v>
-      </c>
       <c r="E95">
-        <v>12</v>
-      </c>
-      <c r="F95">
         <v>13</v>
-      </c>
-      <c r="G95">
-        <v>14</v>
       </c>
       <c r="J95" s="1">
         <v>1</v>
@@ -3123,30 +3203,21 @@
       </c>
     </row>
     <row r="96" spans="1:17">
-      <c r="A96">
-        <v>23</v>
-      </c>
-      <c r="B96">
-        <f>LOOKUP(C96,D$94:G$96)</f>
-        <v>23</v>
+      <c r="A96" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" t="e">
+        <f>LOOKUP(C96,D$93:D$95,E$93:E$95)</f>
+        <v>#N/A</v>
       </c>
       <c r="C96">
-        <v>31</v>
-      </c>
-      <c r="D96">
-        <v>21</v>
-      </c>
-      <c r="E96">
-        <v>22</v>
-      </c>
-      <c r="F96">
-        <v>23</v>
-      </c>
-      <c r="G96">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J96" s="1">
         <v>1</v>
+      </c>
+      <c r="M96" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="P96" t="b">
         <f>OR(ISBLANK(B96),IF(ISERROR(B96),ERROR.TYPE(B96)=IF(ISBLANK(M96),ERROR.TYPE(A96),ERROR.TYPE(M96)),IF(ISBLANK(M96),AND(NOT(ISBLANK(A96)),A96=B96),B96=M96)))</f>
@@ -3159,29 +3230,32 @@
     </row>
     <row r="98" spans="1:17">
       <c r="A98">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B98">
-        <f>LOOKUP(C98,D$98:F$100)</f>
-        <v>21</v>
+        <f>LOOKUP(C98,D$98:G$100)</f>
+        <v>22</v>
       </c>
       <c r="C98">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D98">
         <v>10</v>
       </c>
       <c r="E98">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F98">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="G98">
+        <v>40</v>
       </c>
       <c r="J98" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K98" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P98" t="b">
         <f>OR(ISBLANK(B98),IF(ISERROR(B98),ERROR.TYPE(B98)=IF(ISBLANK(M98),ERROR.TYPE(A98),ERROR.TYPE(M98)),IF(ISBLANK(M98),AND(NOT(ISBLANK(A98)),A98=B98),B98=M98)))</f>
@@ -3194,23 +3268,26 @@
     </row>
     <row r="99" spans="1:17">
       <c r="A99">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B99">
-        <f>LOOKUP(C99,D$98:F$100)</f>
-        <v>22</v>
+        <f>LOOKUP(C99,D$98:G$100)</f>
+        <v>23</v>
       </c>
       <c r="C99">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D99">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E99">
         <v>12</v>
       </c>
       <c r="F99">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="G99">
+        <v>14</v>
       </c>
       <c r="J99" s="1">
         <v>1</v>
@@ -3226,23 +3303,26 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100">
+        <v>23</v>
+      </c>
+      <c r="B100">
+        <f>LOOKUP(C100,D$98:G$100)</f>
+        <v>23</v>
+      </c>
+      <c r="C100">
+        <v>31</v>
+      </c>
+      <c r="D100">
+        <v>21</v>
+      </c>
+      <c r="E100">
         <v>22</v>
-      </c>
-      <c r="B100">
-        <f>LOOKUP(C100,D$98:F$100)</f>
-        <v>22</v>
-      </c>
-      <c r="C100">
-        <v>21</v>
-      </c>
-      <c r="D100">
-        <v>30</v>
-      </c>
-      <c r="E100">
-        <v>13</v>
       </c>
       <c r="F100">
         <v>23</v>
+      </c>
+      <c r="G100">
+        <v>24</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -3261,7 +3341,7 @@
         <v>21</v>
       </c>
       <c r="B102">
-        <f>LOOKUP(C102,D$102:F$105)</f>
+        <f>LOOKUP(C102,D$102:F$104)</f>
         <v>21</v>
       </c>
       <c r="C102">
@@ -3280,7 +3360,7 @@
         <v>4</v>
       </c>
       <c r="K102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P102" t="b">
         <f>OR(ISBLANK(B102),IF(ISERROR(B102),ERROR.TYPE(B102)=IF(ISBLANK(M102),ERROR.TYPE(A102),ERROR.TYPE(M102)),IF(ISBLANK(M102),AND(NOT(ISBLANK(A102)),A102=B102),B102=M102)))</f>
@@ -3296,7 +3376,7 @@
         <v>22</v>
       </c>
       <c r="B103">
-        <f>LOOKUP(C103,D$102:F$105)</f>
+        <f>LOOKUP(C103,D$102:F$104)</f>
         <v>22</v>
       </c>
       <c r="C103">
@@ -3328,7 +3408,7 @@
         <v>22</v>
       </c>
       <c r="B104">
-        <f>LOOKUP(C104,D$102:F$105)</f>
+        <f>LOOKUP(C104,D$102:F$104)</f>
         <v>22</v>
       </c>
       <c r="C104">
@@ -3355,35 +3435,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
-      <c r="A105">
-        <v>23</v>
-      </c>
-      <c r="B105">
-        <f>LOOKUP(C105,D$102:F$105)</f>
-        <v>23</v>
-      </c>
-      <c r="C105">
-        <v>30</v>
-      </c>
-      <c r="D105">
-        <v>40</v>
-      </c>
-      <c r="E105">
-        <v>14</v>
-      </c>
-      <c r="F105">
-        <v>24</v>
-      </c>
-      <c r="J105" s="1">
-        <v>1</v>
-      </c>
-      <c r="P105" t="b">
-        <f>OR(ISBLANK(B105),IF(ISERROR(B105),ERROR.TYPE(B105)=IF(ISBLANK(M105),ERROR.TYPE(A105),ERROR.TYPE(M105)),IF(ISBLANK(M105),AND(NOT(ISBLANK(A105)),A105=B105),B105=M105)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q105" t="b">
-        <f>IF(ISBLANK(O105),IF(ISERROR(P105),FALSE,P105),O105)</f>
+    <row r="106" spans="1:17">
+      <c r="A106">
+        <v>21</v>
+      </c>
+      <c r="B106">
+        <f>LOOKUP(C106,D$106:F$109)</f>
+        <v>21</v>
+      </c>
+      <c r="C106">
+        <v>19</v>
+      </c>
+      <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106">
+        <v>11</v>
+      </c>
+      <c r="F106">
+        <v>21</v>
+      </c>
+      <c r="J106" s="1">
+        <v>4</v>
+      </c>
+      <c r="K106" t="s">
+        <v>17</v>
+      </c>
+      <c r="P106" t="b">
+        <f>OR(ISBLANK(B106),IF(ISERROR(B106),ERROR.TYPE(B106)=IF(ISBLANK(M106),ERROR.TYPE(A106),ERROR.TYPE(M106)),IF(ISBLANK(M106),AND(NOT(ISBLANK(A106)),A106=B106),B106=M106)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q106" t="b">
+        <f>IF(ISBLANK(O106),IF(ISERROR(P106),FALSE,P106),O106)</f>
         <v>1</v>
       </c>
     </row>
@@ -3392,74 +3475,62 @@
         <v>22</v>
       </c>
       <c r="B107">
-        <f>HLOOKUP(C107,D$107:G$109,3)</f>
+        <f>LOOKUP(C107,D$106:F$109)</f>
         <v>22</v>
       </c>
       <c r="C107">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D107">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E107">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F107">
-        <v>30</v>
-      </c>
-      <c r="G107">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J107" s="1">
-        <v>5</v>
-      </c>
-      <c r="K107" t="s">
-        <v>24</v>
-      </c>
-      <c r="L107" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="P107" t="b">
-        <f t="shared" ref="P107:P114" si="9">OR(ISBLANK(B107),IF(ISERROR(B107),ERROR.TYPE(B107)=IF(ISBLANK(M107),ERROR.TYPE(A107),ERROR.TYPE(M107)),IF(ISBLANK(M107),AND(NOT(ISBLANK(A107)),A107=B107),B107=M107)))</f>
+        <f>OR(ISBLANK(B107),IF(ISERROR(B107),ERROR.TYPE(B107)=IF(ISBLANK(M107),ERROR.TYPE(A107),ERROR.TYPE(M107)),IF(ISBLANK(M107),AND(NOT(ISBLANK(A107)),A107=B107),B107=M107)))</f>
         <v>1</v>
       </c>
       <c r="Q107" t="b">
-        <f t="shared" ref="Q107:Q114" si="10">IF(ISBLANK(O107),IF(ISERROR(P107),FALSE,P107),O107)</f>
+        <f>IF(ISBLANK(O107),IF(ISERROR(P107),FALSE,P107),O107)</f>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:17">
       <c r="A108">
+        <v>22</v>
+      </c>
+      <c r="B108">
+        <f>LOOKUP(C108,D$106:F$109)</f>
+        <v>22</v>
+      </c>
+      <c r="C108">
+        <v>21</v>
+      </c>
+      <c r="D108">
+        <v>30</v>
+      </c>
+      <c r="E108">
+        <v>13</v>
+      </c>
+      <c r="F108">
         <v>23</v>
       </c>
-      <c r="B108">
-        <f>HLOOKUP(C108,D$107:G$109,3)</f>
-        <v>23</v>
-      </c>
-      <c r="C108">
-        <v>30</v>
-      </c>
-      <c r="D108">
-        <v>11</v>
-      </c>
-      <c r="E108">
-        <v>12</v>
-      </c>
-      <c r="F108">
-        <v>13</v>
-      </c>
-      <c r="G108">
-        <v>14</v>
-      </c>
       <c r="J108" s="1">
         <v>1</v>
       </c>
       <c r="P108" t="b">
-        <f t="shared" si="9"/>
+        <f>OR(ISBLANK(B108),IF(ISERROR(B108),ERROR.TYPE(B108)=IF(ISBLANK(M108),ERROR.TYPE(A108),ERROR.TYPE(M108)),IF(ISBLANK(M108),AND(NOT(ISBLANK(A108)),A108=B108),B108=M108)))</f>
         <v>1</v>
       </c>
       <c r="Q108" t="b">
-        <f t="shared" si="10"/>
+        <f>IF(ISBLANK(O108),IF(ISERROR(P108),FALSE,P108),O108)</f>
         <v>1</v>
       </c>
     </row>
@@ -3468,85 +3539,71 @@
         <v>23</v>
       </c>
       <c r="B109">
-        <f>HLOOKUP(C109,D$107:G$109,3)</f>
+        <f>LOOKUP(C109,D$106:F$109)</f>
         <v>23</v>
       </c>
       <c r="C109">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D109">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E109">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F109">
-        <v>23</v>
-      </c>
-      <c r="G109">
         <v>24</v>
       </c>
       <c r="J109" s="1">
         <v>1</v>
       </c>
       <c r="P109" t="b">
-        <f t="shared" si="9"/>
+        <f>OR(ISBLANK(B109),IF(ISERROR(B109),ERROR.TYPE(B109)=IF(ISBLANK(M109),ERROR.TYPE(A109),ERROR.TYPE(M109)),IF(ISBLANK(M109),AND(NOT(ISBLANK(A109)),A109=B109),B109=M109)))</f>
         <v>1</v>
       </c>
       <c r="Q109" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17">
-      <c r="A110">
-        <v>20</v>
-      </c>
-      <c r="B110">
-        <f>HLOOKUP(C110,D$107:G$109,D110)</f>
-        <v>20</v>
-      </c>
-      <c r="C110">
-        <v>29</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="J110" s="1">
-        <v>2</v>
-      </c>
-      <c r="P110" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q110" t="b">
-        <f t="shared" si="10"/>
+        <f>IF(ISBLANK(O109),IF(ISERROR(P109),FALSE,P109),O109)</f>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:17">
       <c r="A111">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B111">
-        <f>HLOOKUP(C111,D$107:G$109,D111)</f>
-        <v>13</v>
+        <f>HLOOKUP(C111,D$111:G$113,3)</f>
+        <v>22</v>
       </c>
       <c r="C111">
+        <v>29</v>
+      </c>
+      <c r="D111">
+        <v>10</v>
+      </c>
+      <c r="E111">
+        <v>20</v>
+      </c>
+      <c r="F111">
         <v>30</v>
       </c>
-      <c r="D111">
-        <v>2</v>
+      <c r="G111">
+        <v>40</v>
       </c>
       <c r="J111" s="1">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="K111" t="s">
+        <v>24</v>
+      </c>
+      <c r="L111" t="s">
+        <v>24</v>
       </c>
       <c r="P111" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P111:P118" si="9">OR(ISBLANK(B111),IF(ISERROR(B111),ERROR.TYPE(B111)=IF(ISBLANK(M111),ERROR.TYPE(A111),ERROR.TYPE(M111)),IF(ISBLANK(M111),AND(NOT(ISBLANK(A111)),A111=B111),B111=M111)))</f>
         <v>1</v>
       </c>
       <c r="Q111" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="Q111:Q118" si="10">IF(ISBLANK(O111),IF(ISERROR(P111),FALSE,P111),O111)</f>
         <v>1</v>
       </c>
     </row>
@@ -3555,17 +3612,26 @@
         <v>23</v>
       </c>
       <c r="B112">
-        <f>HLOOKUP(C112,D$107:G$109,D112)</f>
+        <f>HLOOKUP(C112,D$111:G$113,3)</f>
         <v>23</v>
       </c>
       <c r="C112">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E112">
+        <v>12</v>
+      </c>
+      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="G112">
+        <v>14</v>
       </c>
       <c r="J112" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P112" t="b">
         <f t="shared" si="9"/>
@@ -3577,24 +3643,30 @@
       </c>
     </row>
     <row r="113" spans="1:17">
-      <c r="A113" t="s">
-        <v>28</v>
-      </c>
-      <c r="B113" t="e">
-        <f>HLOOKUP(C113,D$107:G$109,D113)</f>
-        <v>#VALUE!</v>
+      <c r="A113">
+        <v>23</v>
+      </c>
+      <c r="B113">
+        <f>HLOOKUP(C113,D$111:G$113,3)</f>
+        <v>23</v>
       </c>
       <c r="C113">
         <v>31</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E113">
+        <v>22</v>
+      </c>
+      <c r="F113">
+        <v>23</v>
+      </c>
+      <c r="G113">
+        <v>24</v>
       </c>
       <c r="J113" s="1">
-        <v>2</v>
-      </c>
-      <c r="M113" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="P113" t="b">
         <f t="shared" si="9"/>
@@ -3606,24 +3678,21 @@
       </c>
     </row>
     <row r="114" spans="1:17">
-      <c r="A114" t="s">
-        <v>28</v>
-      </c>
-      <c r="B114" t="e">
-        <f>HLOOKUP(C114,D$107:G$109,D114)</f>
-        <v>#REF!</v>
+      <c r="A114">
+        <v>20</v>
+      </c>
+      <c r="B114">
+        <f>HLOOKUP(C114,D$111:G$113,D114)</f>
+        <v>20</v>
       </c>
       <c r="C114">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J114" s="1">
         <v>2</v>
-      </c>
-      <c r="M114" s="3" t="e">
-        <v>#REF!</v>
       </c>
       <c r="P114" t="b">
         <f t="shared" si="9"/>
@@ -3634,433 +3703,427 @@
         <v>1</v>
       </c>
     </row>
+    <row r="115" spans="1:17">
+      <c r="A115">
+        <v>13</v>
+      </c>
+      <c r="B115">
+        <f>HLOOKUP(C115,D$111:G$113,D115)</f>
+        <v>13</v>
+      </c>
+      <c r="C115">
+        <v>30</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="J115" s="1">
+        <v>2</v>
+      </c>
+      <c r="P115" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q115" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="116" spans="1:17">
-      <c r="A116" t="s">
-        <v>12</v>
-      </c>
-      <c r="B116" t="str">
-        <f>HLOOKUP(C116,D$116:G$118,1,FALSE)</f>
-        <v>one</v>
-      </c>
-      <c r="C116" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" t="s">
-        <v>32</v>
-      </c>
-      <c r="G116" t="s">
-        <v>40</v>
+      <c r="A116">
+        <v>23</v>
+      </c>
+      <c r="B116">
+        <f>HLOOKUP(C116,D$111:G$113,D116)</f>
+        <v>23</v>
+      </c>
+      <c r="C116">
+        <v>31</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
       </c>
       <c r="J116" s="1">
-        <v>5</v>
-      </c>
-      <c r="K116" t="s">
-        <v>44</v>
-      </c>
-      <c r="L116" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P116" t="b">
-        <f t="shared" ref="P116:P123" si="11">OR(ISBLANK(B116),IF(ISERROR(B116),ERROR.TYPE(B116)=IF(ISBLANK(M116),ERROR.TYPE(A116),ERROR.TYPE(M116)),IF(ISBLANK(M116),AND(NOT(ISBLANK(A116)),A116=B116),B116=M116)))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q116" t="b">
-        <f t="shared" ref="Q116:Q124" si="12">IF(ISBLANK(O116),IF(ISERROR(P116),FALSE,P116),O116)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:17">
       <c r="A117" t="s">
-        <v>35</v>
-      </c>
-      <c r="B117" t="str">
-        <f>HLOOKUP(C117,D$116:G$118,2,FALSE)</f>
-        <v>три</v>
-      </c>
-      <c r="C117" t="s">
-        <v>32</v>
-      </c>
-      <c r="D117" t="s">
-        <v>33</v>
-      </c>
-      <c r="E117" t="s">
-        <v>34</v>
-      </c>
-      <c r="F117" t="s">
-        <v>35</v>
-      </c>
-      <c r="G117" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="B117" t="e">
+        <f>HLOOKUP(C117,D$111:G$113,D117)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C117">
+        <v>31</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
       </c>
       <c r="J117" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M117" s="3" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="P117" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q117" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:17">
       <c r="A118" t="s">
-        <v>42</v>
-      </c>
-      <c r="B118" t="str">
-        <f>HLOOKUP(C118,D$116:G$118,3,FALSE)</f>
-        <v>vier</v>
-      </c>
-      <c r="C118" t="s">
-        <v>40</v>
-      </c>
-      <c r="D118" t="s">
-        <v>36</v>
-      </c>
-      <c r="E118" t="s">
-        <v>37</v>
-      </c>
-      <c r="F118" t="s">
-        <v>38</v>
-      </c>
-      <c r="G118" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="B118" t="e">
+        <f>HLOOKUP(C118,D$111:G$113,D118)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C118">
+        <v>31</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
       </c>
       <c r="J118" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M118" s="3" t="e">
+        <v>#REF!</v>
       </c>
       <c r="P118" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q118" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17">
-      <c r="A119" t="s">
-        <v>12</v>
-      </c>
-      <c r="B119" t="str">
-        <f t="shared" ref="B119:B124" si="13">HLOOKUP(C119,D$116:G$118,D119,FALSE)</f>
-        <v>one</v>
-      </c>
-      <c r="C119" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="J119" s="1">
-        <v>2</v>
-      </c>
-      <c r="P119" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Q119" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:17">
       <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" t="str">
+        <f>HLOOKUP(C120,D$120:G$122,1,FALSE)</f>
+        <v>one</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>32</v>
+      </c>
+      <c r="G120" t="s">
+        <v>40</v>
+      </c>
+      <c r="J120" s="1">
+        <v>5</v>
+      </c>
+      <c r="K120" t="s">
+        <v>44</v>
+      </c>
+      <c r="L120" t="s">
+        <v>24</v>
+      </c>
+      <c r="P120" t="b">
+        <f t="shared" ref="P120:P127" si="11">OR(ISBLANK(B120),IF(ISERROR(B120),ERROR.TYPE(B120)=IF(ISBLANK(M120),ERROR.TYPE(A120),ERROR.TYPE(M120)),IF(ISBLANK(M120),AND(NOT(ISBLANK(A120)),A120=B120),B120=M120)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q120" t="b">
+        <f t="shared" ref="Q120:Q128" si="12">IF(ISBLANK(O120),IF(ISERROR(P120),FALSE,P120),O120)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" t="s">
         <v>35</v>
       </c>
-      <c r="B120" t="str">
+      <c r="B121" t="str">
+        <f>HLOOKUP(C121,D$120:G$122,2,FALSE)</f>
+        <v>три</v>
+      </c>
+      <c r="C121" t="s">
+        <v>32</v>
+      </c>
+      <c r="D121" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" t="s">
+        <v>34</v>
+      </c>
+      <c r="F121" t="s">
+        <v>35</v>
+      </c>
+      <c r="G121" t="s">
+        <v>41</v>
+      </c>
+      <c r="J121" s="1">
+        <v>1</v>
+      </c>
+      <c r="P121" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q121" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" t="s">
+        <v>42</v>
+      </c>
+      <c r="B122" t="str">
+        <f>HLOOKUP(C122,D$120:G$122,3,FALSE)</f>
+        <v>vier</v>
+      </c>
+      <c r="C122" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122" t="s">
+        <v>36</v>
+      </c>
+      <c r="E122" t="s">
+        <v>37</v>
+      </c>
+      <c r="F122" t="s">
+        <v>38</v>
+      </c>
+      <c r="G122" t="s">
+        <v>42</v>
+      </c>
+      <c r="J122" s="1">
+        <v>1</v>
+      </c>
+      <c r="P122" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q122" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" ref="B123:B128" si="13">HLOOKUP(C123,D$120:G$122,D123,FALSE)</f>
+        <v>one</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="J123" s="1">
+        <v>2</v>
+      </c>
+      <c r="P123" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q123" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124" t="s">
+        <v>35</v>
+      </c>
+      <c r="B124" t="str">
         <f t="shared" si="13"/>
         <v>три</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C124" t="s">
         <v>32</v>
       </c>
-      <c r="D120">
-        <v>2</v>
-      </c>
-      <c r="J120" s="1">
-        <v>2</v>
-      </c>
-      <c r="P120" t="b">
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="J124" s="1">
+        <v>2</v>
+      </c>
+      <c r="P124" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Q120" t="b">
+      <c r="Q124" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
-      <c r="A121" t="s">
+    <row r="125" spans="1:17">
+      <c r="A125" t="s">
         <v>42</v>
       </c>
-      <c r="B121" t="str">
+      <c r="B125" t="str">
         <f t="shared" si="13"/>
         <v>vier</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C125" t="s">
         <v>40</v>
       </c>
-      <c r="D121">
+      <c r="D125">
         <v>3</v>
       </c>
-      <c r="J121" s="1">
-        <v>2</v>
-      </c>
-      <c r="P121" t="b">
+      <c r="J125" s="1">
+        <v>2</v>
+      </c>
+      <c r="P125" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Q121" t="b">
+      <c r="Q125" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
-      <c r="A122" t="s">
+    <row r="126" spans="1:17">
+      <c r="A126" t="s">
         <v>46</v>
       </c>
-      <c r="B122" t="e">
+      <c r="B126" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C126" t="s">
         <v>43</v>
       </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="J122" s="1">
-        <v>2</v>
-      </c>
-      <c r="M122" s="3" t="e">
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="J126" s="1">
+        <v>2</v>
+      </c>
+      <c r="M126" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P122" t="b">
-        <f>OR(ISBLANK(B122),IF(ISERROR(B122),ERROR.TYPE(B122)=IF(ISBLANK(M122),ERROR.TYPE(A122),ERROR.TYPE(M122)),IF(ISBLANK(M122),AND(NOT(ISBLANK(A122)),A122=B122),B122=M122)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q122" t="b">
+      <c r="P126" t="b">
+        <f>OR(ISBLANK(B126),IF(ISERROR(B126),ERROR.TYPE(B126)=IF(ISBLANK(M126),ERROR.TYPE(A126),ERROR.TYPE(M126)),IF(ISBLANK(M126),AND(NOT(ISBLANK(A126)),A126=B126),B126=M126)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q126" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
-      <c r="A123" t="s">
+    <row r="127" spans="1:17">
+      <c r="A127" t="s">
         <v>45</v>
       </c>
-      <c r="B123" t="e">
+      <c r="B127" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C123" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123">
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127">
         <v>0</v>
       </c>
-      <c r="J123" s="1">
-        <v>2</v>
-      </c>
-      <c r="M123" s="3" t="e">
+      <c r="J127" s="1">
+        <v>2</v>
+      </c>
+      <c r="M127" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P123" t="b">
+      <c r="P127" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Q123" t="b">
+      <c r="Q127" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
-      <c r="A124" t="s">
+    <row r="128" spans="1:17">
+      <c r="A128" t="s">
         <v>45</v>
       </c>
-      <c r="B124" t="e">
+      <c r="B128" t="e">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="C124" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124">
-        <v>4</v>
-      </c>
-      <c r="J124" s="1">
-        <v>2</v>
-      </c>
-      <c r="M124" s="3" t="e">
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="J128" s="1">
+        <v>2</v>
+      </c>
+      <c r="M128" s="3" t="e">
         <v>#REF!</v>
       </c>
-      <c r="P124" t="b">
-        <f>OR(ISBLANK(B124),IF(ISERROR(B124),ERROR.TYPE(B124)=IF(ISBLANK(M124),ERROR.TYPE(A124),ERROR.TYPE(M124)),IF(ISBLANK(M124),AND(NOT(ISBLANK(A124)),A124=B124),B124=M124)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q124" t="b">
+      <c r="P128" t="b">
+        <f>OR(ISBLANK(B128),IF(ISERROR(B128),ERROR.TYPE(B128)=IF(ISBLANK(M128),ERROR.TYPE(A128),ERROR.TYPE(M128)),IF(ISBLANK(M128),AND(NOT(ISBLANK(A128)),A128=B128),B128=M128)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q128" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17">
-      <c r="A126">
-        <v>22</v>
-      </c>
-      <c r="B126">
-        <f>VLOOKUP(C126,D$126:F$128,3)</f>
-        <v>22</v>
-      </c>
-      <c r="C126">
-        <v>29</v>
-      </c>
-      <c r="D126">
-        <v>10</v>
-      </c>
-      <c r="E126">
-        <v>11</v>
-      </c>
-      <c r="F126">
-        <v>21</v>
-      </c>
-      <c r="J126" s="1">
-        <v>4</v>
-      </c>
-      <c r="K126" t="s">
-        <v>25</v>
-      </c>
-      <c r="L126" t="s">
-        <v>25</v>
-      </c>
-      <c r="P126" t="b">
-        <f t="shared" ref="P126:P133" si="14">OR(ISBLANK(B126),IF(ISERROR(B126),ERROR.TYPE(B126)=IF(ISBLANK(M126),ERROR.TYPE(A126),ERROR.TYPE(M126)),IF(ISBLANK(M126),AND(NOT(ISBLANK(A126)),A126=B126),B126=M126)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q126" t="b">
-        <f t="shared" ref="Q126:Q133" si="15">IF(ISBLANK(O126),IF(ISERROR(P126),FALSE,P126),O126)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17">
-      <c r="A127">
-        <v>23</v>
-      </c>
-      <c r="B127">
-        <f>VLOOKUP(C127,D$126:F$128,3)</f>
-        <v>23</v>
-      </c>
-      <c r="C127">
-        <v>30</v>
-      </c>
-      <c r="D127">
-        <v>20</v>
-      </c>
-      <c r="E127">
-        <v>12</v>
-      </c>
-      <c r="F127">
-        <v>22</v>
-      </c>
-      <c r="J127" s="1">
-        <v>1</v>
-      </c>
-      <c r="P127" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Q127" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17">
-      <c r="A128">
-        <v>23</v>
-      </c>
-      <c r="B128">
-        <f>VLOOKUP(C128,D$126:F$128,3)</f>
-        <v>23</v>
-      </c>
-      <c r="C128">
-        <v>31</v>
-      </c>
-      <c r="D128">
-        <v>30</v>
-      </c>
-      <c r="E128">
-        <v>13</v>
-      </c>
-      <c r="F128">
-        <v>23</v>
-      </c>
-      <c r="J128" s="1">
-        <v>1</v>
-      </c>
-      <c r="P128" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Q128" t="b">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17">
-      <c r="A129">
-        <v>20</v>
-      </c>
-      <c r="B129">
-        <f>VLOOKUP(C129,D$126:F$128,D129)</f>
-        <v>20</v>
-      </c>
-      <c r="C129">
-        <v>29</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="J129" s="1">
-        <v>2</v>
-      </c>
-      <c r="P129" t="b">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Q129" t="b">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:17">
       <c r="A130">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B130">
-        <f>VLOOKUP(C130,D$126:F$128,D130)</f>
-        <v>13</v>
+        <f>VLOOKUP(C130,D$130:F$132,3)</f>
+        <v>22</v>
       </c>
       <c r="C130">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="E130">
+        <v>11</v>
+      </c>
+      <c r="F130">
+        <v>21</v>
       </c>
       <c r="J130" s="1">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K130" t="s">
+        <v>25</v>
+      </c>
+      <c r="L130" t="s">
+        <v>25</v>
       </c>
       <c r="P130" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="P130:P137" si="14">OR(ISBLANK(B130),IF(ISERROR(B130),ERROR.TYPE(B130)=IF(ISBLANK(M130),ERROR.TYPE(A130),ERROR.TYPE(M130)),IF(ISBLANK(M130),AND(NOT(ISBLANK(A130)),A130=B130),B130=M130)))</f>
         <v>1</v>
       </c>
       <c r="Q130" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="Q130:Q137" si="15">IF(ISBLANK(O130),IF(ISERROR(P130),FALSE,P130),O130)</f>
         <v>1</v>
       </c>
     </row>
@@ -4069,17 +4132,23 @@
         <v>23</v>
       </c>
       <c r="B131">
-        <f>VLOOKUP(C131,D$126:F$128,D131)</f>
+        <f>VLOOKUP(C131,D$130:F$132,3)</f>
         <v>23</v>
       </c>
       <c r="C131">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="E131">
+        <v>12</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
       </c>
       <c r="J131" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P131" t="b">
         <f t="shared" si="14"/>
@@ -4091,24 +4160,27 @@
       </c>
     </row>
     <row r="132" spans="1:17">
-      <c r="A132" t="s">
-        <v>28</v>
-      </c>
-      <c r="B132" t="e">
-        <f>VLOOKUP(C132,D$126:F$128,D132)</f>
-        <v>#VALUE!</v>
+      <c r="A132">
+        <v>23</v>
+      </c>
+      <c r="B132">
+        <f>VLOOKUP(C132,D$130:F$132,3)</f>
+        <v>23</v>
       </c>
       <c r="C132">
         <v>31</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="E132">
+        <v>13</v>
+      </c>
+      <c r="F132">
+        <v>23</v>
       </c>
       <c r="J132" s="1">
-        <v>2</v>
-      </c>
-      <c r="M132" s="3" t="e">
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="P132" t="b">
         <f t="shared" si="14"/>
@@ -4120,24 +4192,21 @@
       </c>
     </row>
     <row r="133" spans="1:17">
-      <c r="A133" t="s">
-        <v>28</v>
-      </c>
-      <c r="B133" t="e">
-        <f>VLOOKUP(C133,D$126:F$128,D133)</f>
-        <v>#REF!</v>
+      <c r="A133">
+        <v>20</v>
+      </c>
+      <c r="B133">
+        <f>VLOOKUP(C133,D$130:F$132,D133)</f>
+        <v>20</v>
       </c>
       <c r="C133">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J133" s="1">
         <v>2</v>
-      </c>
-      <c r="M133" s="3" t="e">
-        <v>#REF!</v>
       </c>
       <c r="P133" t="b">
         <f t="shared" si="14"/>
@@ -4149,608 +4218,706 @@
       </c>
     </row>
     <row r="134" spans="1:17">
-      <c r="M134" s="3"/>
+      <c r="A134">
+        <v>13</v>
+      </c>
+      <c r="B134">
+        <f>VLOOKUP(C134,D$130:F$132,D134)</f>
+        <v>13</v>
+      </c>
+      <c r="C134">
+        <v>30</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="J134" s="1">
+        <v>2</v>
+      </c>
+      <c r="P134" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q134" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:17">
-      <c r="A135" t="s">
-        <v>12</v>
-      </c>
-      <c r="B135" t="str">
-        <f>VLOOKUP(C135,D$135:F$137,1,FALSE)</f>
-        <v>one</v>
-      </c>
-      <c r="C135" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" t="s">
-        <v>33</v>
-      </c>
-      <c r="F135" t="s">
-        <v>36</v>
+      <c r="A135">
+        <v>23</v>
+      </c>
+      <c r="B135">
+        <f>VLOOKUP(C135,D$130:F$132,D135)</f>
+        <v>23</v>
+      </c>
+      <c r="C135">
+        <v>31</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
       </c>
       <c r="J135" s="1">
-        <v>4</v>
-      </c>
-      <c r="K135" t="s">
-        <v>39</v>
-      </c>
-      <c r="L135" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="P135" t="b">
-        <f t="shared" ref="P135:P143" si="16">OR(ISBLANK(B135),IF(ISERROR(B135),ERROR.TYPE(B135)=IF(ISBLANK(M135),ERROR.TYPE(A135),ERROR.TYPE(M135)),IF(ISBLANK(M135),AND(NOT(ISBLANK(A135)),A135=B135),B135=M135)))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q135" t="b">
-        <f t="shared" ref="Q135:Q143" si="17">IF(ISBLANK(O135),IF(ISERROR(P135),FALSE,P135),O135)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:17">
       <c r="A136" t="s">
-        <v>34</v>
-      </c>
-      <c r="B136" t="str">
-        <f>VLOOKUP(C136,D$135:F$137,2,FALSE)</f>
-        <v>два</v>
-      </c>
-      <c r="C136" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136" t="s">
-        <v>13</v>
-      </c>
-      <c r="E136" t="s">
-        <v>34</v>
-      </c>
-      <c r="F136" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="B136" t="e">
+        <f>VLOOKUP(C136,D$130:F$132,D136)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C136">
+        <v>31</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
       </c>
       <c r="J136" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M136" s="3" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="P136" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q136" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:17">
       <c r="A137" t="s">
-        <v>38</v>
-      </c>
-      <c r="B137" t="str">
-        <f>VLOOKUP(C137,D$135:F$137,3,FALSE)</f>
-        <v>drei</v>
-      </c>
-      <c r="C137" t="s">
-        <v>32</v>
-      </c>
-      <c r="D137" t="s">
-        <v>32</v>
-      </c>
-      <c r="E137" t="s">
-        <v>35</v>
-      </c>
-      <c r="F137" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="B137" t="e">
+        <f>VLOOKUP(C137,D$130:F$132,D137)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C137">
+        <v>31</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
       </c>
       <c r="J137" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M137" s="3" t="e">
+        <v>#REF!</v>
       </c>
       <c r="P137" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="Q137" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:17">
-      <c r="A138" t="s">
-        <v>12</v>
-      </c>
-      <c r="B138" t="str">
-        <f t="shared" ref="B138:B143" si="18">VLOOKUP(C138,D$135:F$137,D138,FALSE)</f>
-        <v>one</v>
-      </c>
-      <c r="C138" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="J138" s="1">
-        <v>2</v>
-      </c>
-      <c r="P138" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="Q138" t="b">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
+      <c r="M138" s="3"/>
     </row>
     <row r="139" spans="1:17">
       <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" t="str">
+        <f>VLOOKUP(C139,D$139:F$141,1,FALSE)</f>
+        <v>one</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>33</v>
+      </c>
+      <c r="F139" t="s">
+        <v>36</v>
+      </c>
+      <c r="J139" s="1">
+        <v>4</v>
+      </c>
+      <c r="K139" t="s">
+        <v>39</v>
+      </c>
+      <c r="L139" t="s">
+        <v>25</v>
+      </c>
+      <c r="P139" t="b">
+        <f t="shared" ref="P139:P147" si="16">OR(ISBLANK(B139),IF(ISERROR(B139),ERROR.TYPE(B139)=IF(ISBLANK(M139),ERROR.TYPE(A139),ERROR.TYPE(M139)),IF(ISBLANK(M139),AND(NOT(ISBLANK(A139)),A139=B139),B139=M139)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q139" t="b">
+        <f t="shared" ref="Q139:Q147" si="17">IF(ISBLANK(O139),IF(ISERROR(P139),FALSE,P139),O139)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" t="s">
         <v>34</v>
       </c>
-      <c r="B139" t="str">
+      <c r="B140" t="str">
+        <f>VLOOKUP(C140,D$139:F$141,2,FALSE)</f>
+        <v>два</v>
+      </c>
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" t="s">
+        <v>34</v>
+      </c>
+      <c r="F140" t="s">
+        <v>37</v>
+      </c>
+      <c r="J140" s="1">
+        <v>1</v>
+      </c>
+      <c r="P140" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q140" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" t="s">
+        <v>38</v>
+      </c>
+      <c r="B141" t="str">
+        <f>VLOOKUP(C141,D$139:F$141,3,FALSE)</f>
+        <v>drei</v>
+      </c>
+      <c r="C141" t="s">
+        <v>32</v>
+      </c>
+      <c r="D141" t="s">
+        <v>32</v>
+      </c>
+      <c r="E141" t="s">
+        <v>35</v>
+      </c>
+      <c r="F141" t="s">
+        <v>38</v>
+      </c>
+      <c r="J141" s="1">
+        <v>1</v>
+      </c>
+      <c r="P141" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q141" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" ref="B142:B147" si="18">VLOOKUP(C142,D$139:F$141,D142,FALSE)</f>
+        <v>one</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="J142" s="1">
+        <v>2</v>
+      </c>
+      <c r="P142" t="b">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q142" t="b">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="A143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B143" t="str">
         <f t="shared" si="18"/>
         <v>два</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C143" t="s">
         <v>13</v>
       </c>
-      <c r="D139">
-        <v>2</v>
-      </c>
-      <c r="J139" s="1">
-        <v>2</v>
-      </c>
-      <c r="P139" t="b">
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="J143" s="1">
+        <v>2</v>
+      </c>
+      <c r="P143" t="b">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q139" t="b">
+      <c r="Q143" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
-      <c r="A140" t="s">
+    <row r="144" spans="1:17">
+      <c r="A144" t="s">
         <v>38</v>
       </c>
-      <c r="B140" t="str">
+      <c r="B144" t="str">
         <f t="shared" si="18"/>
         <v>drei</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C144" t="s">
         <v>32</v>
       </c>
-      <c r="D140">
+      <c r="D144">
         <v>3</v>
       </c>
-      <c r="J140" s="1">
-        <v>2</v>
-      </c>
-      <c r="P140" t="b">
+      <c r="J144" s="1">
+        <v>2</v>
+      </c>
+      <c r="P144" t="b">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q140" t="b">
+      <c r="Q144" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
-      <c r="A141" t="s">
+    <row r="145" spans="1:17">
+      <c r="A145" t="s">
         <v>46</v>
       </c>
-      <c r="B141" t="e">
+      <c r="B145" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C145" t="s">
         <v>40</v>
       </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-      <c r="J141" s="1">
-        <v>2</v>
-      </c>
-      <c r="M141" s="3" t="e">
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="J145" s="1">
+        <v>2</v>
+      </c>
+      <c r="M145" s="3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P141" t="b">
+      <c r="P145" t="b">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q141" t="b">
+      <c r="Q145" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
-      <c r="A142" t="s">
+    <row r="146" spans="1:17">
+      <c r="A146" t="s">
         <v>45</v>
       </c>
-      <c r="B142" t="e">
+      <c r="B146" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C142" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142">
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146">
         <v>0</v>
       </c>
-      <c r="J142" s="1">
-        <v>2</v>
-      </c>
-      <c r="M142" s="3" t="e">
+      <c r="J146" s="1">
+        <v>2</v>
+      </c>
+      <c r="M146" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P142" t="b">
+      <c r="P146" t="b">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q142" t="b">
+      <c r="Q146" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
-      <c r="A143" t="s">
+    <row r="147" spans="1:17">
+      <c r="A147" t="s">
         <v>45</v>
       </c>
-      <c r="B143" t="e">
+      <c r="B147" t="e">
         <f t="shared" si="18"/>
         <v>#REF!</v>
       </c>
-      <c r="C143" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143">
-        <v>4</v>
-      </c>
-      <c r="J143" s="1">
-        <v>2</v>
-      </c>
-      <c r="M143" s="3" t="e">
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147">
+        <v>4</v>
+      </c>
+      <c r="J147" s="1">
+        <v>2</v>
+      </c>
+      <c r="M147" s="3" t="e">
         <v>#REF!</v>
       </c>
-      <c r="P143" t="b">
+      <c r="P147" t="b">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q143" t="b">
+      <c r="Q147" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
-      <c r="M144" s="3"/>
-    </row>
-    <row r="145" spans="1:17">
-      <c r="A145">
+    <row r="148" spans="1:17">
+      <c r="M148" s="3"/>
+    </row>
+    <row r="149" spans="1:17">
+      <c r="A149">
         <v>11</v>
       </c>
-      <c r="B145">
-        <f t="shared" ref="B145:B150" si="19">CHOOSE(C145,D145,E145,F145)</f>
+      <c r="B149">
+        <f t="shared" ref="B149:B154" si="19">CHOOSE(C149,D149,E149,F149)</f>
         <v>11</v>
       </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-      <c r="D145">
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
         <v>11</v>
       </c>
-      <c r="E145">
-        <v>12</v>
-      </c>
-      <c r="F145">
+      <c r="E149">
+        <v>12</v>
+      </c>
+      <c r="F149">
         <v>13</v>
       </c>
-      <c r="J145" s="1">
-        <v>4</v>
-      </c>
-      <c r="K145" t="s">
+      <c r="J149" s="1">
+        <v>4</v>
+      </c>
+      <c r="K149" t="s">
         <v>26</v>
       </c>
-      <c r="L145" t="s">
+      <c r="L149" t="s">
         <v>26</v>
       </c>
-      <c r="M145" s="3"/>
-      <c r="P145" t="b">
-        <f t="shared" ref="P145:P150" si="20">OR(ISBLANK(B145),IF(ISERROR(B145),ERROR.TYPE(B145)=IF(ISBLANK(M145),ERROR.TYPE(A145),ERROR.TYPE(M145)),IF(ISBLANK(M145),AND(NOT(ISBLANK(A145)),A145=B145),B145=M145)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q145" t="b">
-        <f t="shared" ref="Q145:Q150" si="21">IF(ISBLANK(O145),IF(ISERROR(P145),FALSE,P145),O145)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17">
-      <c r="A146">
+      <c r="M149" s="3"/>
+      <c r="P149" t="b">
+        <f t="shared" ref="P149:P154" si="20">OR(ISBLANK(B149),IF(ISERROR(B149),ERROR.TYPE(B149)=IF(ISBLANK(M149),ERROR.TYPE(A149),ERROR.TYPE(M149)),IF(ISBLANK(M149),AND(NOT(ISBLANK(A149)),A149=B149),B149=M149)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q149" t="b">
+        <f t="shared" ref="Q149:Q154" si="21">IF(ISBLANK(O149),IF(ISERROR(P149),FALSE,P149),O149)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17">
+      <c r="A150">
         <v>22</v>
       </c>
-      <c r="B146">
+      <c r="B150">
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-      <c r="C146">
-        <v>2</v>
-      </c>
-      <c r="D146">
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
         <v>21</v>
       </c>
-      <c r="E146">
+      <c r="E150">
         <v>22</v>
       </c>
-      <c r="F146">
+      <c r="F150">
         <v>23</v>
       </c>
-      <c r="J146" s="1">
-        <v>4</v>
-      </c>
-      <c r="P146" t="b">
+      <c r="J150" s="1">
+        <v>4</v>
+      </c>
+      <c r="P150" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="Q146" t="b">
+      <c r="Q150" t="b">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
-      <c r="A147">
+    <row r="151" spans="1:17">
+      <c r="A151">
         <v>33</v>
       </c>
-      <c r="B147">
+      <c r="B151">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="C147">
+      <c r="C151">
         <v>3</v>
       </c>
-      <c r="D147">
+      <c r="D151">
         <v>31</v>
       </c>
-      <c r="E147">
+      <c r="E151">
         <v>32</v>
       </c>
-      <c r="F147">
+      <c r="F151">
         <v>33</v>
       </c>
-      <c r="J147" s="1">
-        <v>4</v>
-      </c>
-      <c r="P147" t="b">
+      <c r="J151" s="1">
+        <v>4</v>
+      </c>
+      <c r="P151" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="Q147" t="b">
+      <c r="Q151" t="b">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
-      <c r="A148" t="s">
+    <row r="152" spans="1:17">
+      <c r="A152" t="s">
         <v>28</v>
       </c>
-      <c r="B148" t="e">
+      <c r="B152" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C148">
-        <v>4</v>
-      </c>
-      <c r="D148">
+      <c r="C152">
+        <v>4</v>
+      </c>
+      <c r="D152">
         <v>11</v>
       </c>
-      <c r="E148">
-        <v>12</v>
-      </c>
-      <c r="F148">
+      <c r="E152">
+        <v>12</v>
+      </c>
+      <c r="F152">
         <v>13</v>
       </c>
-      <c r="J148" s="1">
-        <v>4</v>
-      </c>
-      <c r="M148" s="3" t="e">
+      <c r="J152" s="1">
+        <v>4</v>
+      </c>
+      <c r="M152" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P148" t="b">
+      <c r="P152" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="Q148" t="b">
+      <c r="Q152" t="b">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
-      <c r="A149" t="s">
+    <row r="153" spans="1:17">
+      <c r="A153" t="s">
         <v>28</v>
       </c>
-      <c r="B149" t="e">
+      <c r="B153" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
-      <c r="C149">
+      <c r="C153">
         <v>0</v>
       </c>
-      <c r="D149">
+      <c r="D153">
         <v>11</v>
       </c>
-      <c r="E149">
-        <v>12</v>
-      </c>
-      <c r="F149">
+      <c r="E153">
+        <v>12</v>
+      </c>
+      <c r="F153">
         <v>13</v>
       </c>
-      <c r="J149" s="1">
-        <v>4</v>
-      </c>
-      <c r="M149" s="3" t="e">
+      <c r="J153" s="1">
+        <v>4</v>
+      </c>
+      <c r="M153" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P149" t="b">
+      <c r="P153" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="Q149" t="b">
+      <c r="Q153" t="b">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
-      <c r="A150">
-        <v>12</v>
-      </c>
-      <c r="B150">
+    <row r="154" spans="1:17">
+      <c r="A154">
+        <v>12</v>
+      </c>
+      <c r="B154">
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="C150">
+      <c r="C154">
         <v>2.99</v>
       </c>
-      <c r="D150">
+      <c r="D154">
         <v>11</v>
       </c>
-      <c r="E150">
-        <v>12</v>
-      </c>
-      <c r="F150">
+      <c r="E154">
+        <v>12</v>
+      </c>
+      <c r="F154">
         <v>13</v>
       </c>
-      <c r="J150" s="1">
-        <v>4</v>
-      </c>
-      <c r="P150" t="b">
+      <c r="J154" s="1">
+        <v>4</v>
+      </c>
+      <c r="P154" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="Q150" t="b">
+      <c r="Q154" t="b">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17">
-      <c r="A152">
-        <v>2</v>
-      </c>
-      <c r="B152">
-        <f>COLUMN()</f>
-        <v>2</v>
-      </c>
-      <c r="J152" s="1">
-        <v>0</v>
-      </c>
-      <c r="K152" t="s">
-        <v>47</v>
-      </c>
-      <c r="L152" t="s">
-        <v>47</v>
-      </c>
-      <c r="P152" t="b">
-        <f t="shared" ref="P152:P153" si="22">OR(ISBLANK(B152),IF(ISERROR(B152),ERROR.TYPE(B152)=IF(ISBLANK(M152),ERROR.TYPE(A152),ERROR.TYPE(M152)),IF(ISBLANK(M152),AND(NOT(ISBLANK(A152)),A152=B152),B152=M152)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q152" t="b">
-        <f t="shared" ref="Q152:Q153" si="23">IF(ISBLANK(O152),IF(ISERROR(P152),FALSE,P152),O152)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17">
-      <c r="A153">
-        <v>3</v>
-      </c>
-      <c r="B153">
-        <f>COLUMN(C153)</f>
-        <v>3</v>
-      </c>
-      <c r="J153" s="1">
-        <v>1</v>
-      </c>
-      <c r="P153" t="b">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="Q153" t="b">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17">
-      <c r="A155">
-        <v>155</v>
-      </c>
-      <c r="B155">
-        <f>ROW()</f>
-        <v>155</v>
-      </c>
-      <c r="J155" s="1">
-        <v>0</v>
-      </c>
-      <c r="K155" t="s">
-        <v>48</v>
-      </c>
-      <c r="L155" t="s">
-        <v>48</v>
-      </c>
-      <c r="P155" t="b">
-        <f t="shared" ref="P155:P156" si="24">OR(ISBLANK(B155),IF(ISERROR(B155),ERROR.TYPE(B155)=IF(ISBLANK(M155),ERROR.TYPE(A155),ERROR.TYPE(M155)),IF(ISBLANK(M155),AND(NOT(ISBLANK(A155)),A155=B155),B155=M155)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q155" t="b">
-        <f t="shared" ref="Q155:Q156" si="25">IF(ISBLANK(O155),IF(ISERROR(P155),FALSE,P155),O155)</f>
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:17">
       <c r="A156">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="B156">
-        <f>ROW(C156)</f>
-        <v>156</v>
+        <f>COLUMN()</f>
+        <v>2</v>
       </c>
       <c r="J156" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K156" t="s">
+        <v>47</v>
+      </c>
+      <c r="L156" t="s">
+        <v>47</v>
       </c>
       <c r="P156" t="b">
+        <f t="shared" ref="P156:P157" si="22">OR(ISBLANK(B156),IF(ISERROR(B156),ERROR.TYPE(B156)=IF(ISBLANK(M156),ERROR.TYPE(A156),ERROR.TYPE(M156)),IF(ISBLANK(M156),AND(NOT(ISBLANK(A156)),A156=B156),B156=M156)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q156" t="b">
+        <f t="shared" ref="Q156:Q157" si="23">IF(ISBLANK(O156),IF(ISERROR(P156),FALSE,P156),O156)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157">
+        <f>COLUMN(C157)</f>
+        <v>3</v>
+      </c>
+      <c r="J157" s="1">
+        <v>1</v>
+      </c>
+      <c r="P157" t="b">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="Q157" t="b">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <f>ROW()</f>
+        <v>159</v>
+      </c>
+      <c r="J159" s="1">
+        <v>0</v>
+      </c>
+      <c r="K159" t="s">
+        <v>48</v>
+      </c>
+      <c r="L159" t="s">
+        <v>48</v>
+      </c>
+      <c r="P159" t="b">
+        <f t="shared" ref="P159:P160" si="24">OR(ISBLANK(B159),IF(ISERROR(B159),ERROR.TYPE(B159)=IF(ISBLANK(M159),ERROR.TYPE(A159),ERROR.TYPE(M159)),IF(ISBLANK(M159),AND(NOT(ISBLANK(A159)),A159=B159),B159=M159)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q159" t="b">
+        <f t="shared" ref="Q159:Q160" si="25">IF(ISBLANK(O159),IF(ISERROR(P159),FALSE,P159),O159)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <f>ROW(C160)</f>
+        <v>160</v>
+      </c>
+      <c r="J160" s="1">
+        <v>1</v>
+      </c>
+      <c r="P160" t="b">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="Q156" t="b">
+      <c r="Q160" t="b">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="13:13">
-      <c r="M164" s="3"/>
     </row>
     <row r="168" spans="13:13">
       <c r="M168" s="3"/>
     </row>
-    <row r="170" spans="13:13">
-      <c r="M170" s="3"/>
-    </row>
-    <row r="171" spans="13:13">
-      <c r="M171" s="3"/>
-    </row>
-    <row r="173" spans="13:13">
-      <c r="M173" s="3"/>
+    <row r="172" spans="13:13">
+      <c r="M172" s="3"/>
+    </row>
+    <row r="174" spans="13:13">
+      <c r="M174" s="3"/>
     </row>
     <row r="175" spans="13:13">
       <c r="M175" s="3"/>
     </row>
-    <row r="176" spans="13:13">
-      <c r="M176" s="3"/>
+    <row r="177" spans="13:13">
+      <c r="M177" s="3"/>
+    </row>
+    <row r="179" spans="13:13">
+      <c r="M179" s="3"/>
     </row>
     <row r="180" spans="13:13">
       <c r="M180" s="3"/>
     </row>
-    <row r="181" spans="13:13">
-      <c r="M181" s="3"/>
-    </row>
-    <row r="182" spans="13:13">
-      <c r="M182" s="3"/>
-    </row>
-    <row r="183" spans="13:13">
-      <c r="M183" s="3"/>
-    </row>
     <row r="184" spans="13:13">
       <c r="M184" s="3"/>
     </row>
@@ -4805,42 +4972,90 @@
     <row r="201" spans="13:13">
       <c r="M201" s="3"/>
     </row>
+    <row r="202" spans="13:13">
+      <c r="M202" s="3"/>
+    </row>
+    <row r="203" spans="13:13">
+      <c r="M203" s="3"/>
+    </row>
+    <row r="204" spans="13:13">
+      <c r="M204" s="3"/>
+    </row>
+    <row r="205" spans="13:13">
+      <c r="M205" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A10031">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:A10035">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>NOT(OR(ISBLANK(Q2),Q2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
       <formula>NOT(AND(ISBLANK(M2),ISBLANK(O2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I10031">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="C2:I10035">
+    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
       <formula>$J2&gt;COLUMN(C2)-3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M10031">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="M2:M10035">
+    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(M2)),IF(ISERROR(A2),ERROR.TYPE(A2)=ERROR.TYPE(M2),A2=M2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:A83">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
-      <formula>NOT(OR(ISBLANK(Q82),Q82))</formula>
+  <conditionalFormatting sqref="A86:A87">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+      <formula>NOT(OR(ISBLANK(Q86),Q86))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
-      <formula>NOT(AND(ISBLANK(M82),ISBLANK(O82)))</formula>
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+      <formula>NOT(AND(ISBLANK(M86),ISBLANK(O86)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83 I82:I83 C82:G83">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
-      <formula>$J82&gt;COLUMN(C82)-3</formula>
+  <conditionalFormatting sqref="H87 I86:I87 C86:G87">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>$J86&gt;COLUMN(C86)-3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M82:M83">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
-      <formula>AND(NOT(ISBLANK(M82)),IF(ISERROR(A82),ERROR.TYPE(A82)=ERROR.TYPE(M82),A82=M82))</formula>
+  <conditionalFormatting sqref="M86:M87">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK(M86)),IF(ISERROR(A86),ERROR.TYPE(A86)=ERROR.TYPE(M86),A86=M86))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:A13">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+      <formula>NOT(OR(ISBLANK(Q12),Q12))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>NOT(AND(ISBLANK(M12),ISBLANK(O12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:I13">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>$J12&gt;COLUMN(C12)-3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:M13">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK(M12)),IF(ISERROR(A12),ERROR.TYPE(A12)=ERROR.TYPE(M12),A12=M12))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A26">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>NOT(OR(ISBLANK(Q25),Q25))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>NOT(AND(ISBLANK(M25),ISBLANK(O25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:I26">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$J25&gt;COLUMN(C25)-3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25:M26">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK(M25)),IF(ISERROR(A25),ERROR.TYPE(A25)=ERROR.TYPE(M25),A25=M25))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/components/system/src/test-reference/data/org/formulacompiler/tests/reference/LookupFunctions.xlsx
+++ b/components/system/src/test-reference/data/org/formulacompiler/tests/reference/LookupFunctions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="69">
   <si>
     <t>Actual</t>
   </si>
@@ -170,6 +170,57 @@
   </si>
   <si>
     <t>MATCH (descending, trailing NULLs)</t>
+  </si>
+  <si>
+    <t>Sheet1!$C$2</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>Sheet1!R2C3</t>
+  </si>
+  <si>
+    <t>'Sheet 2'!$C$2</t>
+  </si>
+  <si>
+    <t>Sheet 2</t>
+  </si>
+  <si>
+    <t>'Sheet''3'!R2C3</t>
+  </si>
+  <si>
+    <t>Sheet'3</t>
+  </si>
+  <si>
+    <t>C$2</t>
+  </si>
+  <si>
+    <t>$C2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R2C[3]</t>
+  </si>
+  <si>
+    <t>R[2]C3</t>
+  </si>
+  <si>
+    <t>R[2]C[3]</t>
+  </si>
+  <si>
+    <t>R[-2]C[-1]</t>
+  </si>
+  <si>
+    <t>IV55555</t>
+  </si>
+  <si>
+    <t>$DX$56</t>
   </si>
 </sst>
 </file>
@@ -235,7 +286,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -640,9 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4897,16 +5002,440 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="13:13">
-      <c r="M168" s="3"/>
-    </row>
-    <row r="172" spans="13:13">
-      <c r="M172" s="3"/>
-    </row>
-    <row r="174" spans="13:13">
+    <row r="162" spans="1:17">
+      <c r="A162" t="s">
+        <v>52</v>
+      </c>
+      <c r="B162" t="str">
+        <f>ADDRESS(C162,D162,E162,F162,G162)</f>
+        <v>Sheet1!$C$2</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>53</v>
+      </c>
+      <c r="J162" s="1">
+        <v>5</v>
+      </c>
+      <c r="K162" t="s">
+        <v>54</v>
+      </c>
+      <c r="L162" t="s">
+        <v>54</v>
+      </c>
+      <c r="P162" t="b">
+        <f t="shared" ref="P162:P172" si="26">OR(ISBLANK(B162),IF(ISERROR(B162),ERROR.TYPE(B162)=IF(ISBLANK(M162),ERROR.TYPE(A162),ERROR.TYPE(M162)),IF(ISBLANK(M162),AND(NOT(ISBLANK(A162)),A162=B162),B162=M162)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q162" t="b">
+        <f t="shared" ref="Q162:Q174" si="27">IF(ISBLANK(O162),IF(ISERROR(P162),FALSE,P162),O162)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
+      <c r="A163" t="s">
+        <v>55</v>
+      </c>
+      <c r="B163" t="str">
+        <f>ADDRESS(C163,D163,E163,F163,G163)</f>
+        <v>Sheet1!R2C3</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+      <c r="G163" t="s">
+        <v>53</v>
+      </c>
+      <c r="J163" s="1">
+        <v>5</v>
+      </c>
+      <c r="P163" t="b">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Q163" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17">
+      <c r="A164" t="s">
+        <v>56</v>
+      </c>
+      <c r="B164" t="str">
+        <f>ADDRESS(C164,D164,E164,F164,G164)</f>
+        <v>'Sheet 2'!$C$2</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" t="s">
+        <v>57</v>
+      </c>
+      <c r="J164" s="1">
+        <v>5</v>
+      </c>
+      <c r="K164" t="s">
+        <v>54</v>
+      </c>
+      <c r="L164" t="s">
+        <v>54</v>
+      </c>
+      <c r="P164" t="b">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Q164" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="A165" t="s">
+        <v>58</v>
+      </c>
+      <c r="B165" t="str">
+        <f>ADDRESS(C165,D165,E165,F165,G165)</f>
+        <v>'Sheet''3'!R2C3</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>3</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+      <c r="G165" t="s">
+        <v>59</v>
+      </c>
+      <c r="J165" s="1">
+        <v>5</v>
+      </c>
+      <c r="P165" t="b">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Q165" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="A166" t="s">
+        <v>60</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" ref="B166:B172" si="28">ADDRESS(C166,D166,E166,F166)</f>
+        <v>C$2</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166" t="b">
+        <v>1</v>
+      </c>
+      <c r="J166" s="1">
+        <v>4</v>
+      </c>
+      <c r="P166" t="b">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Q166" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="A167" t="s">
+        <v>61</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="28"/>
+        <v>$C2</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>3</v>
+      </c>
+      <c r="E167">
+        <v>3</v>
+      </c>
+      <c r="F167" t="b">
+        <v>1</v>
+      </c>
+      <c r="J167" s="1">
+        <v>4</v>
+      </c>
+      <c r="P167" t="b">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Q167" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
+      <c r="A168" t="s">
+        <v>62</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="28"/>
+        <v>C2</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168">
+        <v>3</v>
+      </c>
+      <c r="E168">
+        <v>4</v>
+      </c>
+      <c r="F168" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168" s="1">
+        <v>4</v>
+      </c>
+      <c r="P168" t="b">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Q168" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
+      <c r="A169" t="s">
+        <v>63</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="28"/>
+        <v>R2C[3]</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" s="1">
+        <v>4</v>
+      </c>
+      <c r="P169" t="b">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Q169" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17">
+      <c r="A170" t="s">
+        <v>64</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="28"/>
+        <v>R[2]C3</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+      <c r="E170">
+        <v>3</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" s="1">
+        <v>4</v>
+      </c>
+      <c r="M170" s="3"/>
+      <c r="P170" t="b">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Q170" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
+      <c r="A171" t="s">
+        <v>65</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="28"/>
+        <v>R[2]C[3]</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+      <c r="E171">
+        <v>4</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="1">
+        <v>4</v>
+      </c>
+      <c r="P171" t="b">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Q171" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17">
+      <c r="A172" t="s">
+        <v>66</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="28"/>
+        <v>R[-2]C[-1]</v>
+      </c>
+      <c r="C172">
+        <v>-2</v>
+      </c>
+      <c r="D172">
+        <v>-1</v>
+      </c>
+      <c r="E172">
+        <v>4</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="1">
+        <v>4</v>
+      </c>
+      <c r="P172" t="b">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Q172" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17">
+      <c r="A173" t="s">
+        <v>67</v>
+      </c>
+      <c r="B173" t="str">
+        <f>ADDRESS(C173,D173,E173)</f>
+        <v>IV55555</v>
+      </c>
+      <c r="C173">
+        <v>55555</v>
+      </c>
+      <c r="D173">
+        <v>256</v>
+      </c>
+      <c r="E173">
+        <v>4</v>
+      </c>
+      <c r="J173" s="1">
+        <v>3</v>
+      </c>
+      <c r="P173" t="b">
+        <f>OR(ISBLANK(B173),IF(ISERROR(B173),ERROR.TYPE(B173)=IF(ISBLANK(M173),ERROR.TYPE(A173),ERROR.TYPE(M173)),IF(ISBLANK(M173),AND(NOT(ISBLANK(A173)),A173=B173),B173=M173)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q173" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17">
+      <c r="A174" t="s">
+        <v>68</v>
+      </c>
+      <c r="B174" t="str">
+        <f>ADDRESS(C174,D174)</f>
+        <v>$DX$56</v>
+      </c>
+      <c r="C174">
+        <v>56</v>
+      </c>
+      <c r="D174">
+        <v>128</v>
+      </c>
+      <c r="J174" s="1">
+        <v>2</v>
+      </c>
       <c r="M174" s="3"/>
-    </row>
-    <row r="175" spans="13:13">
+      <c r="P174" t="b">
+        <f>OR(ISBLANK(B174),IF(ISERROR(B174),ERROR.TYPE(B174)=IF(ISBLANK(M174),ERROR.TYPE(A174),ERROR.TYPE(M174)),IF(ISBLANK(M174),AND(NOT(ISBLANK(A174)),A174=B174),B174=M174)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q174" t="b">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17">
       <c r="M175" s="3"/>
     </row>
     <row r="177" spans="13:13">
@@ -4987,75 +5516,93 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:A10035">
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="17" stopIfTrue="1">
       <formula>NOT(OR(ISBLANK(Q2),Q2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="18" stopIfTrue="1">
       <formula>NOT(AND(ISBLANK(M2),ISBLANK(O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:I10035">
-    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="19" stopIfTrue="1">
       <formula>$J2&gt;COLUMN(C2)-3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M10035">
-    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="20" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(M2)),IF(ISERROR(A2),ERROR.TYPE(A2)=ERROR.TYPE(M2),A2=M2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A87">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="15" stopIfTrue="1">
       <formula>NOT(OR(ISBLANK(Q86),Q86))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="16" stopIfTrue="1">
       <formula>NOT(AND(ISBLANK(M86),ISBLANK(O86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87 I86:I87 C86:G87">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
       <formula>$J86&gt;COLUMN(C86)-3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M86:M87">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="13" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(M86)),IF(ISERROR(A86),ERROR.TYPE(A86)=ERROR.TYPE(M86),A86=M86))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A13">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
       <formula>NOT(OR(ISBLANK(Q12),Q12))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
       <formula>NOT(AND(ISBLANK(M12),ISBLANK(O12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:I13">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="10" stopIfTrue="1">
       <formula>$J12&gt;COLUMN(C12)-3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M13">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(M12)),IF(ISERROR(A12),ERROR.TYPE(A12)=ERROR.TYPE(M12),A12=M12))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A26">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>NOT(OR(ISBLANK(Q25),Q25))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>NOT(AND(ISBLANK(M25),ISBLANK(O25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:I26">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
       <formula>$J25&gt;COLUMN(C25)-3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:M26">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(M25)),IF(ISERROR(A25),ERROR.TYPE(A25)=ERROR.TYPE(M25),A25=M25))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:A174">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>NOT(OR(ISBLANK(Q162),Q162))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>NOT(AND(ISBLANK(M162),ISBLANK(O162)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C162:I174">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>$J162&gt;COLUMN(C162)-3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M162:M174">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK(M162)),IF(ISERROR(A162),ERROR.TYPE(A162)=ERROR.TYPE(M162),A162=M162))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
